--- a/data/bitacora.xlsx
+++ b/data/bitacora.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupokaufmann-my.sharepoint.com/personal/samuel_sanchez_grupokaufmann_com/Documents/Documentos/Dev/bitacora_diaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0512258D-D438-4C08-81B9-D22ABD3D194E}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00542452-2053-4315-9C1E-AA4CBA39ACA0}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="15720" xr2:uid="{A9E3F017-9040-47A2-B586-0486128F3261}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$127</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="293">
   <si>
     <t>FLOTA</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>KKTT14</t>
+  </si>
+  <si>
+    <t>De Baja (Vendida)</t>
   </si>
   <si>
     <t>WDB932315K0250048</t>
@@ -922,7 +925,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1469,25 +1472,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA66EBA-6B88-4C75-8217-0B7E221D898D}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="16.54296875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="11.453125" style="6"/>
+    <col min="1" max="1" width="39.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +1519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -1539,7 +1542,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1562,7 +1565,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1585,7 +1588,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -1608,7 +1611,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1631,7 +1634,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1654,7 +1657,7 @@
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1677,7 +1680,7 @@
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -1700,7 +1703,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -1723,7 +1726,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1746,7 +1749,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12">
       <c r="A12" s="7" t="s">
         <v>32</v>
       </c>
@@ -1770,7 +1773,7 @@
       <c r="I12" s="12"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12">
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
@@ -1793,7 +1796,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1816,7 +1819,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12">
       <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
@@ -1839,7 +1842,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12">
       <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
@@ -1862,7 +1865,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -1885,7 +1888,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9">
       <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
@@ -1908,7 +1911,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9">
       <c r="A19" s="7" t="s">
         <v>32</v>
       </c>
@@ -1931,7 +1934,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9">
       <c r="A20" s="7" t="s">
         <v>50</v>
       </c>
@@ -1954,7 +1957,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9">
       <c r="A21" s="7" t="s">
         <v>50</v>
       </c>
@@ -1977,7 +1980,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9">
       <c r="A22" s="7" t="s">
         <v>50</v>
       </c>
@@ -2000,7 +2003,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9">
       <c r="A23" s="7" t="s">
         <v>58</v>
       </c>
@@ -2023,7 +2026,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9">
       <c r="A24" s="7" t="s">
         <v>58</v>
       </c>
@@ -2046,7 +2049,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9">
       <c r="A25" s="7" t="s">
         <v>64</v>
       </c>
@@ -2069,7 +2072,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9">
       <c r="A26" s="7" t="s">
         <v>64</v>
       </c>
@@ -2086,21 +2089,21 @@
         <v>53</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D27" s="9">
         <v>46112</v>
@@ -2109,21 +2112,21 @@
         <v>53</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D28" s="9">
         <v>46081</v>
@@ -2138,15 +2141,15 @@
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D29" s="9">
         <v>46053</v>
@@ -2161,15 +2164,15 @@
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9">
       <c r="A30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" s="9">
         <v>46204</v>
@@ -2184,15 +2187,15 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9">
       <c r="A31" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D31" s="9">
         <v>46204</v>
@@ -2207,15 +2210,15 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9">
       <c r="A32" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D32" s="9">
         <v>46204</v>
@@ -2230,15 +2233,15 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9">
       <c r="A33" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D33" s="9">
         <v>46204</v>
@@ -2253,15 +2256,15 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9">
       <c r="A34" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D34" s="9">
         <v>46204</v>
@@ -2276,15 +2279,15 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9">
       <c r="A35" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D35" s="9">
         <v>46204</v>
@@ -2299,15 +2302,15 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9">
       <c r="A36" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D36" s="9">
         <v>46204</v>
@@ -2322,50 +2325,50 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9">
       <c r="A37" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D37" s="9">
         <v>46234</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G37" s="13">
         <v>46049</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D38" s="9">
         <v>46173</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>13</v>
@@ -2374,21 +2377,21 @@
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9">
       <c r="A39" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D39" s="9">
         <v>46173</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>13</v>
@@ -2397,21 +2400,21 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9">
       <c r="A40" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D40" s="9">
         <v>46173</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>13</v>
@@ -2420,21 +2423,21 @@
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9">
       <c r="A41" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D41" s="9">
         <v>46173</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>13</v>
@@ -2443,21 +2446,21 @@
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9">
       <c r="A42" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D42" s="9">
         <v>46173</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>13</v>
@@ -2466,21 +2469,21 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9">
       <c r="A43" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D43" s="9">
         <v>46173</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>13</v>
@@ -2489,21 +2492,21 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9">
       <c r="A44" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D44" s="9">
         <v>46173</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>13</v>
@@ -2512,21 +2515,21 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9">
       <c r="A45" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D45" s="9">
         <v>46173</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>13</v>
@@ -2535,79 +2538,79 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9">
       <c r="A46" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D46" s="9">
         <v>46173</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G46" s="13">
         <v>46042</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D47" s="9">
         <v>46173</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G47" s="13">
         <v>46043</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D48" s="9">
         <v>46173</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>13</v>
@@ -2616,50 +2619,50 @@
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9">
       <c r="A49" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D49" s="9">
         <v>46234</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G49" s="13">
         <v>46049</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D50" s="9">
         <v>46234</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>13</v>
@@ -2668,21 +2671,21 @@
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9">
       <c r="A51" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D51" s="9">
         <v>46234</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>13</v>
@@ -2691,21 +2694,21 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9">
       <c r="A52" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D52" s="9">
         <v>46234</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>13</v>
@@ -2714,21 +2717,21 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D53" s="9">
         <v>46234</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>13</v>
@@ -2737,21 +2740,21 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9">
       <c r="A54" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D54" s="9">
         <v>46234</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>13</v>
@@ -2760,79 +2763,79 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D55" s="9">
         <v>46234</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G55" s="13">
         <v>46049</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D56" s="9">
         <v>46234</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G56" s="13">
         <v>46049</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D57" s="9">
         <v>46234</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>13</v>
@@ -2841,21 +2844,21 @@
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9">
       <c r="A58" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D58" s="9">
         <v>46234</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>13</v>
@@ -2864,21 +2867,21 @@
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9">
       <c r="A59" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D59" s="9">
         <v>46234</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>13</v>
@@ -2887,21 +2890,21 @@
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9">
       <c r="A60" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D60" s="9">
         <v>46081</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>13</v>
@@ -2910,21 +2913,21 @@
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9">
       <c r="A61" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D61" s="9">
         <v>46081</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>13</v>
@@ -2933,15 +2936,15 @@
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9">
       <c r="A62" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D62" s="9">
         <v>46387</v>
@@ -2956,15 +2959,15 @@
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9">
       <c r="A63" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D63" s="9">
         <v>46387</v>
@@ -2979,15 +2982,15 @@
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9">
       <c r="A64" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D64" s="9">
         <v>46387</v>
@@ -3002,15 +3005,15 @@
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9">
       <c r="A65" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D65" s="9">
         <v>46387</v>
@@ -3025,15 +3028,15 @@
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9">
       <c r="A66" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D66" s="9">
         <v>46387</v>
@@ -3048,15 +3051,15 @@
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9">
       <c r="A67" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D67" s="9">
         <v>46387</v>
@@ -3071,15 +3074,15 @@
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9">
       <c r="A68" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D68" s="9">
         <v>46387</v>
@@ -3094,15 +3097,15 @@
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9">
       <c r="A69" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D69" s="9">
         <v>46387</v>
@@ -3117,15 +3120,15 @@
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9">
       <c r="A70" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D70" s="9">
         <v>46387</v>
@@ -3140,15 +3143,15 @@
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9">
       <c r="A71" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D71" s="9">
         <v>46387</v>
@@ -3163,15 +3166,15 @@
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9">
       <c r="A72" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D72" s="9">
         <v>46387</v>
@@ -3186,15 +3189,15 @@
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9">
       <c r="A73" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D73" s="9">
         <v>46053</v>
@@ -3209,15 +3212,15 @@
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9">
       <c r="A74" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D74" s="9">
         <v>46053</v>
@@ -3232,15 +3235,15 @@
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9">
       <c r="A75" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D75" s="9">
         <v>46081</v>
@@ -3255,15 +3258,15 @@
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9">
       <c r="A76" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D76" s="9">
         <v>46081</v>
@@ -3278,15 +3281,15 @@
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9">
       <c r="A77" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D77" s="9">
         <v>45991</v>
@@ -3301,15 +3304,15 @@
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9">
       <c r="A78" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D78" s="9">
         <v>46081</v>
@@ -3324,15 +3327,15 @@
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9">
       <c r="A79" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D79" s="9">
         <v>45991</v>
@@ -3347,15 +3350,15 @@
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9">
       <c r="A80" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D80" s="9">
         <v>45991</v>
@@ -3370,15 +3373,15 @@
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9">
       <c r="A81" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D81" s="9">
         <v>46234</v>
@@ -3393,15 +3396,15 @@
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9">
       <c r="A82" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D82" s="9">
         <v>46234</v>
@@ -3416,15 +3419,15 @@
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9">
       <c r="A83" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D83" s="9">
         <v>46234</v>
@@ -3439,15 +3442,15 @@
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9">
       <c r="A84" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D84" s="9">
         <v>46081</v>
@@ -3462,15 +3465,15 @@
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9">
       <c r="A85" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D85" s="9">
         <v>45991</v>
@@ -3485,15 +3488,15 @@
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9">
       <c r="A86" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D86" s="9">
         <v>45991</v>
@@ -3508,15 +3511,15 @@
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9">
       <c r="A87" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D87" s="9">
         <v>46081</v>
@@ -3531,15 +3534,15 @@
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9">
       <c r="A88" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D88" s="9">
         <v>45991</v>
@@ -3554,15 +3557,15 @@
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9">
       <c r="A89" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D89" s="9">
         <v>45991</v>
@@ -3577,15 +3580,15 @@
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9">
       <c r="A90" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D90" s="9">
         <v>45991</v>
@@ -3600,15 +3603,15 @@
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9">
       <c r="A91" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D91" s="9">
         <v>45658</v>
@@ -3623,15 +3626,15 @@
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9">
       <c r="A92" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D92" s="9">
         <v>45658</v>
@@ -3646,15 +3649,15 @@
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9">
       <c r="A93" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D93" s="9">
         <v>45658</v>
@@ -3669,50 +3672,50 @@
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9">
       <c r="A94" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D94" s="9">
         <v>46081</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G94" s="13">
         <v>46044</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D95" s="9">
         <v>46081</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>13</v>
@@ -3721,21 +3724,21 @@
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9">
       <c r="A96" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D96" s="9">
         <v>46081</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>13</v>
@@ -3744,12 +3747,12 @@
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9">
       <c r="A97" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C97" s="8">
         <v>65153</v>
@@ -3758,7 +3761,7 @@
         <v>47361</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>13</v>
@@ -3767,21 +3770,21 @@
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9">
       <c r="A98" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D98" s="9">
         <v>46356</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>13</v>
@@ -3790,21 +3793,21 @@
       <c r="H98" s="12"/>
       <c r="I98" s="12"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9">
       <c r="A99" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D99" s="9">
         <v>46356</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>13</v>
@@ -3813,21 +3816,21 @@
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9">
       <c r="A100" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D100" s="9">
         <v>46053</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>13</v>
@@ -3836,21 +3839,21 @@
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9">
       <c r="A101" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D101" s="9">
         <v>46053</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>13</v>
@@ -3859,429 +3862,429 @@
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9">
       <c r="A102" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D102" s="9">
         <v>46996</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9">
       <c r="A103" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D103" s="9">
         <v>46996</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9">
       <c r="A104" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D104" s="9">
         <v>46996</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9">
       <c r="A105" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D105" s="9">
         <v>46996</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9">
       <c r="A106" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D106" s="9">
         <v>46996</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9">
       <c r="A107" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D107" s="9">
         <v>46996</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9">
       <c r="A108" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D108" s="9">
         <v>46996</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9">
       <c r="A109" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D109" s="9">
         <v>46996</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9">
       <c r="A110" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D110" s="9">
         <v>46996</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9">
       <c r="A111" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D111" s="9">
         <v>46996</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9">
       <c r="A112" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D112" s="9">
         <v>46996</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9">
       <c r="A113" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D113" s="9">
         <v>46996</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G113" s="11"/>
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9">
       <c r="A114" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D114" s="9">
         <v>46996</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G114" s="11"/>
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9">
       <c r="A115" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D115" s="9">
         <v>46996</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G115" s="11"/>
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9">
       <c r="A116" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D116" s="9">
         <v>46996</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G116" s="11"/>
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9">
       <c r="A117" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D117" s="9">
         <v>46996</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G117" s="11"/>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9">
       <c r="A118" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D118" s="9">
         <v>46996</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G118" s="11"/>
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9">
       <c r="A119" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D119" s="9">
         <v>46996</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G119" s="11"/>
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9">
       <c r="A120" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D120" s="9">
         <v>45961</v>
@@ -4296,15 +4299,15 @@
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9">
       <c r="A121" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D121" s="9">
         <v>45961</v>
@@ -4319,15 +4322,15 @@
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9">
       <c r="A122" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D122" s="9">
         <v>45961</v>
@@ -4342,21 +4345,21 @@
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9">
       <c r="A123" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D123" s="9">
         <v>46081</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F123" s="10" t="s">
         <v>13</v>
@@ -4365,15 +4368,15 @@
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9">
       <c r="A124" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D124" s="9">
         <v>46507</v>
@@ -4388,15 +4391,15 @@
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9">
       <c r="A125" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D125" s="9">
         <v>46507</v>
@@ -4411,15 +4414,15 @@
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9">
       <c r="A126" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D126" s="9">
         <v>46507</v>
@@ -4434,15 +4437,15 @@
       <c r="H126" s="12"/>
       <c r="I126" s="12"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9">
       <c r="A127" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D127" s="9">
         <v>46203</v>
@@ -4457,8 +4460,8 @@
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35"/>
-    <row r="129" x14ac:dyDescent="0.35"/>
+    <row r="128" spans="1:9"/>
+    <row r="129"/>
   </sheetData>
   <autoFilter ref="A1:F127" xr:uid="{EDA66EBA-6B88-4C75-8217-0B7E221D898D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4473,413 +4476,413 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="54" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:14">
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:14">
       <c r="D3" s="1">
         <v>868589060374017</v>
       </c>
       <c r="F3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G3" s="2" t="e">
         <f ca="1">VLOOKUP(D3,Hoja2!G:K,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I3" s="4">
         <v>46043</v>
       </c>
     </row>
-    <row r="4" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:14">
       <c r="D4" s="1">
         <v>868589060674226</v>
       </c>
       <c r="F4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G4" s="2" t="e">
         <f ca="1">VLOOKUP(D4,Hoja2!G:K,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I4" s="4">
         <v>46043</v>
       </c>
     </row>
-    <row r="5" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:14">
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:14">
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:14">
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:14">
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:14">
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:14">
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:14">
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:14">
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:14">
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:14">
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:14">
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:14">
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="13:14">
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="13:14">
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="13:14">
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="13:14">
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="13:14">
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="13:14">
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="13:14">
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="13:14">
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="13:14">
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="13:14">
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="13:14">
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="13:14">
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="13:14">
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="13:14">
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="13:14">
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="13:14">
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="13:14">
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="13:14">
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="13:14">
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="13:14">
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="13:14">
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="13:14">
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="13:14">
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="13:14">
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="13:14">
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="13:14">
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="13:14">
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="13:14">
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="13:14">
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="13:14">
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="13:14">
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="13:14">
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="13:14">
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="13:14">
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="13:14">
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="13:14">
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="13:14">
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="13:14">
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="13:14">
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="13:14">
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="13:14">
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="13:14">
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="13:14">
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="13:14">
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="13:14">
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="13:14">
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="13:14">
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="13:14">
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="13:14">
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
     </row>
-    <row r="66" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="13:14">
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
     </row>
-    <row r="67" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="13:14">
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
     </row>
-    <row r="68" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="13:14">
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="13:14">
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="13:14">
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
     </row>
-    <row r="71" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="13:14">
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
     </row>
-    <row r="72" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="13:14">
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
     </row>
-    <row r="73" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="13:14">
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
     </row>
-    <row r="74" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="13:14">
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="13:14">
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
     </row>
-    <row r="76" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="13:14">
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
     </row>
-    <row r="77" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="13:14">
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
     </row>
-    <row r="78" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="13:14">
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
     </row>
-    <row r="79" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="13:14">
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
     </row>
-    <row r="80" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="13:14">
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="13:14">
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="13:14">
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
     </row>
-    <row r="83" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="13:14">
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
     </row>
-    <row r="84" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="13:14">
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
     </row>
-    <row r="85" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="13:14">
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
     </row>
-    <row r="86" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="13:14">
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
     </row>
-    <row r="87" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="13:14">
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
     </row>
-    <row r="88" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="13:14">
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
     </row>
-    <row r="89" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="13:14">
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
     </row>
-    <row r="90" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="13:14">
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
     </row>
-    <row r="91" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="13:14">
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
     </row>
-    <row r="92" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="13:14">
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
     </row>
@@ -4889,6 +4892,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100027709BF533FA442AFC4A8B2C0110727" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a37fc0d7c302f7619d355a49e1f175a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xmlns:ns4="bda9c1ec-c4e2-44f9-929c-ca399fe36c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="01250a30c504a808427f15ccf149ee4d" ns3:_="" ns4:_="">
     <xsd:import namespace="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
@@ -5121,56 +5141,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
-    <ds:schemaRef ds:uri="bda9c1ec-c4e2-44f9-929c-ca399fe36c88"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}"/>
 </file>
--- a/data/bitacora.xlsx
+++ b/data/bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupokaufmann-my.sharepoint.com/personal/samuel_sanchez_grupokaufmann_com/Documents/Documentos/Dev/bitacora_diaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00542452-2053-4315-9C1E-AA4CBA39ACA0}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7C8B8C5-D872-43BF-AE5D-CE340017A35B}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="15720" xr2:uid="{A9E3F017-9040-47A2-B586-0486128F3261}"/>
   </bookViews>
@@ -249,7 +249,7 @@
     <t>KKTT14</t>
   </si>
   <si>
-    <t>De Baja (Vendida)</t>
+    <t xml:space="preserve">De Baja </t>
   </si>
   <si>
     <t>WDB932315K0250048</t>
@@ -1472,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA66EBA-6B88-4C75-8217-0B7E221D898D}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/data/bitacora.xlsx
+++ b/data/bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupokaufmann-my.sharepoint.com/personal/samuel_sanchez_grupokaufmann_com/Documents/Documentos/Dev/bitacora_diaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7C8B8C5-D872-43BF-AE5D-CE340017A35B}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1981980-21FF-46DE-BA6D-367AF2F772A9}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="15720" xr2:uid="{A9E3F017-9040-47A2-B586-0486128F3261}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="294">
   <si>
     <t>FLOTA</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>RJYS61</t>
+  </si>
+  <si>
+    <t>Kam Dañado</t>
   </si>
   <si>
     <t>W1T964026M0488034</t>
@@ -988,7 +991,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1076,11 +1079,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1136,6 +1174,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1472,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA66EBA-6B88-4C75-8217-0B7E221D898D}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:F27"/>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1485,7 +1539,7 @@
     <col min="5" max="5" width="40.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" style="16" customWidth="1"/>
     <col min="10" max="16384" width="11.42578125" style="6"/>
   </cols>
@@ -2417,11 +2471,17 @@
         <v>94</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
+        <v>95</v>
+      </c>
+      <c r="G40" s="13">
+        <v>46052</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="7" t="s">
@@ -2440,11 +2500,17 @@
         <v>94</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
+        <v>95</v>
+      </c>
+      <c r="G41" s="13">
+        <v>46055</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="7" t="s">
@@ -2586,13 +2652,13 @@
       <c r="F47" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="28">
         <v>46043</v>
       </c>
-      <c r="H47" s="14" t="s">
+      <c r="H47" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="I47" s="14" t="s">
+      <c r="I47" s="29" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2612,22 +2678,28 @@
       <c r="E48" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="11"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
+      <c r="F48" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G48" s="14">
+        <v>46052</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D49" s="9">
         <v>46234</v>
@@ -2638,13 +2710,13 @@
       <c r="F49" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="30">
         <v>46049</v>
       </c>
-      <c r="H49" s="14" t="s">
+      <c r="H49" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="I49" s="14" t="s">
+      <c r="I49" s="31" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2653,10 +2725,10 @@
         <v>91</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D50" s="9">
         <v>46234</v>
@@ -2676,10 +2748,10 @@
         <v>91</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D51" s="9">
         <v>46234</v>
@@ -2699,10 +2771,10 @@
         <v>91</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D52" s="9">
         <v>46234</v>
@@ -2722,10 +2794,10 @@
         <v>91</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D53" s="9">
         <v>46234</v>
@@ -2745,10 +2817,10 @@
         <v>91</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D54" s="9">
         <v>46234</v>
@@ -2768,10 +2840,10 @@
         <v>91</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D55" s="9">
         <v>46234</v>
@@ -2797,10 +2869,10 @@
         <v>91</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D56" s="9">
         <v>46234</v>
@@ -2826,10 +2898,10 @@
         <v>91</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D57" s="9">
         <v>46234</v>
@@ -2849,10 +2921,10 @@
         <v>91</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D58" s="9">
         <v>46234</v>
@@ -2872,10 +2944,10 @@
         <v>91</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D59" s="9">
         <v>46234</v>
@@ -2895,10 +2967,10 @@
         <v>91</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D60" s="9">
         <v>46081</v>
@@ -2918,10 +2990,10 @@
         <v>91</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D61" s="9">
         <v>46081</v>
@@ -2938,13 +3010,13 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D62" s="9">
         <v>46387</v>
@@ -2961,13 +3033,13 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D63" s="9">
         <v>46387</v>
@@ -2984,13 +3056,13 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D64" s="9">
         <v>46387</v>
@@ -3007,13 +3079,13 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D65" s="9">
         <v>46387</v>
@@ -3030,13 +3102,13 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D66" s="9">
         <v>46387</v>
@@ -3053,13 +3125,13 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D67" s="9">
         <v>46387</v>
@@ -3076,13 +3148,13 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D68" s="9">
         <v>46387</v>
@@ -3099,13 +3171,13 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D69" s="9">
         <v>46387</v>
@@ -3122,13 +3194,13 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D70" s="9">
         <v>46387</v>
@@ -3145,13 +3217,13 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D71" s="9">
         <v>46387</v>
@@ -3168,13 +3240,13 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D72" s="9">
         <v>46387</v>
@@ -3191,13 +3263,13 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D73" s="9">
         <v>46053</v>
@@ -3214,13 +3286,13 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D74" s="9">
         <v>46053</v>
@@ -3237,13 +3309,13 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D75" s="9">
         <v>46081</v>
@@ -3260,13 +3332,13 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D76" s="9">
         <v>46081</v>
@@ -3283,13 +3355,13 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D77" s="9">
         <v>45991</v>
@@ -3306,13 +3378,13 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D78" s="9">
         <v>46081</v>
@@ -3329,13 +3401,13 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D79" s="9">
         <v>45991</v>
@@ -3352,13 +3424,13 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D80" s="9">
         <v>45991</v>
@@ -3375,13 +3447,13 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D81" s="9">
         <v>46234</v>
@@ -3398,13 +3470,13 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D82" s="9">
         <v>46234</v>
@@ -3421,13 +3493,13 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D83" s="9">
         <v>46234</v>
@@ -3444,13 +3516,13 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D84" s="9">
         <v>46081</v>
@@ -3467,13 +3539,13 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D85" s="9">
         <v>45991</v>
@@ -3490,13 +3562,13 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D86" s="9">
         <v>45991</v>
@@ -3513,13 +3585,13 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D87" s="9">
         <v>46081</v>
@@ -3536,13 +3608,13 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D88" s="9">
         <v>45991</v>
@@ -3559,13 +3631,13 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D89" s="9">
         <v>45991</v>
@@ -3582,13 +3654,13 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D90" s="9">
         <v>45991</v>
@@ -3605,13 +3677,13 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D91" s="9">
         <v>45658</v>
@@ -3628,13 +3700,13 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D92" s="9">
         <v>45658</v>
@@ -3651,13 +3723,13 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D93" s="9">
         <v>45658</v>
@@ -3674,13 +3746,13 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D94" s="9">
         <v>46081</v>
@@ -3695,7 +3767,7 @@
         <v>46044</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I94" s="14" t="s">
         <v>97</v>
@@ -3703,13 +3775,13 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D95" s="9">
         <v>46081</v>
@@ -3726,13 +3798,13 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D96" s="9">
         <v>46081</v>
@@ -3749,10 +3821,10 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C97" s="8">
         <v>65153</v>
@@ -3772,19 +3844,19 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D98" s="9">
         <v>46356</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>13</v>
@@ -3795,19 +3867,19 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D99" s="9">
         <v>46356</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>13</v>
@@ -3818,19 +3890,19 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D100" s="9">
         <v>46053</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>13</v>
@@ -3841,19 +3913,19 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D101" s="9">
         <v>46053</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>13</v>
@@ -3864,13 +3936,13 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D102" s="9">
         <v>46996</v>
@@ -3879,7 +3951,7 @@
         <v>94</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
@@ -3887,13 +3959,13 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D103" s="9">
         <v>46996</v>
@@ -3902,7 +3974,7 @@
         <v>94</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
@@ -3910,13 +3982,13 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D104" s="9">
         <v>46996</v>
@@ -3925,7 +3997,7 @@
         <v>94</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
@@ -3933,13 +4005,13 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D105" s="9">
         <v>46996</v>
@@ -3948,7 +4020,7 @@
         <v>94</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
@@ -3956,13 +4028,13 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D106" s="9">
         <v>46996</v>
@@ -3971,7 +4043,7 @@
         <v>94</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
@@ -3979,13 +4051,13 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D107" s="9">
         <v>46996</v>
@@ -3994,7 +4066,7 @@
         <v>94</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
@@ -4002,13 +4074,13 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D108" s="9">
         <v>46996</v>
@@ -4017,7 +4089,7 @@
         <v>94</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
@@ -4025,13 +4097,13 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D109" s="9">
         <v>46996</v>
@@ -4040,7 +4112,7 @@
         <v>94</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
@@ -4048,13 +4120,13 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D110" s="9">
         <v>46996</v>
@@ -4063,7 +4135,7 @@
         <v>94</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
@@ -4071,13 +4143,13 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D111" s="9">
         <v>46996</v>
@@ -4086,7 +4158,7 @@
         <v>94</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
@@ -4094,13 +4166,13 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D112" s="9">
         <v>46996</v>
@@ -4109,7 +4181,7 @@
         <v>94</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
@@ -4117,13 +4189,13 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D113" s="9">
         <v>46996</v>
@@ -4132,7 +4204,7 @@
         <v>94</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G113" s="11"/>
       <c r="H113" s="12"/>
@@ -4140,13 +4212,13 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D114" s="9">
         <v>46996</v>
@@ -4155,7 +4227,7 @@
         <v>94</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G114" s="11"/>
       <c r="H114" s="12"/>
@@ -4163,13 +4235,13 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D115" s="9">
         <v>46996</v>
@@ -4178,7 +4250,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G115" s="11"/>
       <c r="H115" s="12"/>
@@ -4186,13 +4258,13 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D116" s="9">
         <v>46996</v>
@@ -4201,7 +4273,7 @@
         <v>94</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G116" s="11"/>
       <c r="H116" s="12"/>
@@ -4209,13 +4281,13 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D117" s="9">
         <v>46996</v>
@@ -4224,7 +4296,7 @@
         <v>94</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G117" s="11"/>
       <c r="H117" s="12"/>
@@ -4232,13 +4304,13 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D118" s="9">
         <v>46996</v>
@@ -4247,7 +4319,7 @@
         <v>94</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G118" s="11"/>
       <c r="H118" s="12"/>
@@ -4255,13 +4327,13 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D119" s="9">
         <v>46996</v>
@@ -4270,7 +4342,7 @@
         <v>94</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G119" s="11"/>
       <c r="H119" s="12"/>
@@ -4278,13 +4350,13 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D120" s="9">
         <v>45961</v>
@@ -4301,13 +4373,13 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D121" s="9">
         <v>45961</v>
@@ -4324,13 +4396,13 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D122" s="9">
         <v>45961</v>
@@ -4347,13 +4419,13 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D123" s="9">
         <v>46081</v>
@@ -4370,13 +4442,13 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D124" s="9">
         <v>46507</v>
@@ -4393,13 +4465,13 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D125" s="9">
         <v>46507</v>
@@ -4416,13 +4488,13 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D126" s="9">
         <v>46507</v>
@@ -4439,13 +4511,13 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D127" s="9">
         <v>46203</v>
@@ -4503,7 +4575,7 @@
         <v>868589060374017</v>
       </c>
       <c r="F3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G3" s="2" t="e">
         <f ca="1">VLOOKUP(D3,Hoja2!G:K,5,FALSE)</f>
@@ -4521,7 +4593,7 @@
         <v>868589060674226</v>
       </c>
       <c r="F4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G4" s="2" t="e">
         <f ca="1">VLOOKUP(D4,Hoja2!G:K,5,FALSE)</f>
@@ -4892,20 +4964,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5142,11 +5214,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/bitacora.xlsx
+++ b/data/bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupokaufmann-my.sharepoint.com/personal/samuel_sanchez_grupokaufmann_com/Documents/Documentos/Dev/bitacora_diaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1981980-21FF-46DE-BA6D-367AF2F772A9}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{874A2CB2-F355-4A54-9906-D956E2E98E9F}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="15720" xr2:uid="{A9E3F017-9040-47A2-B586-0486128F3261}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="295">
   <si>
     <t>FLOTA</t>
   </si>
@@ -270,6 +270,15 @@
     <t>PLZD75</t>
   </si>
   <si>
+    <t>Revisado</t>
+  </si>
+  <si>
+    <t>Bug (Hard Reset)</t>
+  </si>
+  <si>
+    <t>Kamaleon 1</t>
+  </si>
+  <si>
     <t>INGENIERÍA Y MONTAJE FERROVIAL (CM)</t>
   </si>
   <si>
@@ -327,13 +336,7 @@
     <t>RODRIGO ANDRÉS INZUNZA LABRA</t>
   </si>
   <si>
-    <t>Revisado</t>
-  </si>
-  <si>
     <t>Falla SD</t>
-  </si>
-  <si>
-    <t>Kamaleon 1</t>
   </si>
   <si>
     <t>W1T963424N0515210</t>
@@ -1526,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA66EBA-6B88-4C75-8217-0B7E221D898D}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2212,21 +2215,27 @@
         <v>53</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="G29" s="13">
+        <v>46056</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D30" s="9">
         <v>46204</v>
@@ -2243,13 +2252,13 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D31" s="9">
         <v>46204</v>
@@ -2266,13 +2275,13 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D32" s="9">
         <v>46204</v>
@@ -2289,13 +2298,13 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D33" s="9">
         <v>46204</v>
@@ -2312,13 +2321,13 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D34" s="9">
         <v>46204</v>
@@ -2335,13 +2344,13 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D35" s="9">
         <v>46204</v>
@@ -2358,13 +2367,13 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D36" s="9">
         <v>46204</v>
@@ -2381,48 +2390,48 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D37" s="9">
         <v>46234</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G37" s="13">
         <v>46049</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D38" s="9">
         <v>46173</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>13</v>
@@ -2433,19 +2442,19 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D39" s="9">
         <v>46173</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>13</v>
@@ -2456,77 +2465,77 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D40" s="9">
         <v>46173</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G40" s="13">
         <v>46052</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D41" s="9">
         <v>46173</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G41" s="13">
         <v>46055</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D42" s="9">
         <v>46173</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>13</v>
@@ -2537,19 +2546,19 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D43" s="9">
         <v>46173</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>13</v>
@@ -2560,19 +2569,19 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D44" s="9">
         <v>46173</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>13</v>
@@ -2583,19 +2592,19 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D45" s="9">
         <v>46173</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>13</v>
@@ -2606,135 +2615,135 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D46" s="9">
         <v>46173</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G46" s="13">
         <v>46042</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D47" s="9">
         <v>46173</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G47" s="28">
         <v>46043</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I47" s="29" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D48" s="9">
         <v>46173</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G48" s="14">
         <v>46052</v>
       </c>
       <c r="H48" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D49" s="9">
         <v>46234</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G49" s="30">
         <v>46049</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I49" s="31" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D50" s="9">
         <v>46234</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>13</v>
@@ -2745,19 +2754,19 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D51" s="9">
         <v>46234</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>13</v>
@@ -2768,19 +2777,19 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D52" s="9">
         <v>46234</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>13</v>
@@ -2791,19 +2800,19 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D53" s="9">
         <v>46234</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>13</v>
@@ -2814,19 +2823,19 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D54" s="9">
         <v>46234</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>13</v>
@@ -2837,77 +2846,77 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D55" s="9">
         <v>46234</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G55" s="13">
         <v>46049</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D56" s="9">
         <v>46234</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G56" s="13">
         <v>46049</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D57" s="9">
         <v>46234</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>13</v>
@@ -2918,19 +2927,19 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D58" s="9">
         <v>46234</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>13</v>
@@ -2941,19 +2950,19 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D59" s="9">
         <v>46234</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>13</v>
@@ -2964,19 +2973,19 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D60" s="9">
         <v>46081</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>13</v>
@@ -2987,19 +2996,19 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D61" s="9">
         <v>46081</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>13</v>
@@ -3010,13 +3019,13 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D62" s="9">
         <v>46387</v>
@@ -3033,13 +3042,13 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D63" s="9">
         <v>46387</v>
@@ -3056,13 +3065,13 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D64" s="9">
         <v>46387</v>
@@ -3079,13 +3088,13 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D65" s="9">
         <v>46387</v>
@@ -3102,13 +3111,13 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D66" s="9">
         <v>46387</v>
@@ -3125,13 +3134,13 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D67" s="9">
         <v>46387</v>
@@ -3148,13 +3157,13 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D68" s="9">
         <v>46387</v>
@@ -3171,13 +3180,13 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D69" s="9">
         <v>46387</v>
@@ -3194,13 +3203,13 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D70" s="9">
         <v>46387</v>
@@ -3217,13 +3226,13 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D71" s="9">
         <v>46387</v>
@@ -3240,13 +3249,13 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D72" s="9">
         <v>46387</v>
@@ -3263,13 +3272,13 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D73" s="9">
         <v>46053</v>
@@ -3286,13 +3295,13 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D74" s="9">
         <v>46053</v>
@@ -3309,13 +3318,13 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D75" s="9">
         <v>46081</v>
@@ -3332,13 +3341,13 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D76" s="9">
         <v>46081</v>
@@ -3355,13 +3364,13 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D77" s="9">
         <v>45991</v>
@@ -3378,13 +3387,13 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D78" s="9">
         <v>46081</v>
@@ -3401,13 +3410,13 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D79" s="9">
         <v>45991</v>
@@ -3424,13 +3433,13 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D80" s="9">
         <v>45991</v>
@@ -3447,13 +3456,13 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D81" s="9">
         <v>46234</v>
@@ -3470,13 +3479,13 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D82" s="9">
         <v>46234</v>
@@ -3493,13 +3502,13 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D83" s="9">
         <v>46234</v>
@@ -3516,13 +3525,13 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D84" s="9">
         <v>46081</v>
@@ -3539,13 +3548,13 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D85" s="9">
         <v>45991</v>
@@ -3562,13 +3571,13 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D86" s="9">
         <v>45991</v>
@@ -3585,13 +3594,13 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D87" s="9">
         <v>46081</v>
@@ -3608,13 +3617,13 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D88" s="9">
         <v>45991</v>
@@ -3631,13 +3640,13 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D89" s="9">
         <v>45991</v>
@@ -3654,13 +3663,13 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D90" s="9">
         <v>45991</v>
@@ -3677,13 +3686,13 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D91" s="9">
         <v>45658</v>
@@ -3700,13 +3709,13 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D92" s="9">
         <v>45658</v>
@@ -3723,13 +3732,13 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D93" s="9">
         <v>45658</v>
@@ -3746,48 +3755,48 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D94" s="9">
         <v>46081</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G94" s="13">
         <v>46044</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D95" s="9">
         <v>46081</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>13</v>
@@ -3798,19 +3807,19 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D96" s="9">
         <v>46081</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>13</v>
@@ -3821,10 +3830,10 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C97" s="8">
         <v>65153</v>
@@ -3833,7 +3842,7 @@
         <v>47361</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>13</v>
@@ -3844,19 +3853,19 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D98" s="9">
         <v>46356</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>13</v>
@@ -3867,19 +3876,19 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D99" s="9">
         <v>46356</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>13</v>
@@ -3890,19 +3899,19 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D100" s="9">
         <v>46053</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>13</v>
@@ -3913,19 +3922,19 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D101" s="9">
         <v>46053</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>13</v>
@@ -3936,22 +3945,22 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D102" s="9">
         <v>46996</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
@@ -3959,22 +3968,22 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D103" s="9">
         <v>46996</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
@@ -3982,22 +3991,22 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D104" s="9">
         <v>46996</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
@@ -4005,22 +4014,22 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D105" s="9">
         <v>46996</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
@@ -4028,22 +4037,22 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D106" s="9">
         <v>46996</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
@@ -4051,22 +4060,22 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D107" s="9">
         <v>46996</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
@@ -4074,22 +4083,22 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D108" s="9">
         <v>46996</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
@@ -4097,22 +4106,22 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D109" s="9">
         <v>46996</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
@@ -4120,22 +4129,22 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D110" s="9">
         <v>46996</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
@@ -4143,22 +4152,22 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D111" s="9">
         <v>46996</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
@@ -4166,22 +4175,22 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D112" s="9">
         <v>46996</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
@@ -4189,22 +4198,22 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D113" s="9">
         <v>46996</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G113" s="11"/>
       <c r="H113" s="12"/>
@@ -4212,22 +4221,22 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D114" s="9">
         <v>46996</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G114" s="11"/>
       <c r="H114" s="12"/>
@@ -4235,22 +4244,22 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D115" s="9">
         <v>46996</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G115" s="11"/>
       <c r="H115" s="12"/>
@@ -4258,22 +4267,22 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D116" s="9">
         <v>46996</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G116" s="11"/>
       <c r="H116" s="12"/>
@@ -4281,22 +4290,22 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D117" s="9">
         <v>46996</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G117" s="11"/>
       <c r="H117" s="12"/>
@@ -4304,22 +4313,22 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D118" s="9">
         <v>46996</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G118" s="11"/>
       <c r="H118" s="12"/>
@@ -4327,22 +4336,22 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D119" s="9">
         <v>46996</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G119" s="11"/>
       <c r="H119" s="12"/>
@@ -4350,13 +4359,13 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D120" s="9">
         <v>45961</v>
@@ -4373,13 +4382,13 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D121" s="9">
         <v>45961</v>
@@ -4396,13 +4405,13 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D122" s="9">
         <v>45961</v>
@@ -4419,19 +4428,19 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D123" s="9">
         <v>46081</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F123" s="10" t="s">
         <v>13</v>
@@ -4442,13 +4451,13 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D124" s="9">
         <v>46507</v>
@@ -4465,13 +4474,13 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D125" s="9">
         <v>46507</v>
@@ -4488,13 +4497,13 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D126" s="9">
         <v>46507</v>
@@ -4511,13 +4520,13 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D127" s="9">
         <v>46203</v>
@@ -4575,14 +4584,14 @@
         <v>868589060374017</v>
       </c>
       <c r="F3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G3" s="2" t="e">
         <f ca="1">VLOOKUP(D3,Hoja2!G:K,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I3" s="4">
         <v>46043</v>
@@ -4593,14 +4602,14 @@
         <v>868589060674226</v>
       </c>
       <c r="F4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G4" s="2" t="e">
         <f ca="1">VLOOKUP(D4,Hoja2!G:K,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I4" s="4">
         <v>46043</v>
@@ -4964,23 +4973,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100027709BF533FA442AFC4A8B2C0110727" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a37fc0d7c302f7619d355a49e1f175a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xmlns:ns4="bda9c1ec-c4e2-44f9-929c-ca399fe36c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="01250a30c504a808427f15ccf149ee4d" ns3:_="" ns4:_="">
     <xsd:import namespace="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
@@ -5213,8 +5205,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5222,5 +5231,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}"/>
 </file>
--- a/data/bitacora.xlsx
+++ b/data/bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupokaufmann-my.sharepoint.com/personal/samuel_sanchez_grupokaufmann_com/Documents/Documentos/Dev/bitacora_diaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{874A2CB2-F355-4A54-9906-D956E2E98E9F}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B1D9992-B6F8-42B3-BD86-7CEC9B4BE52D}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="15720" xr2:uid="{A9E3F017-9040-47A2-B586-0486128F3261}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="296">
   <si>
     <t>FLOTA</t>
   </si>
@@ -727,6 +727,9 @@
   </si>
   <si>
     <t>SERGIO ALBERTO ORELLANA VEGA</t>
+  </si>
+  <si>
+    <t>Revisada</t>
   </si>
   <si>
     <t>9BM958434NB233285</t>
@@ -1529,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA66EBA-6B88-4C75-8217-0B7E221D898D}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2434,11 +2437,15 @@
         <v>97</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="11"/>
+        <v>76</v>
+      </c>
+      <c r="G38" s="13">
+        <v>46057</v>
+      </c>
       <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
+      <c r="I38" s="12" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="7" t="s">
@@ -3868,21 +3875,27 @@
         <v>228</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="11"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
+        <v>229</v>
+      </c>
+      <c r="G98" s="13">
+        <v>46057</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="7" t="s">
         <v>225</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D99" s="9">
         <v>46356</v>
@@ -3899,13 +3912,13 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D100" s="9">
         <v>46053</v>
@@ -3922,13 +3935,13 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D101" s="9">
         <v>46053</v>
@@ -3945,13 +3958,13 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D102" s="9">
         <v>46996</v>
@@ -3960,7 +3973,7 @@
         <v>97</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
@@ -3968,13 +3981,13 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D103" s="9">
         <v>46996</v>
@@ -3983,7 +3996,7 @@
         <v>97</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
@@ -3991,13 +4004,13 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D104" s="9">
         <v>46996</v>
@@ -4006,7 +4019,7 @@
         <v>97</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
@@ -4014,13 +4027,13 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D105" s="9">
         <v>46996</v>
@@ -4029,7 +4042,7 @@
         <v>97</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
@@ -4037,13 +4050,13 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D106" s="9">
         <v>46996</v>
@@ -4052,7 +4065,7 @@
         <v>97</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
@@ -4060,13 +4073,13 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D107" s="9">
         <v>46996</v>
@@ -4075,7 +4088,7 @@
         <v>97</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
@@ -4083,13 +4096,13 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D108" s="9">
         <v>46996</v>
@@ -4098,7 +4111,7 @@
         <v>97</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
@@ -4106,13 +4119,13 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D109" s="9">
         <v>46996</v>
@@ -4121,7 +4134,7 @@
         <v>97</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
@@ -4129,13 +4142,13 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D110" s="9">
         <v>46996</v>
@@ -4144,7 +4157,7 @@
         <v>97</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
@@ -4152,13 +4165,13 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D111" s="9">
         <v>46996</v>
@@ -4167,7 +4180,7 @@
         <v>97</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
@@ -4175,13 +4188,13 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D112" s="9">
         <v>46996</v>
@@ -4190,7 +4203,7 @@
         <v>97</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
@@ -4198,13 +4211,13 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D113" s="9">
         <v>46996</v>
@@ -4213,7 +4226,7 @@
         <v>97</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G113" s="11"/>
       <c r="H113" s="12"/>
@@ -4221,13 +4234,13 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D114" s="9">
         <v>46996</v>
@@ -4236,7 +4249,7 @@
         <v>97</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G114" s="11"/>
       <c r="H114" s="12"/>
@@ -4244,13 +4257,13 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D115" s="9">
         <v>46996</v>
@@ -4259,7 +4272,7 @@
         <v>97</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G115" s="11"/>
       <c r="H115" s="12"/>
@@ -4267,13 +4280,13 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D116" s="9">
         <v>46996</v>
@@ -4282,7 +4295,7 @@
         <v>97</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G116" s="11"/>
       <c r="H116" s="12"/>
@@ -4290,13 +4303,13 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D117" s="9">
         <v>46996</v>
@@ -4305,7 +4318,7 @@
         <v>97</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G117" s="11"/>
       <c r="H117" s="12"/>
@@ -4313,13 +4326,13 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D118" s="9">
         <v>46996</v>
@@ -4328,7 +4341,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G118" s="11"/>
       <c r="H118" s="12"/>
@@ -4336,13 +4349,13 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D119" s="9">
         <v>46996</v>
@@ -4351,7 +4364,7 @@
         <v>97</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G119" s="11"/>
       <c r="H119" s="12"/>
@@ -4359,13 +4372,13 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D120" s="9">
         <v>45961</v>
@@ -4382,13 +4395,13 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D121" s="9">
         <v>45961</v>
@@ -4405,13 +4418,13 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D122" s="9">
         <v>45961</v>
@@ -4428,13 +4441,13 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D123" s="9">
         <v>46081</v>
@@ -4451,13 +4464,13 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D124" s="9">
         <v>46507</v>
@@ -4474,13 +4487,13 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D125" s="9">
         <v>46507</v>
@@ -4497,13 +4510,13 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D126" s="9">
         <v>46507</v>
@@ -4515,18 +4528,18 @@
         <v>13</v>
       </c>
       <c r="G126" s="11"/>
-      <c r="H126" s="12"/>
-      <c r="I126" s="12"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D127" s="9">
         <v>46203</v>
@@ -4538,8 +4551,8 @@
         <v>13</v>
       </c>
       <c r="G127" s="11"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
     </row>
     <row r="128" spans="1:9"/>
     <row r="129"/>
@@ -4584,7 +4597,7 @@
         <v>868589060374017</v>
       </c>
       <c r="F3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G3" s="2" t="e">
         <f ca="1">VLOOKUP(D3,Hoja2!G:K,5,FALSE)</f>
@@ -4602,7 +4615,7 @@
         <v>868589060674226</v>
       </c>
       <c r="F4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G4" s="2" t="e">
         <f ca="1">VLOOKUP(D4,Hoja2!G:K,5,FALSE)</f>
@@ -4973,6 +4986,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100027709BF533FA442AFC4A8B2C0110727" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a37fc0d7c302f7619d355a49e1f175a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xmlns:ns4="bda9c1ec-c4e2-44f9-929c-ca399fe36c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="01250a30c504a808427f15ccf149ee4d" ns3:_="" ns4:_="">
     <xsd:import namespace="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
@@ -5205,14 +5226,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5223,11 +5236,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/bitacora.xlsx
+++ b/data/bitacora.xlsx
@@ -4986,14 +4986,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100027709BF533FA442AFC4A8B2C0110727" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a37fc0d7c302f7619d355a49e1f175a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xmlns:ns4="bda9c1ec-c4e2-44f9-929c-ca399fe36c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="01250a30c504a808427f15ccf149ee4d" ns3:_="" ns4:_="">
     <xsd:import namespace="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
@@ -5226,6 +5218,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5236,11 +5236,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/bitacora.xlsx
+++ b/data/bitacora.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29803"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupokaufmann-my.sharepoint.com/personal/samuel_sanchez_grupokaufmann_com/Documents/Documentos/Dev/bitacora_diaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B1D9992-B6F8-42B3-BD86-7CEC9B4BE52D}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20A9C143-323C-46E5-B9D0-E18E4637E59B}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="15720" xr2:uid="{A9E3F017-9040-47A2-B586-0486128F3261}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="297">
   <si>
     <t>FLOTA</t>
   </si>
@@ -511,6 +511,9 @@
   </si>
   <si>
     <t>RCFP15</t>
+  </si>
+  <si>
+    <t>02-06/02/2026</t>
   </si>
   <si>
     <t>W1T964414N0512159</t>
@@ -1532,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA66EBA-6B88-4C75-8217-0B7E221D898D}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I99" sqref="I99"/>
+    <sheetView tabSelected="1" topLeftCell="B59" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3110,21 +3113,25 @@
         <v>61</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="11"/>
+        <v>76</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
+      <c r="I65" s="12" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D66" s="9">
         <v>46387</v>
@@ -3133,21 +3140,25 @@
         <v>61</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="11"/>
+        <v>76</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
+      <c r="I66" s="12" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D67" s="9">
         <v>46387</v>
@@ -3167,10 +3178,10 @@
         <v>148</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D68" s="9">
         <v>46387</v>
@@ -3190,10 +3201,10 @@
         <v>148</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D69" s="9">
         <v>46387</v>
@@ -3213,10 +3224,10 @@
         <v>148</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D70" s="9">
         <v>46387</v>
@@ -3236,10 +3247,10 @@
         <v>148</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D71" s="9">
         <v>46387</v>
@@ -3259,10 +3270,10 @@
         <v>148</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D72" s="9">
         <v>46387</v>
@@ -3279,13 +3290,13 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D73" s="9">
         <v>46053</v>
@@ -3302,13 +3313,13 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D74" s="9">
         <v>46053</v>
@@ -3325,13 +3336,13 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D75" s="9">
         <v>46081</v>
@@ -3348,13 +3359,13 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D76" s="9">
         <v>46081</v>
@@ -3371,13 +3382,13 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D77" s="9">
         <v>45991</v>
@@ -3394,13 +3405,13 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D78" s="9">
         <v>46081</v>
@@ -3417,13 +3428,13 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D79" s="9">
         <v>45991</v>
@@ -3440,13 +3451,13 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D80" s="9">
         <v>45991</v>
@@ -3463,13 +3474,13 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D81" s="9">
         <v>46234</v>
@@ -3486,13 +3497,13 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D82" s="9">
         <v>46234</v>
@@ -3509,13 +3520,13 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D83" s="9">
         <v>46234</v>
@@ -3532,13 +3543,13 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D84" s="9">
         <v>46081</v>
@@ -3555,13 +3566,13 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D85" s="9">
         <v>45991</v>
@@ -3578,13 +3589,13 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D86" s="9">
         <v>45991</v>
@@ -3601,13 +3612,13 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D87" s="9">
         <v>46081</v>
@@ -3624,13 +3635,13 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D88" s="9">
         <v>45991</v>
@@ -3647,13 +3658,13 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D89" s="9">
         <v>45991</v>
@@ -3670,13 +3681,13 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D90" s="9">
         <v>45991</v>
@@ -3693,13 +3704,13 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D91" s="9">
         <v>45658</v>
@@ -3716,13 +3727,13 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D92" s="9">
         <v>45658</v>
@@ -3739,13 +3750,13 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D93" s="9">
         <v>45658</v>
@@ -3762,13 +3773,13 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D94" s="9">
         <v>46081</v>
@@ -3783,7 +3794,7 @@
         <v>46044</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I94" s="14" t="s">
         <v>78</v>
@@ -3791,13 +3802,13 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D95" s="9">
         <v>46081</v>
@@ -3814,13 +3825,13 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D96" s="9">
         <v>46081</v>
@@ -3837,10 +3848,10 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C97" s="8">
         <v>65153</v>
@@ -3860,22 +3871,22 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D98" s="9">
         <v>46356</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G98" s="13">
         <v>46057</v>
@@ -3889,19 +3900,19 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D99" s="9">
         <v>46356</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>13</v>
@@ -3912,19 +3923,19 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D100" s="9">
         <v>46053</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>13</v>
@@ -3935,19 +3946,19 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D101" s="9">
         <v>46053</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>13</v>
@@ -3958,13 +3969,13 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D102" s="9">
         <v>46996</v>
@@ -3973,7 +3984,7 @@
         <v>97</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
@@ -3981,13 +3992,13 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D103" s="9">
         <v>46996</v>
@@ -3996,7 +4007,7 @@
         <v>97</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
@@ -4004,13 +4015,13 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D104" s="9">
         <v>46996</v>
@@ -4019,7 +4030,7 @@
         <v>97</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
@@ -4027,13 +4038,13 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D105" s="9">
         <v>46996</v>
@@ -4042,7 +4053,7 @@
         <v>97</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
@@ -4050,13 +4061,13 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D106" s="9">
         <v>46996</v>
@@ -4065,7 +4076,7 @@
         <v>97</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
@@ -4073,13 +4084,13 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D107" s="9">
         <v>46996</v>
@@ -4088,7 +4099,7 @@
         <v>97</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
@@ -4096,13 +4107,13 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D108" s="9">
         <v>46996</v>
@@ -4111,7 +4122,7 @@
         <v>97</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
@@ -4119,13 +4130,13 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D109" s="9">
         <v>46996</v>
@@ -4134,7 +4145,7 @@
         <v>97</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
@@ -4142,13 +4153,13 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D110" s="9">
         <v>46996</v>
@@ -4157,7 +4168,7 @@
         <v>97</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
@@ -4165,13 +4176,13 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D111" s="9">
         <v>46996</v>
@@ -4180,7 +4191,7 @@
         <v>97</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
@@ -4188,13 +4199,13 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D112" s="9">
         <v>46996</v>
@@ -4203,7 +4214,7 @@
         <v>97</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
@@ -4211,13 +4222,13 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D113" s="9">
         <v>46996</v>
@@ -4226,7 +4237,7 @@
         <v>97</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G113" s="11"/>
       <c r="H113" s="12"/>
@@ -4234,13 +4245,13 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D114" s="9">
         <v>46996</v>
@@ -4249,7 +4260,7 @@
         <v>97</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G114" s="11"/>
       <c r="H114" s="12"/>
@@ -4257,13 +4268,13 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D115" s="9">
         <v>46996</v>
@@ -4272,7 +4283,7 @@
         <v>97</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G115" s="11"/>
       <c r="H115" s="12"/>
@@ -4280,13 +4291,13 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D116" s="9">
         <v>46996</v>
@@ -4295,7 +4306,7 @@
         <v>97</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G116" s="11"/>
       <c r="H116" s="12"/>
@@ -4303,13 +4314,13 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D117" s="9">
         <v>46996</v>
@@ -4318,7 +4329,7 @@
         <v>97</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G117" s="11"/>
       <c r="H117" s="12"/>
@@ -4326,13 +4337,13 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D118" s="9">
         <v>46996</v>
@@ -4341,7 +4352,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G118" s="11"/>
       <c r="H118" s="12"/>
@@ -4349,13 +4360,13 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D119" s="9">
         <v>46996</v>
@@ -4364,7 +4375,7 @@
         <v>97</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G119" s="11"/>
       <c r="H119" s="12"/>
@@ -4372,13 +4383,13 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D120" s="9">
         <v>45961</v>
@@ -4395,13 +4406,13 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D121" s="9">
         <v>45961</v>
@@ -4418,13 +4429,13 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D122" s="9">
         <v>45961</v>
@@ -4441,13 +4452,13 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D123" s="9">
         <v>46081</v>
@@ -4464,13 +4475,13 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D124" s="9">
         <v>46507</v>
@@ -4487,13 +4498,13 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D125" s="9">
         <v>46507</v>
@@ -4510,13 +4521,13 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D126" s="9">
         <v>46507</v>
@@ -4533,13 +4544,13 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D127" s="9">
         <v>46203</v>
@@ -4597,7 +4608,7 @@
         <v>868589060374017</v>
       </c>
       <c r="F3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G3" s="2" t="e">
         <f ca="1">VLOOKUP(D3,Hoja2!G:K,5,FALSE)</f>
@@ -4615,7 +4626,7 @@
         <v>868589060674226</v>
       </c>
       <c r="F4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G4" s="2" t="e">
         <f ca="1">VLOOKUP(D4,Hoja2!G:K,5,FALSE)</f>

--- a/data/bitacora.xlsx
+++ b/data/bitacora.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29728"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupokaufmann-my.sharepoint.com/personal/samuel_sanchez_grupokaufmann_com/Documents/Documentos/Dev/bitacora_diaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20A9C143-323C-46E5-B9D0-E18E4637E59B}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{511FFE01-0BF2-45D9-8C4D-16A7ABF50CEB}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="15720" xr2:uid="{A9E3F017-9040-47A2-B586-0486128F3261}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="301">
   <si>
     <t>FLOTA</t>
   </si>
@@ -273,7 +273,7 @@
     <t>Revisado</t>
   </si>
   <si>
-    <t>Bug (Hard Reset)</t>
+    <t xml:space="preserve">NR </t>
   </si>
   <si>
     <t>Kamaleon 1</t>
@@ -516,6 +516,9 @@
     <t>02-06/02/2026</t>
   </si>
   <si>
+    <t>NR</t>
+  </si>
+  <si>
     <t>W1T964414N0512159</t>
   </si>
   <si>
@@ -756,6 +759,12 @@
     <t>PLJR12</t>
   </si>
   <si>
+    <t>No revisada</t>
+  </si>
+  <si>
+    <t>Visita el 05 de febrero, vehículo no fue revisado remotamente por un miembro de copiloto</t>
+  </si>
+  <si>
     <t>TRANSPORTES COIHUE (CM)</t>
   </si>
   <si>
@@ -889,6 +898,9 @@
   </si>
   <si>
     <t>LRSY41</t>
+  </si>
+  <si>
+    <t>Perdida total</t>
   </si>
   <si>
     <t>TRANSVIA (CM)</t>
@@ -1535,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA66EBA-6B88-4C75-8217-0B7E221D898D}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B59" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3118,7 +3130,9 @@
       <c r="G65" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="H65" s="12"/>
+      <c r="H65" s="12" t="s">
+        <v>158</v>
+      </c>
       <c r="I65" s="12" t="s">
         <v>78</v>
       </c>
@@ -3128,10 +3142,10 @@
         <v>148</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D66" s="9">
         <v>46387</v>
@@ -3145,7 +3159,9 @@
       <c r="G66" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="H66" s="12"/>
+      <c r="H66" s="12" t="s">
+        <v>158</v>
+      </c>
       <c r="I66" s="12" t="s">
         <v>78</v>
       </c>
@@ -3155,10 +3171,10 @@
         <v>148</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D67" s="9">
         <v>46387</v>
@@ -3178,10 +3194,10 @@
         <v>148</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D68" s="9">
         <v>46387</v>
@@ -3201,10 +3217,10 @@
         <v>148</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D69" s="9">
         <v>46387</v>
@@ -3224,10 +3240,10 @@
         <v>148</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D70" s="9">
         <v>46387</v>
@@ -3247,10 +3263,10 @@
         <v>148</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D71" s="9">
         <v>46387</v>
@@ -3270,10 +3286,10 @@
         <v>148</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D72" s="9">
         <v>46387</v>
@@ -3290,13 +3306,13 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D73" s="9">
         <v>46053</v>
@@ -3313,13 +3329,13 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D74" s="9">
         <v>46053</v>
@@ -3336,13 +3352,13 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D75" s="9">
         <v>46081</v>
@@ -3359,13 +3375,13 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D76" s="9">
         <v>46081</v>
@@ -3382,13 +3398,13 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D77" s="9">
         <v>45991</v>
@@ -3405,13 +3421,13 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D78" s="9">
         <v>46081</v>
@@ -3428,13 +3444,13 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D79" s="9">
         <v>45991</v>
@@ -3451,13 +3467,13 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D80" s="9">
         <v>45991</v>
@@ -3474,13 +3490,13 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D81" s="9">
         <v>46234</v>
@@ -3497,13 +3513,13 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D82" s="9">
         <v>46234</v>
@@ -3520,13 +3536,13 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D83" s="9">
         <v>46234</v>
@@ -3543,13 +3559,13 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D84" s="9">
         <v>46081</v>
@@ -3566,13 +3582,13 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D85" s="9">
         <v>45991</v>
@@ -3589,13 +3605,13 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D86" s="9">
         <v>45991</v>
@@ -3612,13 +3628,13 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D87" s="9">
         <v>46081</v>
@@ -3635,13 +3651,13 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D88" s="9">
         <v>45991</v>
@@ -3658,13 +3674,13 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D89" s="9">
         <v>45991</v>
@@ -3681,13 +3697,13 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D90" s="9">
         <v>45991</v>
@@ -3704,13 +3720,13 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D91" s="9">
         <v>45658</v>
@@ -3727,13 +3743,13 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D92" s="9">
         <v>45658</v>
@@ -3750,13 +3766,13 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D93" s="9">
         <v>45658</v>
@@ -3773,13 +3789,13 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D94" s="9">
         <v>46081</v>
@@ -3794,7 +3810,7 @@
         <v>46044</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I94" s="14" t="s">
         <v>78</v>
@@ -3802,13 +3818,13 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D95" s="9">
         <v>46081</v>
@@ -3825,13 +3841,13 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D96" s="9">
         <v>46081</v>
@@ -3846,12 +3862,12 @@
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:10">
       <c r="A97" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C97" s="8">
         <v>65153</v>
@@ -3869,24 +3885,24 @@
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:10">
       <c r="A98" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D98" s="9">
         <v>46356</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G98" s="13">
         <v>46057</v>
@@ -3898,21 +3914,21 @@
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:10">
       <c r="A99" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D99" s="9">
         <v>46356</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>13</v>
@@ -3921,21 +3937,21 @@
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:10">
       <c r="A100" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D100" s="9">
         <v>46053</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>13</v>
@@ -3944,38 +3960,47 @@
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:10">
       <c r="A101" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D101" s="9">
         <v>46053</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" s="11"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
-    </row>
-    <row r="102" spans="1:9">
+        <v>239</v>
+      </c>
+      <c r="G101" s="13">
+        <v>46058</v>
+      </c>
+      <c r="H101" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="I101" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D102" s="9">
         <v>46996</v>
@@ -3984,21 +4009,21 @@
         <v>97</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:10">
       <c r="A103" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D103" s="9">
         <v>46996</v>
@@ -4007,21 +4032,21 @@
         <v>97</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:10">
       <c r="A104" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D104" s="9">
         <v>46996</v>
@@ -4030,21 +4055,21 @@
         <v>97</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:10">
       <c r="A105" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D105" s="9">
         <v>46996</v>
@@ -4053,21 +4078,21 @@
         <v>97</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:10">
       <c r="A106" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D106" s="9">
         <v>46996</v>
@@ -4076,21 +4101,21 @@
         <v>97</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:10">
       <c r="A107" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D107" s="9">
         <v>46996</v>
@@ -4099,21 +4124,21 @@
         <v>97</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:10">
       <c r="A108" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D108" s="9">
         <v>46996</v>
@@ -4122,21 +4147,21 @@
         <v>97</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:10">
       <c r="A109" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D109" s="9">
         <v>46996</v>
@@ -4145,21 +4170,21 @@
         <v>97</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:10">
       <c r="A110" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D110" s="9">
         <v>46996</v>
@@ -4168,21 +4193,21 @@
         <v>97</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:10">
       <c r="A111" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D111" s="9">
         <v>46996</v>
@@ -4191,21 +4216,21 @@
         <v>97</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:10">
       <c r="A112" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D112" s="9">
         <v>46996</v>
@@ -4214,7 +4239,7 @@
         <v>97</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
@@ -4222,13 +4247,13 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D113" s="9">
         <v>46996</v>
@@ -4237,7 +4262,7 @@
         <v>97</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G113" s="11"/>
       <c r="H113" s="12"/>
@@ -4245,13 +4270,13 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D114" s="9">
         <v>46996</v>
@@ -4260,7 +4285,7 @@
         <v>97</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G114" s="11"/>
       <c r="H114" s="12"/>
@@ -4268,13 +4293,13 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D115" s="9">
         <v>46996</v>
@@ -4283,7 +4308,7 @@
         <v>97</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G115" s="11"/>
       <c r="H115" s="12"/>
@@ -4291,13 +4316,13 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D116" s="9">
         <v>46996</v>
@@ -4306,7 +4331,7 @@
         <v>97</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G116" s="11"/>
       <c r="H116" s="12"/>
@@ -4314,13 +4339,13 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D117" s="9">
         <v>46996</v>
@@ -4329,7 +4354,7 @@
         <v>97</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G117" s="11"/>
       <c r="H117" s="12"/>
@@ -4337,13 +4362,13 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D118" s="9">
         <v>46996</v>
@@ -4352,7 +4377,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G118" s="11"/>
       <c r="H118" s="12"/>
@@ -4360,13 +4385,13 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D119" s="9">
         <v>46996</v>
@@ -4375,7 +4400,7 @@
         <v>97</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G119" s="11"/>
       <c r="H119" s="12"/>
@@ -4383,13 +4408,13 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D120" s="9">
         <v>45961</v>
@@ -4406,13 +4431,13 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D121" s="9">
         <v>45961</v>
@@ -4429,13 +4454,13 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D122" s="9">
         <v>45961</v>
@@ -4444,7 +4469,7 @@
         <v>61</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>13</v>
+        <v>286</v>
       </c>
       <c r="G122" s="11"/>
       <c r="H122" s="12"/>
@@ -4452,13 +4477,13 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D123" s="9">
         <v>46081</v>
@@ -4475,13 +4500,13 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D124" s="9">
         <v>46507</v>
@@ -4498,13 +4523,13 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D125" s="9">
         <v>46507</v>
@@ -4521,13 +4546,13 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D126" s="9">
         <v>46507</v>
@@ -4544,13 +4569,13 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D127" s="9">
         <v>46203</v>
@@ -4608,7 +4633,7 @@
         <v>868589060374017</v>
       </c>
       <c r="F3" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G3" s="2" t="e">
         <f ca="1">VLOOKUP(D3,Hoja2!G:K,5,FALSE)</f>
@@ -4626,7 +4651,7 @@
         <v>868589060674226</v>
       </c>
       <c r="F4" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G4" s="2" t="e">
         <f ca="1">VLOOKUP(D4,Hoja2!G:K,5,FALSE)</f>
@@ -5230,14 +5255,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5246,14 +5263,22 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}"/>
 </file>
--- a/data/bitacora.xlsx
+++ b/data/bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupokaufmann-my.sharepoint.com/personal/samuel_sanchez_grupokaufmann_com/Documents/Documentos/Dev/bitacora_diaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{511FFE01-0BF2-45D9-8C4D-16A7ABF50CEB}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F991B3EA-9177-49FE-AE6E-7DC3F6577367}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="15720" xr2:uid="{A9E3F017-9040-47A2-B586-0486128F3261}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="305">
   <si>
     <t>FLOTA</t>
   </si>
@@ -69,6 +69,9 @@
     <t>Tipo de dispositivo</t>
   </si>
   <si>
+    <t>Columna1</t>
+  </si>
+  <si>
     <t>AGREDUCAM CALAMA (CM)</t>
   </si>
   <si>
@@ -270,679 +273,688 @@
     <t>PLZD75</t>
   </si>
   <si>
+    <t>Reparado</t>
+  </si>
+  <si>
+    <t>Reconexion</t>
+  </si>
+  <si>
+    <t>Kamaleon 1</t>
+  </si>
+  <si>
+    <t>INGENIERÍA Y MONTAJE FERROVIAL (CM)</t>
+  </si>
+  <si>
+    <t>3AKJGHDV4KSKK6755</t>
+  </si>
+  <si>
+    <t>LGZT38</t>
+  </si>
+  <si>
+    <t>3AKJGHDV6KSKK6756</t>
+  </si>
+  <si>
+    <t>LGZT33</t>
+  </si>
+  <si>
+    <t>3AKJGHDV8KSKK6757</t>
+  </si>
+  <si>
+    <t>LGZT34</t>
+  </si>
+  <si>
+    <t>3AKJGHDV8KSKK6760</t>
+  </si>
+  <si>
+    <t>LGZT36</t>
+  </si>
+  <si>
+    <t>WDB964416L0368277</t>
+  </si>
+  <si>
+    <t>LTHK42</t>
+  </si>
+  <si>
+    <t>WDB964416L0368278</t>
+  </si>
+  <si>
+    <t>LTHJ46</t>
+  </si>
+  <si>
+    <t>WDB964416L0368696</t>
+  </si>
+  <si>
+    <t>LTHK43</t>
+  </si>
+  <si>
+    <t>MARCO SALGADO (CM)</t>
+  </si>
+  <si>
+    <t>3ALHCYCY4LDKZ2097</t>
+  </si>
+  <si>
+    <t>RBSP52</t>
+  </si>
+  <si>
+    <t>RODRIGO ANDRÉS INZUNZA LABRA</t>
+  </si>
+  <si>
+    <t>Falla SD</t>
+  </si>
+  <si>
+    <t>W1T963424N0515210</t>
+  </si>
+  <si>
+    <t>PSPZ96</t>
+  </si>
+  <si>
+    <t>W1T963424N0515211</t>
+  </si>
+  <si>
+    <t>PSPZ97</t>
+  </si>
+  <si>
+    <t>W1T963424N0515537</t>
+  </si>
+  <si>
+    <t>PTLZ24</t>
+  </si>
+  <si>
+    <t>W1T963424N0515540</t>
+  </si>
+  <si>
+    <t>PSPZ87</t>
+  </si>
+  <si>
+    <t>W1T963424N0515543</t>
+  </si>
+  <si>
+    <t>PSPZ90</t>
+  </si>
+  <si>
+    <t>W1T963424N0519067</t>
+  </si>
+  <si>
+    <t>PSPZ80</t>
+  </si>
+  <si>
+    <t>W1T963424N0521615</t>
+  </si>
+  <si>
+    <t>PSPZ81</t>
+  </si>
+  <si>
+    <t>W1T963424N0521616</t>
+  </si>
+  <si>
+    <t>PSPZ82</t>
+  </si>
+  <si>
+    <t>W1T963424N0540355</t>
+  </si>
+  <si>
+    <t>RJYS66</t>
+  </si>
+  <si>
+    <t>W1T963424N0541009</t>
+  </si>
+  <si>
+    <t>RJYS62</t>
+  </si>
+  <si>
+    <t>W1T963424N0541068</t>
+  </si>
+  <si>
+    <t>RJYS61</t>
+  </si>
+  <si>
+    <t>Cambio de Kamaleon</t>
+  </si>
+  <si>
+    <t>W1T964026M0488034</t>
+  </si>
+  <si>
+    <t>RDFX21</t>
+  </si>
+  <si>
+    <t>W1T964026N0485710</t>
+  </si>
+  <si>
+    <t>PTPD81</t>
+  </si>
+  <si>
+    <t>W1T964026N0485711</t>
+  </si>
+  <si>
+    <t>PXST49</t>
+  </si>
+  <si>
+    <t>W1T964026N0485712</t>
+  </si>
+  <si>
+    <t>PTPD84</t>
+  </si>
+  <si>
+    <t>W1T964026N0487099</t>
+  </si>
+  <si>
+    <t>PXST86</t>
+  </si>
+  <si>
+    <t>W1T964026N0487102</t>
+  </si>
+  <si>
+    <t>PTPD86</t>
+  </si>
+  <si>
+    <t>W1T964026N0497742</t>
+  </si>
+  <si>
+    <t>PXST43</t>
+  </si>
+  <si>
+    <t>W1T964026N0497743</t>
+  </si>
+  <si>
+    <t>RBSP48</t>
+  </si>
+  <si>
+    <t>W1T964026N0498051</t>
+  </si>
+  <si>
+    <t>PTPD75</t>
+  </si>
+  <si>
+    <t>W1T964026N0498527</t>
+  </si>
+  <si>
+    <t>PXST41</t>
+  </si>
+  <si>
+    <t>W1T964026N0499895</t>
+  </si>
+  <si>
+    <t>PXST42</t>
+  </si>
+  <si>
+    <t>W1T964026N0530724</t>
+  </si>
+  <si>
+    <t>RGHP39</t>
+  </si>
+  <si>
+    <t>W1T964026N0539191</t>
+  </si>
+  <si>
+    <t>RLFW74</t>
+  </si>
+  <si>
+    <t>SACYR</t>
+  </si>
+  <si>
+    <t>3ALHCYCY7MDMW0428</t>
+  </si>
+  <si>
+    <t>PSBP85</t>
+  </si>
+  <si>
+    <t>3ALMG3DV9KDKT2468</t>
+  </si>
+  <si>
+    <t>PGKX34</t>
+  </si>
+  <si>
+    <t>W1T964414N0492603</t>
+  </si>
+  <si>
+    <t>RCFP25</t>
+  </si>
+  <si>
+    <t>W1T964414N0512158</t>
+  </si>
+  <si>
+    <t>RCFP15</t>
+  </si>
+  <si>
+    <t>W1T964414N0512159</t>
+  </si>
+  <si>
+    <t>RHWF15</t>
+  </si>
+  <si>
+    <t>W1T964414N0519701</t>
+  </si>
+  <si>
+    <t>RHWF20</t>
+  </si>
+  <si>
+    <t>WDB932315K0294511</t>
+  </si>
+  <si>
+    <t>LGXX31</t>
+  </si>
+  <si>
+    <t>WDB964330K0293708</t>
+  </si>
+  <si>
+    <t>LHSX44</t>
+  </si>
+  <si>
+    <t>WDB964330K0296942</t>
+  </si>
+  <si>
+    <t>LRFJ61</t>
+  </si>
+  <si>
+    <t>WDB964330K0296943</t>
+  </si>
+  <si>
+    <t>LHSX45</t>
+  </si>
+  <si>
+    <t>WDB964330K0326644</t>
+  </si>
+  <si>
+    <t>LHSX46</t>
+  </si>
+  <si>
+    <t>SERVILINARES (CM)</t>
+  </si>
+  <si>
+    <t>W1T964414N0526032</t>
+  </si>
+  <si>
+    <t>RHPC97</t>
+  </si>
+  <si>
+    <t>W1T964414N0526058</t>
+  </si>
+  <si>
+    <t>RHWR38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERRA NORTE SPA </t>
+  </si>
+  <si>
+    <t>3AKJHPDV0KSKP7208</t>
+  </si>
+  <si>
+    <t>LPHC82</t>
+  </si>
+  <si>
+    <t>3AKJHPDV0KSKR7989</t>
+  </si>
+  <si>
+    <t>LTJH32</t>
+  </si>
+  <si>
+    <t>3AKJHPDV1LSME0235</t>
+  </si>
+  <si>
+    <t>KCBV19</t>
+  </si>
+  <si>
+    <t>3AKJHPDV2KSKP7209</t>
+  </si>
+  <si>
+    <t>LPHC90</t>
+  </si>
+  <si>
+    <t>3AKJHPDV2KSKR8013</t>
+  </si>
+  <si>
+    <t>LTJG15</t>
+  </si>
+  <si>
+    <t>3AKJHPDV3LSME0236</t>
+  </si>
+  <si>
+    <t>PHDP65</t>
+  </si>
+  <si>
+    <t>3AKJHPDV5NSMY9929</t>
+  </si>
+  <si>
+    <t>PXYR13</t>
+  </si>
+  <si>
+    <t>3AKJHPDV6NSMY9910</t>
+  </si>
+  <si>
+    <t>PXZV24</t>
+  </si>
+  <si>
+    <t>3AKJHPDV6NSMY9924</t>
+  </si>
+  <si>
+    <t>PXYP85</t>
+  </si>
+  <si>
+    <t>3AKJHPDV7KSKR7990</t>
+  </si>
+  <si>
+    <t>LTJH30</t>
+  </si>
+  <si>
+    <t>3AKJHPDV7LSME0224</t>
+  </si>
+  <si>
+    <t>KCBV10</t>
+  </si>
+  <si>
+    <t>3AKJHPDV8KSKP7196</t>
+  </si>
+  <si>
+    <t>LPDH98</t>
+  </si>
+  <si>
+    <t>3AKJHPDV8KSKP7201</t>
+  </si>
+  <si>
+    <t>LPHC83</t>
+  </si>
+  <si>
+    <t>3AKJHPDV8LSMG6623</t>
+  </si>
+  <si>
+    <t>KCBV17</t>
+  </si>
+  <si>
+    <t>3AKJHPDVXLSME0220</t>
+  </si>
+  <si>
+    <t>CWWK51</t>
+  </si>
+  <si>
+    <t>3AKJHPDVXLSME0234</t>
+  </si>
+  <si>
+    <t>KCBV18</t>
+  </si>
+  <si>
+    <t>TRANSFACTOR (CM)</t>
+  </si>
+  <si>
+    <t>3AKJHPDV3NSMY9928</t>
+  </si>
+  <si>
+    <t>PYSD59</t>
+  </si>
+  <si>
+    <t>3AKJHPDV4NSMY9906</t>
+  </si>
+  <si>
+    <t>PYSD62</t>
+  </si>
+  <si>
+    <t>3AKJHPDV7NSMY9902</t>
+  </si>
+  <si>
+    <t>RBFY58</t>
+  </si>
+  <si>
+    <t>TRANSPORTES BRETTI (CM)</t>
+  </si>
+  <si>
+    <t>W1T963422L0424973</t>
+  </si>
+  <si>
+    <t>LRJH10</t>
+  </si>
+  <si>
+    <t>W1T963422M0431614</t>
+  </si>
+  <si>
+    <t>LRYP22</t>
+  </si>
+  <si>
+    <t>W1T963422M0431617</t>
+  </si>
+  <si>
+    <t>LRYP18</t>
+  </si>
+  <si>
+    <t>W1T963425P0655153</t>
+  </si>
+  <si>
+    <t>TRANSPORTES CAVALIERI (CM)</t>
+  </si>
+  <si>
+    <t>9BM958434NB231634</t>
+  </si>
+  <si>
+    <t>RHKC83</t>
+  </si>
+  <si>
+    <t>SERGIO ALBERTO ORELLANA VEGA</t>
+  </si>
+  <si>
+    <t>9BM958434NB233285</t>
+  </si>
+  <si>
+    <t>RHKC76</t>
+  </si>
+  <si>
+    <t>Transportes Cavalieri (CM)</t>
+  </si>
+  <si>
+    <t>W1T963425M0483188</t>
+  </si>
+  <si>
+    <t>PLJS76</t>
+  </si>
+  <si>
+    <t>W1T963425M0484386</t>
+  </si>
+  <si>
+    <t>PLJR12</t>
+  </si>
+  <si>
+    <t>No revisada</t>
+  </si>
+  <si>
+    <t>Visita el 05 de febrero, vehículo no fue revisado remotamente por un miembro de copiloto</t>
+  </si>
+  <si>
+    <t>TRANSPORTES COIHUE (CM)</t>
+  </si>
+  <si>
+    <t>W1T963424P0587704</t>
+  </si>
+  <si>
+    <t>SWGY23</t>
+  </si>
+  <si>
+    <t>De Baja</t>
+  </si>
+  <si>
+    <t>W1T963424P0589070</t>
+  </si>
+  <si>
+    <t>SWGZ30</t>
+  </si>
+  <si>
+    <t>W1T963424P0589890</t>
+  </si>
+  <si>
+    <t>SWGY26</t>
+  </si>
+  <si>
+    <t>W1T963424P0590615</t>
+  </si>
+  <si>
+    <t>SWGY25</t>
+  </si>
+  <si>
+    <t>W1T963424P0590618</t>
+  </si>
+  <si>
+    <t>SWGY24</t>
+  </si>
+  <si>
+    <t>W1T963424P0591600</t>
+  </si>
+  <si>
+    <t>SWGY21</t>
+  </si>
+  <si>
+    <t>W1T963424P0592551</t>
+  </si>
+  <si>
+    <t>SWGY22</t>
+  </si>
+  <si>
+    <t>W1T963424P0593579</t>
+  </si>
+  <si>
+    <t>SWGY16</t>
+  </si>
+  <si>
+    <t>W1T963424P0593710</t>
+  </si>
+  <si>
+    <t>SWGY15</t>
+  </si>
+  <si>
+    <t>W1T963424P0596136</t>
+  </si>
+  <si>
+    <t>SWGY20</t>
+  </si>
+  <si>
+    <t>W1T963424P0596439</t>
+  </si>
+  <si>
+    <t>SWGY18</t>
+  </si>
+  <si>
+    <t>W1T963424P0601632</t>
+  </si>
+  <si>
+    <t>SWGZ31</t>
+  </si>
+  <si>
+    <t>W1T963424P0601634</t>
+  </si>
+  <si>
+    <t>SWGZ55</t>
+  </si>
+  <si>
+    <t>W1T963424P0603079</t>
+  </si>
+  <si>
+    <t>SWGZ22</t>
+  </si>
+  <si>
+    <t>W1T963424P0605013</t>
+  </si>
+  <si>
+    <t>SWGZ24</t>
+  </si>
+  <si>
+    <t>W1T963424P0624392</t>
+  </si>
+  <si>
+    <t>SWGZ26</t>
+  </si>
+  <si>
+    <t>W1T963424P0636420</t>
+  </si>
+  <si>
+    <t>SWGZ28</t>
+  </si>
+  <si>
+    <t>W1T963424P0636421</t>
+  </si>
+  <si>
+    <t>SWGZ29</t>
+  </si>
+  <si>
+    <t>TRANSVER (CM)</t>
+  </si>
+  <si>
+    <t>3AKJHPDV0KSKP7144</t>
+  </si>
+  <si>
+    <t>LRSY38</t>
+  </si>
+  <si>
+    <t>3AKJHPDV6KSKP7150</t>
+  </si>
+  <si>
+    <t>LRSY40</t>
+  </si>
+  <si>
+    <t>3AKJHPDV8KSKP7151</t>
+  </si>
+  <si>
+    <t>LRSY41</t>
+  </si>
+  <si>
+    <t>Perdida total</t>
+  </si>
+  <si>
+    <t>TRANSVIA (CM)</t>
+  </si>
+  <si>
+    <t>W1T964026M0470852</t>
+  </si>
+  <si>
+    <t>PLBG19</t>
+  </si>
+  <si>
+    <t>TSL CHILE (CM)</t>
+  </si>
+  <si>
+    <t>3AKJHPDV5NSNG4351</t>
+  </si>
+  <si>
+    <t>RYFZ65</t>
+  </si>
+  <si>
+    <t>3AKJHPDV7NSNJ2871</t>
+  </si>
+  <si>
+    <t>RWCS10</t>
+  </si>
+  <si>
+    <t>3AKJHPDV8NSNJ2944</t>
+  </si>
+  <si>
+    <t>RYFZ73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YANGUAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9BM634011LB165483 </t>
+  </si>
+  <si>
+    <t>LPCT30</t>
+  </si>
+  <si>
+    <t>IMOPAC</t>
+  </si>
+  <si>
+    <t>W1T964231P0598732</t>
+  </si>
+  <si>
+    <t>SBLF89</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>W1T964231P0604958</t>
+  </si>
+  <si>
+    <t>SBLF87</t>
+  </si>
+  <si>
+    <t>IMEI</t>
+  </si>
+  <si>
     <t>Revisado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR </t>
-  </si>
-  <si>
-    <t>Kamaleon 1</t>
-  </si>
-  <si>
-    <t>INGENIERÍA Y MONTAJE FERROVIAL (CM)</t>
-  </si>
-  <si>
-    <t>3AKJGHDV4KSKK6755</t>
-  </si>
-  <si>
-    <t>LGZT38</t>
-  </si>
-  <si>
-    <t>3AKJGHDV6KSKK6756</t>
-  </si>
-  <si>
-    <t>LGZT33</t>
-  </si>
-  <si>
-    <t>3AKJGHDV8KSKK6757</t>
-  </si>
-  <si>
-    <t>LGZT34</t>
-  </si>
-  <si>
-    <t>3AKJGHDV8KSKK6760</t>
-  </si>
-  <si>
-    <t>LGZT36</t>
-  </si>
-  <si>
-    <t>WDB964416L0368277</t>
-  </si>
-  <si>
-    <t>LTHK42</t>
-  </si>
-  <si>
-    <t>WDB964416L0368278</t>
-  </si>
-  <si>
-    <t>LTHJ46</t>
-  </si>
-  <si>
-    <t>WDB964416L0368696</t>
-  </si>
-  <si>
-    <t>LTHK43</t>
-  </si>
-  <si>
-    <t>MARCO SALGADO (CM)</t>
-  </si>
-  <si>
-    <t>3ALHCYCY4LDKZ2097</t>
-  </si>
-  <si>
-    <t>RBSP52</t>
-  </si>
-  <si>
-    <t>RODRIGO ANDRÉS INZUNZA LABRA</t>
-  </si>
-  <si>
-    <t>Falla SD</t>
-  </si>
-  <si>
-    <t>W1T963424N0515210</t>
-  </si>
-  <si>
-    <t>PSPZ96</t>
-  </si>
-  <si>
-    <t>W1T963424N0515211</t>
-  </si>
-  <si>
-    <t>PSPZ97</t>
-  </si>
-  <si>
-    <t>W1T963424N0515537</t>
-  </si>
-  <si>
-    <t>PTLZ24</t>
-  </si>
-  <si>
-    <t>W1T963424N0515540</t>
-  </si>
-  <si>
-    <t>PSPZ87</t>
-  </si>
-  <si>
-    <t>W1T963424N0515543</t>
-  </si>
-  <si>
-    <t>PSPZ90</t>
-  </si>
-  <si>
-    <t>W1T963424N0519067</t>
-  </si>
-  <si>
-    <t>PSPZ80</t>
-  </si>
-  <si>
-    <t>W1T963424N0521615</t>
-  </si>
-  <si>
-    <t>PSPZ81</t>
-  </si>
-  <si>
-    <t>W1T963424N0521616</t>
-  </si>
-  <si>
-    <t>PSPZ82</t>
-  </si>
-  <si>
-    <t>W1T963424N0540355</t>
-  </si>
-  <si>
-    <t>RJYS66</t>
-  </si>
-  <si>
-    <t>W1T963424N0541009</t>
-  </si>
-  <si>
-    <t>RJYS62</t>
-  </si>
-  <si>
-    <t>W1T963424N0541068</t>
-  </si>
-  <si>
-    <t>RJYS61</t>
-  </si>
-  <si>
-    <t>Kam Dañado</t>
-  </si>
-  <si>
-    <t>W1T964026M0488034</t>
-  </si>
-  <si>
-    <t>RDFX21</t>
-  </si>
-  <si>
-    <t>W1T964026N0485710</t>
-  </si>
-  <si>
-    <t>PTPD81</t>
-  </si>
-  <si>
-    <t>W1T964026N0485711</t>
-  </si>
-  <si>
-    <t>PXST49</t>
-  </si>
-  <si>
-    <t>W1T964026N0485712</t>
-  </si>
-  <si>
-    <t>PTPD84</t>
-  </si>
-  <si>
-    <t>W1T964026N0487099</t>
-  </si>
-  <si>
-    <t>PXST86</t>
-  </si>
-  <si>
-    <t>W1T964026N0487102</t>
-  </si>
-  <si>
-    <t>PTPD86</t>
-  </si>
-  <si>
-    <t>W1T964026N0497742</t>
-  </si>
-  <si>
-    <t>PXST43</t>
-  </si>
-  <si>
-    <t>W1T964026N0497743</t>
-  </si>
-  <si>
-    <t>RBSP48</t>
-  </si>
-  <si>
-    <t>W1T964026N0498051</t>
-  </si>
-  <si>
-    <t>PTPD75</t>
-  </si>
-  <si>
-    <t>W1T964026N0498527</t>
-  </si>
-  <si>
-    <t>PXST41</t>
-  </si>
-  <si>
-    <t>W1T964026N0499895</t>
-  </si>
-  <si>
-    <t>PXST42</t>
-  </si>
-  <si>
-    <t>W1T964026N0530724</t>
-  </si>
-  <si>
-    <t>RGHP39</t>
-  </si>
-  <si>
-    <t>W1T964026N0539191</t>
-  </si>
-  <si>
-    <t>RLFW74</t>
-  </si>
-  <si>
-    <t>SACYR</t>
-  </si>
-  <si>
-    <t>3ALHCYCY7MDMW0428</t>
-  </si>
-  <si>
-    <t>PSBP85</t>
-  </si>
-  <si>
-    <t>3ALMG3DV9KDKT2468</t>
-  </si>
-  <si>
-    <t>PGKX34</t>
-  </si>
-  <si>
-    <t>W1T964414N0492603</t>
-  </si>
-  <si>
-    <t>RCFP25</t>
-  </si>
-  <si>
-    <t>W1T964414N0512158</t>
-  </si>
-  <si>
-    <t>RCFP15</t>
-  </si>
-  <si>
-    <t>02-06/02/2026</t>
-  </si>
-  <si>
-    <t>NR</t>
-  </si>
-  <si>
-    <t>W1T964414N0512159</t>
-  </si>
-  <si>
-    <t>RHWF15</t>
-  </si>
-  <si>
-    <t>W1T964414N0519701</t>
-  </si>
-  <si>
-    <t>RHWF20</t>
-  </si>
-  <si>
-    <t>WDB932315K0294511</t>
-  </si>
-  <si>
-    <t>LGXX31</t>
-  </si>
-  <si>
-    <t>WDB964330K0293708</t>
-  </si>
-  <si>
-    <t>LHSX44</t>
-  </si>
-  <si>
-    <t>WDB964330K0296942</t>
-  </si>
-  <si>
-    <t>LRFJ61</t>
-  </si>
-  <si>
-    <t>WDB964330K0296943</t>
-  </si>
-  <si>
-    <t>LHSX45</t>
-  </si>
-  <si>
-    <t>WDB964330K0326644</t>
-  </si>
-  <si>
-    <t>LHSX46</t>
-  </si>
-  <si>
-    <t>SERVILINARES (CM)</t>
-  </si>
-  <si>
-    <t>W1T964414N0526032</t>
-  </si>
-  <si>
-    <t>RHPC97</t>
-  </si>
-  <si>
-    <t>W1T964414N0526058</t>
-  </si>
-  <si>
-    <t>RHWR38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERRA NORTE SPA </t>
-  </si>
-  <si>
-    <t>3AKJHPDV0KSKP7208</t>
-  </si>
-  <si>
-    <t>LPHC82</t>
-  </si>
-  <si>
-    <t>3AKJHPDV0KSKR7989</t>
-  </si>
-  <si>
-    <t>LTJH32</t>
-  </si>
-  <si>
-    <t>3AKJHPDV1LSME0235</t>
-  </si>
-  <si>
-    <t>KCBV19</t>
-  </si>
-  <si>
-    <t>3AKJHPDV2KSKP7209</t>
-  </si>
-  <si>
-    <t>LPHC90</t>
-  </si>
-  <si>
-    <t>3AKJHPDV2KSKR8013</t>
-  </si>
-  <si>
-    <t>LTJG15</t>
-  </si>
-  <si>
-    <t>3AKJHPDV3LSME0236</t>
-  </si>
-  <si>
-    <t>PHDP65</t>
-  </si>
-  <si>
-    <t>3AKJHPDV5NSMY9929</t>
-  </si>
-  <si>
-    <t>PXYR13</t>
-  </si>
-  <si>
-    <t>3AKJHPDV6NSMY9910</t>
-  </si>
-  <si>
-    <t>PXZV24</t>
-  </si>
-  <si>
-    <t>3AKJHPDV6NSMY9924</t>
-  </si>
-  <si>
-    <t>PXYP85</t>
-  </si>
-  <si>
-    <t>3AKJHPDV7KSKR7990</t>
-  </si>
-  <si>
-    <t>LTJH30</t>
-  </si>
-  <si>
-    <t>3AKJHPDV7LSME0224</t>
-  </si>
-  <si>
-    <t>KCBV10</t>
-  </si>
-  <si>
-    <t>3AKJHPDV8KSKP7196</t>
-  </si>
-  <si>
-    <t>LPDH98</t>
-  </si>
-  <si>
-    <t>3AKJHPDV8KSKP7201</t>
-  </si>
-  <si>
-    <t>LPHC83</t>
-  </si>
-  <si>
-    <t>3AKJHPDV8LSMG6623</t>
-  </si>
-  <si>
-    <t>KCBV17</t>
-  </si>
-  <si>
-    <t>3AKJHPDVXLSME0220</t>
-  </si>
-  <si>
-    <t>CWWK51</t>
-  </si>
-  <si>
-    <t>3AKJHPDVXLSME0234</t>
-  </si>
-  <si>
-    <t>KCBV18</t>
-  </si>
-  <si>
-    <t>TRANSFACTOR (CM)</t>
-  </si>
-  <si>
-    <t>3AKJHPDV3NSMY9928</t>
-  </si>
-  <si>
-    <t>PYSD59</t>
-  </si>
-  <si>
-    <t>3AKJHPDV4NSMY9906</t>
-  </si>
-  <si>
-    <t>PYSD62</t>
-  </si>
-  <si>
-    <t>3AKJHPDV7NSMY9902</t>
-  </si>
-  <si>
-    <t>RBFY58</t>
-  </si>
-  <si>
-    <t>TRANSPORTES BRETTI (CM)</t>
-  </si>
-  <si>
-    <t>W1T963422L0424973</t>
-  </si>
-  <si>
-    <t>LRJH10</t>
-  </si>
-  <si>
-    <t>Reconexion</t>
-  </si>
-  <si>
-    <t>W1T963422M0431614</t>
-  </si>
-  <si>
-    <t>LRYP22</t>
-  </si>
-  <si>
-    <t>W1T963422M0431617</t>
-  </si>
-  <si>
-    <t>LRYP18</t>
-  </si>
-  <si>
-    <t>W1T963425P0655153</t>
-  </si>
-  <si>
-    <t>TRANSPORTES CAVALIERI (CM)</t>
-  </si>
-  <si>
-    <t>9BM958434NB231634</t>
-  </si>
-  <si>
-    <t>RHKC83</t>
-  </si>
-  <si>
-    <t>SERGIO ALBERTO ORELLANA VEGA</t>
-  </si>
-  <si>
-    <t>Revisada</t>
-  </si>
-  <si>
-    <t>9BM958434NB233285</t>
-  </si>
-  <si>
-    <t>RHKC76</t>
-  </si>
-  <si>
-    <t>Transportes Cavalieri (CM)</t>
-  </si>
-  <si>
-    <t>W1T963425M0483188</t>
-  </si>
-  <si>
-    <t>PLJS76</t>
-  </si>
-  <si>
-    <t>W1T963425M0484386</t>
-  </si>
-  <si>
-    <t>PLJR12</t>
-  </si>
-  <si>
-    <t>No revisada</t>
-  </si>
-  <si>
-    <t>Visita el 05 de febrero, vehículo no fue revisado remotamente por un miembro de copiloto</t>
-  </si>
-  <si>
-    <t>TRANSPORTES COIHUE (CM)</t>
-  </si>
-  <si>
-    <t>W1T963424P0587704</t>
-  </si>
-  <si>
-    <t>SWGY23</t>
-  </si>
-  <si>
-    <t>De Baja</t>
-  </si>
-  <si>
-    <t>W1T963424P0589070</t>
-  </si>
-  <si>
-    <t>SWGZ30</t>
-  </si>
-  <si>
-    <t>W1T963424P0589890</t>
-  </si>
-  <si>
-    <t>SWGY26</t>
-  </si>
-  <si>
-    <t>W1T963424P0590615</t>
-  </si>
-  <si>
-    <t>SWGY25</t>
-  </si>
-  <si>
-    <t>W1T963424P0590618</t>
-  </si>
-  <si>
-    <t>SWGY24</t>
-  </si>
-  <si>
-    <t>W1T963424P0591600</t>
-  </si>
-  <si>
-    <t>SWGY21</t>
-  </si>
-  <si>
-    <t>W1T963424P0592551</t>
-  </si>
-  <si>
-    <t>SWGY22</t>
-  </si>
-  <si>
-    <t>W1T963424P0593579</t>
-  </si>
-  <si>
-    <t>SWGY16</t>
-  </si>
-  <si>
-    <t>W1T963424P0593710</t>
-  </si>
-  <si>
-    <t>SWGY15</t>
-  </si>
-  <si>
-    <t>W1T963424P0596136</t>
-  </si>
-  <si>
-    <t>SWGY20</t>
-  </si>
-  <si>
-    <t>W1T963424P0596439</t>
-  </si>
-  <si>
-    <t>SWGY18</t>
-  </si>
-  <si>
-    <t>W1T963424P0601632</t>
-  </si>
-  <si>
-    <t>SWGZ31</t>
-  </si>
-  <si>
-    <t>W1T963424P0601634</t>
-  </si>
-  <si>
-    <t>SWGZ55</t>
-  </si>
-  <si>
-    <t>W1T963424P0603079</t>
-  </si>
-  <si>
-    <t>SWGZ22</t>
-  </si>
-  <si>
-    <t>W1T963424P0605013</t>
-  </si>
-  <si>
-    <t>SWGZ24</t>
-  </si>
-  <si>
-    <t>W1T963424P0624392</t>
-  </si>
-  <si>
-    <t>SWGZ26</t>
-  </si>
-  <si>
-    <t>W1T963424P0636420</t>
-  </si>
-  <si>
-    <t>SWGZ28</t>
-  </si>
-  <si>
-    <t>W1T963424P0636421</t>
-  </si>
-  <si>
-    <t>SWGZ29</t>
-  </si>
-  <si>
-    <t>TRANSVER (CM)</t>
-  </si>
-  <si>
-    <t>3AKJHPDV0KSKP7144</t>
-  </si>
-  <si>
-    <t>LRSY38</t>
-  </si>
-  <si>
-    <t>3AKJHPDV6KSKP7150</t>
-  </si>
-  <si>
-    <t>LRSY40</t>
-  </si>
-  <si>
-    <t>3AKJHPDV8KSKP7151</t>
-  </si>
-  <si>
-    <t>LRSY41</t>
-  </si>
-  <si>
-    <t>Perdida total</t>
-  </si>
-  <si>
-    <t>TRANSVIA (CM)</t>
-  </si>
-  <si>
-    <t>W1T964026M0470852</t>
-  </si>
-  <si>
-    <t>PLBG19</t>
-  </si>
-  <si>
-    <t>TSL CHILE (CM)</t>
-  </si>
-  <si>
-    <t>3AKJHPDV5NSNG4351</t>
-  </si>
-  <si>
-    <t>RYFZ65</t>
-  </si>
-  <si>
-    <t>3AKJHPDV7NSNJ2871</t>
-  </si>
-  <si>
-    <t>RWCS10</t>
-  </si>
-  <si>
-    <t>3AKJHPDV8NSNJ2944</t>
-  </si>
-  <si>
-    <t>RYFZ73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YANGUAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9BM634011LB165483 </t>
-  </si>
-  <si>
-    <t>LPCT30</t>
-  </si>
-  <si>
-    <t>IMEI</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1195,7 +1207,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1215,7 +1226,217 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1226,6 +1447,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}" name="Tabla1" displayName="Tabla1" ref="A1:J129" totalsRowShown="0">
+  <autoFilter ref="A1:J129" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{0A7C6585-5C8B-46BF-ABA0-2DA806D161DC}" name="FLOTA" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{EB7792BB-219D-496F-9F16-84F6805E0CB0}" name="VIN CON PROBLEMAS" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{35B18804-2750-4249-852F-536959039DAF}" name="PATENTE" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{08893C56-D0FA-4E19-A0C5-69F72EBF1F00}" name="TERMINO ACTUALIZADO" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{A3C226F2-0423-46CB-97CD-02A5B61855D8}" name="Nuevos ejecutivos" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{B32627F2-2DFB-4CB7-A01A-C52BF0C7760A}" name="Unidad revisada/Operativa" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{76FB36B1-1555-4C6F-911E-ECEE7BA55BD3}" name="Fecha reparación" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{EB638079-F883-4029-B5D6-873EB998756D}" name="Tipo de problema" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{870DE40B-4A0F-4DCD-B9BA-164EDEAC4FBC}" name="Tipo de dispositivo" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{615061C6-B196-4D3B-B7C3-6CAD77FF9397}" name="Columna1" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1545,24 +1785,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA66EBA-6B88-4C75-8217-0B7E221D898D}">
-  <dimension ref="A1:L129"/>
+  <dimension ref="A1:L134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F123" sqref="F123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="E39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="6"/>
+    <col min="6" max="6" width="27.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="79" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1593,25 +1834,28 @@
       <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="9">
         <v>46022</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="12"/>
@@ -1619,22 +1863,22 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="9">
         <v>46022</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="12"/>
@@ -1642,22 +1886,22 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="9">
         <v>46022</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="12"/>
@@ -1665,22 +1909,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="9">
         <v>46022</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="12"/>
@@ -1688,22 +1932,22 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="9">
         <v>46022</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="12"/>
@@ -1711,22 +1955,22 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="9">
         <v>46022</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="24"/>
@@ -1734,22 +1978,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="9">
         <v>46022</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="24"/>
@@ -1757,22 +2001,22 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="9">
         <v>46022</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="12"/>
@@ -1780,22 +2024,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="9">
         <v>46022</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="12"/>
@@ -1803,22 +2047,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="9">
         <v>46022</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="12"/>
@@ -1826,22 +2070,22 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="9">
         <v>46112</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="12"/>
@@ -1850,22 +2094,22 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="9">
         <v>46112</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="12"/>
@@ -1873,22 +2117,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="9">
         <v>46112</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
@@ -1896,22 +2140,22 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="9">
         <v>46112</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
@@ -1919,22 +2163,22 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="9">
         <v>46112</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="12"/>
@@ -1942,22 +2186,22 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="9">
         <v>46112</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="12"/>
@@ -1965,22 +2209,22 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" s="9">
         <v>46112</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="12"/>
@@ -1988,22 +2232,22 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="9">
         <v>46112</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="12"/>
@@ -2011,22 +2255,22 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" s="9">
         <v>46660</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="12"/>
@@ -2034,22 +2278,22 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" s="9">
         <v>47635</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
@@ -2057,22 +2301,22 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" s="9">
         <v>47635</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
@@ -2080,22 +2324,22 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D23" s="9">
         <v>46387</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="12"/>
@@ -2103,22 +2347,22 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D24" s="9">
         <v>46387</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
@@ -2126,22 +2370,22 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D25" s="9">
         <v>46996</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
@@ -2149,22 +2393,22 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26" s="9">
         <v>46112</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
@@ -2172,22 +2416,22 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D27" s="9">
         <v>46112</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="12"/>
@@ -2195,22 +2439,22 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D28" s="9">
         <v>46081</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
@@ -2218,51 +2462,51 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D29" s="9">
         <v>46053</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G29" s="13">
         <v>46056</v>
       </c>
-      <c r="H29" s="12" t="s">
-        <v>77</v>
+      <c r="H29" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D30" s="9">
         <v>46204</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="12"/>
@@ -2270,22 +2514,22 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D31" s="9">
         <v>46204</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
@@ -2293,22 +2537,22 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D32" s="9">
         <v>46204</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="12"/>
@@ -2316,22 +2560,22 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" s="9">
         <v>46204</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="12"/>
@@ -2339,22 +2583,22 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D34" s="9">
         <v>46204</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="12"/>
@@ -2362,22 +2606,22 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D35" s="9">
         <v>46204</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="12"/>
@@ -2385,22 +2629,22 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D36" s="9">
         <v>46204</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="12"/>
@@ -2408,78 +2652,80 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D37" s="9">
         <v>46234</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G37" s="13">
         <v>46049</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D38" s="9">
         <v>46173</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G38" s="13">
         <v>46057</v>
       </c>
-      <c r="H38" s="12"/>
+      <c r="H38" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="I38" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D39" s="9">
         <v>46173</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="12"/>
@@ -2487,80 +2733,80 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D40" s="9">
         <v>46173</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G40" s="13">
         <v>46052</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D41" s="9">
         <v>46173</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G41" s="13">
         <v>46055</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D42" s="9">
         <v>46173</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="12"/>
@@ -2568,22 +2814,22 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D43" s="9">
         <v>46173</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="12"/>
@@ -2591,22 +2837,22 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D44" s="9">
         <v>46173</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="12"/>
@@ -2614,22 +2860,22 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D45" s="9">
         <v>46173</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="12"/>
@@ -2637,138 +2883,138 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D46" s="9">
         <v>46173</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G46" s="13">
         <v>46042</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D47" s="9">
         <v>46173</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G47" s="28">
+        <v>77</v>
+      </c>
+      <c r="G47" s="27">
         <v>46043</v>
       </c>
-      <c r="H47" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="I47" s="29" t="s">
-        <v>78</v>
+      <c r="H47" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D48" s="9">
         <v>46173</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>76</v>
+        <v>98</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="G48" s="14">
         <v>46052</v>
       </c>
-      <c r="H48" s="32" t="s">
-        <v>121</v>
+      <c r="H48" s="31" t="s">
+        <v>122</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D49" s="9">
         <v>46234</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G49" s="30">
+        <v>77</v>
+      </c>
+      <c r="G49" s="29">
         <v>46049</v>
       </c>
-      <c r="H49" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="I49" s="31" t="s">
-        <v>78</v>
+      <c r="H49" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="I49" s="30" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D50" s="9">
         <v>46234</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
@@ -2776,22 +3022,22 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D51" s="9">
         <v>46234</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
@@ -2799,22 +3045,22 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D52" s="9">
         <v>46234</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
@@ -2822,22 +3068,22 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D53" s="9">
         <v>46234</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
@@ -2845,22 +3091,22 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D54" s="9">
         <v>46234</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
@@ -2868,80 +3114,80 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D55" s="9">
         <v>46234</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G55" s="13">
         <v>46049</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D56" s="9">
         <v>46234</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G56" s="13">
         <v>46049</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D57" s="9">
         <v>46234</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="12"/>
@@ -2949,22 +3195,22 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D58" s="9">
         <v>46234</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="12"/>
@@ -2972,22 +3218,22 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D59" s="9">
         <v>46234</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="12"/>
@@ -2995,22 +3241,22 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D60" s="9">
         <v>46081</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
@@ -3018,22 +3264,22 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D61" s="9">
         <v>46081</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G61" s="11"/>
       <c r="H61" s="12"/>
@@ -3041,22 +3287,22 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D62" s="9">
         <v>46387</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="12"/>
@@ -3064,22 +3310,22 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D63" s="9">
         <v>46387</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="12"/>
@@ -3087,22 +3333,22 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D64" s="9">
         <v>46387</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G64" s="11"/>
       <c r="H64" s="12"/>
@@ -3110,80 +3356,80 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D65" s="9">
         <v>46387</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>158</v>
+        <v>77</v>
+      </c>
+      <c r="G65" s="13">
+        <v>46055</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B66" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="D66" s="9">
         <v>46387</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>158</v>
+        <v>77</v>
+      </c>
+      <c r="G66" s="13">
+        <v>46055</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B67" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>162</v>
       </c>
       <c r="D67" s="9">
         <v>46387</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G67" s="11"/>
       <c r="H67" s="12"/>
@@ -3191,22 +3437,22 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B68" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="D68" s="9">
         <v>46387</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G68" s="11"/>
       <c r="H68" s="12"/>
@@ -3214,22 +3460,22 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B69" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="D69" s="9">
         <v>46387</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G69" s="11"/>
       <c r="H69" s="12"/>
@@ -3237,22 +3483,22 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B70" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="D70" s="9">
         <v>46387</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G70" s="11"/>
       <c r="H70" s="12"/>
@@ -3260,22 +3506,22 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B71" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="D71" s="9">
         <v>46387</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
@@ -3283,22 +3529,22 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B72" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="D72" s="9">
         <v>46387</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G72" s="11"/>
       <c r="H72" s="12"/>
@@ -3306,22 +3552,22 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="D73" s="9">
         <v>46053</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
@@ -3329,22 +3575,22 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B74" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>177</v>
       </c>
       <c r="D74" s="9">
         <v>46053</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
@@ -3352,22 +3598,22 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="D75" s="9">
         <v>46081</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G75" s="11"/>
       <c r="H75" s="12"/>
@@ -3375,22 +3621,22 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B76" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="D76" s="9">
         <v>46081</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
@@ -3398,22 +3644,22 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B77" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="D77" s="9">
         <v>45991</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
@@ -3421,22 +3667,22 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B78" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>186</v>
       </c>
       <c r="D78" s="9">
         <v>46081</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
@@ -3444,22 +3690,22 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B79" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="D79" s="9">
         <v>45991</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
@@ -3467,22 +3713,22 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B80" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>190</v>
       </c>
       <c r="D80" s="9">
         <v>45991</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
@@ -3490,22 +3736,22 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B81" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="D81" s="9">
         <v>46234</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
@@ -3513,22 +3759,22 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B82" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="D82" s="9">
         <v>46234</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
@@ -3536,22 +3782,22 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B83" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>196</v>
       </c>
       <c r="D83" s="9">
         <v>46234</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G83" s="11"/>
       <c r="H83" s="12"/>
@@ -3559,22 +3805,22 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B84" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="D84" s="9">
         <v>46081</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="12"/>
@@ -3582,22 +3828,22 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B85" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="D85" s="9">
         <v>45991</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
@@ -3605,22 +3851,22 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B86" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>202</v>
       </c>
       <c r="D86" s="9">
         <v>45991</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G86" s="11"/>
       <c r="H86" s="12"/>
@@ -3628,22 +3874,22 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B87" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="D87" s="9">
         <v>46081</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
@@ -3651,22 +3897,22 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B88" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>206</v>
       </c>
       <c r="D88" s="9">
         <v>45991</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G88" s="11"/>
       <c r="H88" s="12"/>
@@ -3674,22 +3920,22 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B89" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>208</v>
       </c>
       <c r="D89" s="9">
         <v>45991</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G89" s="11"/>
       <c r="H89" s="12"/>
@@ -3697,22 +3943,22 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B90" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>209</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>210</v>
       </c>
       <c r="D90" s="9">
         <v>45991</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G90" s="11"/>
       <c r="H90" s="12"/>
@@ -3720,22 +3966,22 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="C91" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>213</v>
       </c>
       <c r="D91" s="9">
         <v>45658</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G91" s="11"/>
       <c r="H91" s="12"/>
@@ -3743,22 +3989,22 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B92" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="D92" s="9">
         <v>45658</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
@@ -3766,22 +4012,22 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B93" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>217</v>
       </c>
       <c r="D93" s="9">
         <v>45658</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G93" s="11"/>
       <c r="H93" s="12"/>
@@ -3789,51 +4035,51 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="C94" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="D94" s="9">
         <v>46081</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G94" s="13">
         <v>46044</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D95" s="9">
         <v>46081</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G95" s="11"/>
       <c r="H95" s="12"/>
@@ -3841,22 +4087,22 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D96" s="9">
         <v>46081</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G96" s="11"/>
       <c r="H96" s="12"/>
@@ -3864,10 +4110,10 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C97" s="8">
         <v>65153</v>
@@ -3876,10 +4122,10 @@
         <v>47361</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G97" s="11"/>
       <c r="H97" s="12"/>
@@ -3887,51 +4133,51 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="D98" s="9">
         <v>46356</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="G98" s="13">
         <v>46057</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D99" s="9">
         <v>46356</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G99" s="11"/>
       <c r="H99" s="12"/>
@@ -3939,22 +4185,22 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D100" s="9">
         <v>46053</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G100" s="11"/>
       <c r="H100" s="12"/>
@@ -3962,54 +4208,48 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>237</v>
-      </c>
       <c r="C101" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D101" s="9">
         <v>46053</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="G101" s="13">
-        <v>46058</v>
-      </c>
-      <c r="H101" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="I101" s="12" t="s">
-        <v>78</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G101" s="13"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
       <c r="J101" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D102" s="9">
         <v>46996</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
@@ -4017,22 +4257,22 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D103" s="9">
         <v>46996</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G103" s="11"/>
       <c r="H103" s="12"/>
@@ -4040,22 +4280,22 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D104" s="9">
         <v>46996</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G104" s="11"/>
       <c r="H104" s="12"/>
@@ -4063,22 +4303,22 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D105" s="9">
         <v>46996</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G105" s="11"/>
       <c r="H105" s="12"/>
@@ -4086,22 +4326,22 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D106" s="9">
         <v>46996</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G106" s="11"/>
       <c r="H106" s="12"/>
@@ -4109,22 +4349,22 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D107" s="9">
         <v>46996</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G107" s="11"/>
       <c r="H107" s="12"/>
@@ -4132,22 +4372,22 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D108" s="9">
         <v>46996</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G108" s="11"/>
       <c r="H108" s="12"/>
@@ -4155,22 +4395,22 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D109" s="9">
         <v>46996</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G109" s="11"/>
       <c r="H109" s="12"/>
@@ -4178,22 +4418,22 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D110" s="9">
         <v>46996</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G110" s="11"/>
       <c r="H110" s="12"/>
@@ -4201,22 +4441,22 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D111" s="9">
         <v>46996</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G111" s="11"/>
       <c r="H111" s="12"/>
@@ -4224,22 +4464,22 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D112" s="9">
         <v>46996</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G112" s="11"/>
       <c r="H112" s="12"/>
@@ -4247,22 +4487,22 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D113" s="9">
         <v>46996</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G113" s="11"/>
       <c r="H113" s="12"/>
@@ -4270,22 +4510,22 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D114" s="9">
         <v>46996</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G114" s="11"/>
       <c r="H114" s="12"/>
@@ -4293,22 +4533,22 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D115" s="9">
         <v>46996</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G115" s="11"/>
       <c r="H115" s="12"/>
@@ -4316,22 +4556,22 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D116" s="9">
         <v>46996</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G116" s="11"/>
       <c r="H116" s="12"/>
@@ -4339,22 +4579,22 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D117" s="9">
         <v>46996</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G117" s="11"/>
       <c r="H117" s="12"/>
@@ -4362,22 +4602,22 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D118" s="9">
         <v>46996</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G118" s="11"/>
       <c r="H118" s="12"/>
@@ -4385,22 +4625,22 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D119" s="9">
         <v>46996</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G119" s="11"/>
       <c r="H119" s="12"/>
@@ -4408,22 +4648,22 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D120" s="9">
         <v>45961</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G120" s="11"/>
       <c r="H120" s="12"/>
@@ -4431,22 +4671,22 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B121" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B121" s="8" t="s">
-        <v>282</v>
-      </c>
       <c r="C121" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D121" s="9">
         <v>45961</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G121" s="11"/>
       <c r="H121" s="12"/>
@@ -4454,22 +4694,22 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D122" s="9">
         <v>45961</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G122" s="11"/>
       <c r="H122" s="12"/>
@@ -4477,22 +4717,22 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D123" s="9">
         <v>46081</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G123" s="11"/>
       <c r="H123" s="12"/>
@@ -4500,22 +4740,22 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D124" s="9">
         <v>46507</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G124" s="11"/>
       <c r="H124" s="12"/>
@@ -4523,22 +4763,22 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B125" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="B125" s="8" t="s">
-        <v>293</v>
-      </c>
       <c r="C125" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D125" s="9">
         <v>46507</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G125" s="11"/>
       <c r="H125" s="12"/>
@@ -4546,22 +4786,22 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D126" s="9">
         <v>46507</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G126" s="11"/>
       <c r="H126" s="15"/>
@@ -4569,32 +4809,139 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D127" s="9">
         <v>46203</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G127" s="11"/>
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
     </row>
-    <row r="128" spans="1:9"/>
-    <row r="129"/>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>297</v>
+      </c>
+      <c r="B128" t="s">
+        <v>298</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E128" s="8"/>
+      <c r="F128" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G128" s="13">
+        <v>46063</v>
+      </c>
+      <c r="H128" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I128" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>297</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D129" s="9"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G129" s="13">
+        <v>46063</v>
+      </c>
+      <c r="H129" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I129" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15" customHeight="1">
+      <c r="A130" s="7"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+    </row>
+    <row r="131" spans="1:9" ht="15" customHeight="1">
+      <c r="A131" s="7"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+    </row>
+    <row r="132" spans="1:9" ht="15" customHeight="1">
+      <c r="A132" s="7"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+    </row>
+    <row r="133" spans="1:9" ht="15" customHeight="1">
+      <c r="A133" s="7"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+    </row>
+    <row r="134" spans="1:9" ht="15" customHeight="1">
+      <c r="A134" s="7"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F127" xr:uid="{EDA66EBA-6B88-4C75-8217-0B7E221D898D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4633,14 +4980,14 @@
         <v>868589060374017</v>
       </c>
       <c r="F3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G3" s="2" t="e">
         <f ca="1">VLOOKUP(D3,Hoja2!G:K,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="I3" s="4">
         <v>46043</v>
@@ -4651,14 +4998,14 @@
         <v>868589060674226</v>
       </c>
       <c r="F4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G4" s="2" t="e">
         <f ca="1">VLOOKUP(D4,Hoja2!G:K,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="I4" s="4">
         <v>46043</v>
@@ -5022,6 +5369,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100027709BF533FA442AFC4A8B2C0110727" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a37fc0d7c302f7619d355a49e1f175a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xmlns:ns4="bda9c1ec-c4e2-44f9-929c-ca399fe36c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="01250a30c504a808427f15ccf149ee4d" ns3:_="" ns4:_="">
     <xsd:import namespace="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
@@ -5254,25 +5618,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5280,5 +5627,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}"/>
 </file>
--- a/data/bitacora.xlsx
+++ b/data/bitacora.xlsx
@@ -5377,15 +5377,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100027709BF533FA442AFC4A8B2C0110727" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a37fc0d7c302f7619d355a49e1f175a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xmlns:ns4="bda9c1ec-c4e2-44f9-929c-ca399fe36c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="01250a30c504a808427f15ccf149ee4d" ns3:_="" ns4:_="">
     <xsd:import namespace="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
@@ -5618,14 +5609,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}"/>
 </file>
--- a/data/bitacora.xlsx
+++ b/data/bitacora.xlsx
@@ -5369,14 +5369,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100027709BF533FA442AFC4A8B2C0110727" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a37fc0d7c302f7619d355a49e1f175a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xmlns:ns4="bda9c1ec-c4e2-44f9-929c-ca399fe36c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="01250a30c504a808427f15ccf149ee4d" ns3:_="" ns4:_="">
     <xsd:import namespace="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
@@ -5609,7 +5601,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5618,14 +5610,22 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}"/>
 </file>
--- a/data/bitacora.xlsx
+++ b/data/bitacora.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29728"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupokaufmann-my.sharepoint.com/personal/samuel_sanchez_grupokaufmann_com/Documents/Documentos/Dev/bitacora_diaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F991B3EA-9177-49FE-AE6E-7DC3F6577367}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCC5878F-CE2B-44EA-8226-891EC76EC7E8}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="15720" xr2:uid="{A9E3F017-9040-47A2-B586-0486128F3261}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A9E3F017-9040-47A2-B586-0486128F3261}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$127</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="322">
   <si>
     <t>FLOTA</t>
   </si>
@@ -955,13 +955,64 @@
   </si>
   <si>
     <t>Revisado</t>
+  </si>
+  <si>
+    <t>W1T964414N0555881</t>
+  </si>
+  <si>
+    <t>RYFJ53</t>
+  </si>
+  <si>
+    <t>TREKRENTAL</t>
+  </si>
+  <si>
+    <t>Desconfiguracion</t>
+  </si>
+  <si>
+    <t>3AKJHPDV2MSMV2948</t>
+  </si>
+  <si>
+    <t>PLLF15</t>
+  </si>
+  <si>
+    <t>AGREDUCAM RANCAGUA (CM)</t>
+  </si>
+  <si>
+    <t>Re-Configuracion</t>
+  </si>
+  <si>
+    <t>WDB964231L0390577</t>
+  </si>
+  <si>
+    <t>T-070 </t>
+  </si>
+  <si>
+    <t>3AKJHPDV6KSKP7195</t>
+  </si>
+  <si>
+    <t>LPDH97</t>
+  </si>
+  <si>
+    <t>TERRA NORTE SPA (CM)</t>
+  </si>
+  <si>
+    <t>3AKJHPDV9KSKP7112</t>
+  </si>
+  <si>
+    <t>LPDH90</t>
+  </si>
+  <si>
+    <t>3AKJHPDV6KSKP7181</t>
+  </si>
+  <si>
+    <t>LRSY44</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -986,7 +1037,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1023,8 +1074,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1147,11 +1204,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1222,6 +1325,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1450,8 +1564,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}" name="Tabla1" displayName="Tabla1" ref="A1:J129" totalsRowShown="0">
-  <autoFilter ref="A1:J129" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}" name="Tabla1" displayName="Tabla1" ref="A1:J135" totalsRowShown="0">
+  <autoFilter ref="A1:J135" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0A7C6585-5C8B-46BF-ABA0-2DA806D161DC}" name="FLOTA" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{EB7792BB-219D-496F-9F16-84F6805E0CB0}" name="VIN CON PROBLEMAS" dataDxfId="8"/>
@@ -1785,28 +1899,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA66EBA-6B88-4C75-8217-0B7E221D898D}">
-  <dimension ref="A1:L134"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="E39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="79" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="6"/>
+    <col min="11" max="16384" width="11.453125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1838,7 +1952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -1861,7 +1975,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -1884,7 +1998,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -1907,7 +2021,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1930,7 +2044,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -1953,7 +2067,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -1976,7 +2090,7 @@
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -1999,7 +2113,7 @@
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -2022,7 +2136,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -2045,7 +2159,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2068,7 +2182,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
@@ -2092,7 +2206,7 @@
       <c r="I12" s="12"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
@@ -2115,7 +2229,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
@@ -2138,7 +2252,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -2161,7 +2275,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -2184,7 +2298,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -2207,7 +2321,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
@@ -2230,7 +2344,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
@@ -2253,7 +2367,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>51</v>
       </c>
@@ -2276,7 +2390,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>51</v>
       </c>
@@ -2299,7 +2413,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>51</v>
       </c>
@@ -2322,7 +2436,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>59</v>
       </c>
@@ -2345,7 +2459,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>59</v>
       </c>
@@ -2368,7 +2482,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>65</v>
       </c>
@@ -2391,7 +2505,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>65</v>
       </c>
@@ -2414,7 +2528,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -2437,7 +2551,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>65</v>
       </c>
@@ -2460,7 +2574,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>65</v>
       </c>
@@ -2489,7 +2603,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>80</v>
       </c>
@@ -2512,7 +2626,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>80</v>
       </c>
@@ -2535,7 +2649,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>80</v>
       </c>
@@ -2558,7 +2672,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>80</v>
       </c>
@@ -2581,7 +2695,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>80</v>
       </c>
@@ -2604,7 +2718,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>80</v>
       </c>
@@ -2627,7 +2741,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>80</v>
       </c>
@@ -2650,7 +2764,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>95</v>
       </c>
@@ -2679,7 +2793,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>95</v>
       </c>
@@ -2708,11 +2822,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="33" t="s">
         <v>102</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -2731,7 +2845,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>95</v>
       </c>
@@ -2760,7 +2874,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>95</v>
       </c>
@@ -2789,7 +2903,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>95</v>
       </c>
@@ -2812,7 +2926,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>95</v>
       </c>
@@ -2835,7 +2949,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>95</v>
       </c>
@@ -2858,7 +2972,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
@@ -2881,7 +2995,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>95</v>
       </c>
@@ -2910,7 +3024,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>95</v>
       </c>
@@ -2939,7 +3053,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>95</v>
       </c>
@@ -2968,7 +3082,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>95</v>
       </c>
@@ -2997,7 +3111,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>95</v>
       </c>
@@ -3020,7 +3134,7 @@
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>95</v>
       </c>
@@ -3043,7 +3157,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>95</v>
       </c>
@@ -3066,7 +3180,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>95</v>
       </c>
@@ -3089,7 +3203,7 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>95</v>
       </c>
@@ -3112,7 +3226,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>95</v>
       </c>
@@ -3141,7 +3255,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>95</v>
       </c>
@@ -3170,7 +3284,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>95</v>
       </c>
@@ -3193,7 +3307,7 @@
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>95</v>
       </c>
@@ -3216,7 +3330,7 @@
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>95</v>
       </c>
@@ -3239,7 +3353,7 @@
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>95</v>
       </c>
@@ -3262,7 +3376,7 @@
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>95</v>
       </c>
@@ -3285,7 +3399,7 @@
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>149</v>
       </c>
@@ -3308,7 +3422,7 @@
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>149</v>
       </c>
@@ -3331,7 +3445,7 @@
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>149</v>
       </c>
@@ -3354,7 +3468,7 @@
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>149</v>
       </c>
@@ -3383,7 +3497,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>149</v>
       </c>
@@ -3412,7 +3526,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>149</v>
       </c>
@@ -3435,7 +3549,7 @@
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>149</v>
       </c>
@@ -3458,7 +3572,7 @@
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>149</v>
       </c>
@@ -3481,7 +3595,7 @@
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>149</v>
       </c>
@@ -3504,7 +3618,7 @@
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>149</v>
       </c>
@@ -3527,7 +3641,7 @@
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>149</v>
       </c>
@@ -3550,7 +3664,7 @@
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>172</v>
       </c>
@@ -3573,7 +3687,7 @@
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>172</v>
       </c>
@@ -3596,7 +3710,7 @@
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>177</v>
       </c>
@@ -3619,7 +3733,7 @@
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>177</v>
       </c>
@@ -3642,7 +3756,7 @@
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>177</v>
       </c>
@@ -3665,7 +3779,7 @@
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>177</v>
       </c>
@@ -3688,7 +3802,7 @@
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>177</v>
       </c>
@@ -3711,7 +3825,7 @@
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>177</v>
       </c>
@@ -3734,7 +3848,7 @@
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>177</v>
       </c>
@@ -3757,7 +3871,7 @@
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>177</v>
       </c>
@@ -3780,7 +3894,7 @@
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>177</v>
       </c>
@@ -3803,7 +3917,7 @@
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>177</v>
       </c>
@@ -3826,7 +3940,7 @@
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>177</v>
       </c>
@@ -3849,7 +3963,7 @@
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>177</v>
       </c>
@@ -3872,7 +3986,7 @@
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>177</v>
       </c>
@@ -3895,7 +4009,7 @@
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>177</v>
       </c>
@@ -3918,7 +4032,7 @@
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
         <v>177</v>
       </c>
@@ -3941,7 +4055,7 @@
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>177</v>
       </c>
@@ -3964,7 +4078,7 @@
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>210</v>
       </c>
@@ -3987,7 +4101,7 @@
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>210</v>
       </c>
@@ -4010,7 +4124,7 @@
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>210</v>
       </c>
@@ -4033,7 +4147,7 @@
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>217</v>
       </c>
@@ -4062,7 +4176,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>217</v>
       </c>
@@ -4085,7 +4199,7 @@
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>217</v>
       </c>
@@ -4108,7 +4222,7 @@
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>217</v>
       </c>
@@ -4131,7 +4245,7 @@
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>225</v>
       </c>
@@ -4160,7 +4274,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>225</v>
       </c>
@@ -4183,7 +4297,7 @@
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>231</v>
       </c>
@@ -4206,7 +4320,7 @@
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>231</v>
       </c>
@@ -4232,7 +4346,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>238</v>
       </c>
@@ -4255,7 +4369,7 @@
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>238</v>
       </c>
@@ -4278,7 +4392,7 @@
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>238</v>
       </c>
@@ -4301,7 +4415,7 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>238</v>
       </c>
@@ -4324,7 +4438,7 @@
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>238</v>
       </c>
@@ -4347,7 +4461,7 @@
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>238</v>
       </c>
@@ -4370,7 +4484,7 @@
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>238</v>
       </c>
@@ -4393,7 +4507,7 @@
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>238</v>
       </c>
@@ -4416,7 +4530,7 @@
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>238</v>
       </c>
@@ -4439,7 +4553,7 @@
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>238</v>
       </c>
@@ -4462,7 +4576,7 @@
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>238</v>
       </c>
@@ -4485,7 +4599,7 @@
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>238</v>
       </c>
@@ -4508,7 +4622,7 @@
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>238</v>
       </c>
@@ -4531,7 +4645,7 @@
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>238</v>
       </c>
@@ -4554,7 +4668,7 @@
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>238</v>
       </c>
@@ -4577,7 +4691,7 @@
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>238</v>
       </c>
@@ -4600,7 +4714,7 @@
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>238</v>
       </c>
@@ -4623,7 +4737,7 @@
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>238</v>
       </c>
@@ -4646,7 +4760,7 @@
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>276</v>
       </c>
@@ -4669,7 +4783,7 @@
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>276</v>
       </c>
@@ -4692,7 +4806,7 @@
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>276</v>
       </c>
@@ -4715,7 +4829,7 @@
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>284</v>
       </c>
@@ -4738,7 +4852,7 @@
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>287</v>
       </c>
@@ -4761,7 +4875,7 @@
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
         <v>287</v>
       </c>
@@ -4784,7 +4898,7 @@
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>287</v>
       </c>
@@ -4807,7 +4921,7 @@
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>294</v>
       </c>
@@ -4830,7 +4944,7 @@
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>297</v>
       </c>
@@ -4857,7 +4971,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>297</v>
       </c>
@@ -4882,60 +4996,193 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15" customHeight="1">
-      <c r="A130" s="7"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-    </row>
-    <row r="131" spans="1:9" ht="15" customHeight="1">
-      <c r="A131" s="7"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="12"/>
-      <c r="I131" s="12"/>
-    </row>
-    <row r="132" spans="1:9" ht="15" customHeight="1">
-      <c r="A132" s="7"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-    </row>
-    <row r="133" spans="1:9" ht="15" customHeight="1">
-      <c r="A133" s="7"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
-    </row>
-    <row r="134" spans="1:9" ht="15" customHeight="1">
-      <c r="A134" s="7"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
+    <row r="130" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="B130" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="C130" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="D130" s="36"/>
+      <c r="E130" s="35"/>
+      <c r="F130" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G130" s="13">
+        <v>46063</v>
+      </c>
+      <c r="H130" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="I130" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="B131" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="C131" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="D131" s="36"/>
+      <c r="E131" s="35"/>
+      <c r="F131" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G131" s="27">
+        <v>46065</v>
+      </c>
+      <c r="H131" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="I131" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J131" s="38"/>
+    </row>
+    <row r="132" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B132" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="C132" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="D132" s="36"/>
+      <c r="E132" s="35"/>
+      <c r="F132" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G132" s="27">
+        <v>46065</v>
+      </c>
+      <c r="H132" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="I132" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J132" s="38"/>
+    </row>
+    <row r="133" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="B133" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="C133" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="D133" s="36"/>
+      <c r="E133" s="35"/>
+      <c r="F133" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G133" s="27">
+        <v>46065</v>
+      </c>
+      <c r="H133" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="I133" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J133" s="38"/>
+    </row>
+    <row r="134" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="B134" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="C134" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="D134" s="36"/>
+      <c r="E134" s="35"/>
+      <c r="F134" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G134" s="27">
+        <v>46065</v>
+      </c>
+      <c r="H134" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="I134" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J134" s="38"/>
+    </row>
+    <row r="135" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="B135" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="C135" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="D135" s="36"/>
+      <c r="E135" s="35"/>
+      <c r="F135" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G135" s="27">
+        <v>46065</v>
+      </c>
+      <c r="H135" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="I135" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J135" s="38"/>
+    </row>
+    <row r="137" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="7"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="32"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+    </row>
+    <row r="139" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="7"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="32"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+    </row>
+    <row r="141" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="7"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="32"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4953,29 +5200,29 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="54" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:14">
+    <row r="2" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="4:14">
+    <row r="3" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D3" s="1">
         <v>868589060374017</v>
       </c>
@@ -4993,7 +5240,7 @@
         <v>46043</v>
       </c>
     </row>
-    <row r="4" spans="4:14">
+    <row r="4" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D4" s="1">
         <v>868589060674226</v>
       </c>
@@ -5011,355 +5258,355 @@
         <v>46043</v>
       </c>
     </row>
-    <row r="5" spans="4:14">
+    <row r="5" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="4:14">
+    <row r="6" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="4:14">
+    <row r="7" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="4:14">
+    <row r="8" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="4:14">
+    <row r="10" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="4:14">
+    <row r="11" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="4:14">
+    <row r="12" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="4:14">
+    <row r="13" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="4:14">
+    <row r="14" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="4:14">
+    <row r="15" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="4:14">
+    <row r="16" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="13:14">
+    <row r="17" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="13:14">
+    <row r="18" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="13:14">
+    <row r="19" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="13:14">
+    <row r="20" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="13:14">
+    <row r="21" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="13:14">
+    <row r="22" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="13:14">
+    <row r="23" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="13:14">
+    <row r="24" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="13:14">
+    <row r="25" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="13:14">
+    <row r="26" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="13:14">
+    <row r="27" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="13:14">
+    <row r="28" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="13:14">
+    <row r="29" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="13:14">
+    <row r="30" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="13:14">
+    <row r="31" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="13:14">
+    <row r="32" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="13:14">
+    <row r="33" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="13:14">
+    <row r="34" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="13:14">
+    <row r="35" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="13:14">
+    <row r="36" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="13:14">
+    <row r="37" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="13:14">
+    <row r="38" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="13:14">
+    <row r="39" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="13:14">
+    <row r="40" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="13:14">
+    <row r="41" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="13:14">
+    <row r="42" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="13:14">
+    <row r="43" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="13:14">
+    <row r="44" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="13:14">
+    <row r="45" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="13:14">
+    <row r="46" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="13:14">
+    <row r="47" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="13:14">
+    <row r="48" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="13:14">
+    <row r="49" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="13:14">
+    <row r="50" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="13:14">
+    <row r="51" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="13:14">
+    <row r="52" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="13:14">
+    <row r="53" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="13:14">
+    <row r="54" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="13:14">
+    <row r="55" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="13:14">
+    <row r="56" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="13:14">
+    <row r="57" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="13:14">
+    <row r="58" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="13:14">
+    <row r="59" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="13:14">
+    <row r="60" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="13:14">
+    <row r="61" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="13:14">
+    <row r="62" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="13:14">
+    <row r="63" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="13:14">
+    <row r="64" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="13:14">
+    <row r="65" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
     </row>
-    <row r="66" spans="13:14">
+    <row r="66" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
     </row>
-    <row r="67" spans="13:14">
+    <row r="67" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
     </row>
-    <row r="68" spans="13:14">
+    <row r="68" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" spans="13:14">
+    <row r="69" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="13:14">
+    <row r="70" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
     </row>
-    <row r="71" spans="13:14">
+    <row r="71" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
     </row>
-    <row r="72" spans="13:14">
+    <row r="72" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
     </row>
-    <row r="73" spans="13:14">
+    <row r="73" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
     </row>
-    <row r="74" spans="13:14">
+    <row r="74" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" spans="13:14">
+    <row r="75" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
     </row>
-    <row r="76" spans="13:14">
+    <row r="76" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
     </row>
-    <row r="77" spans="13:14">
+    <row r="77" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
     </row>
-    <row r="78" spans="13:14">
+    <row r="78" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
     </row>
-    <row r="79" spans="13:14">
+    <row r="79" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
     </row>
-    <row r="80" spans="13:14">
+    <row r="80" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" spans="13:14">
+    <row r="81" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="13:14">
+    <row r="82" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
     </row>
-    <row r="83" spans="13:14">
+    <row r="83" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
     </row>
-    <row r="84" spans="13:14">
+    <row r="84" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
     </row>
-    <row r="85" spans="13:14">
+    <row r="85" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
     </row>
-    <row r="86" spans="13:14">
+    <row r="86" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
     </row>
-    <row r="87" spans="13:14">
+    <row r="87" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
     </row>
-    <row r="88" spans="13:14">
+    <row r="88" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
     </row>
-    <row r="89" spans="13:14">
+    <row r="89" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
     </row>
-    <row r="90" spans="13:14">
+    <row r="90" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
     </row>
-    <row r="91" spans="13:14">
+    <row r="91" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
     </row>
-    <row r="92" spans="13:14">
+    <row r="92" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
     </row>
@@ -5619,13 +5866,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
+    <ds:schemaRef ds:uri="bda9c1ec-c4e2-44f9-929c-ca399fe36c88"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/bitacora.xlsx
+++ b/data/bitacora.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupokaufmann-my.sharepoint.com/personal/samuel_sanchez_grupokaufmann_com/Documents/Documentos/Dev/bitacora_diaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCC5878F-CE2B-44EA-8226-891EC76EC7E8}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD65CB64-88EE-4C4F-B8C1-8FDC675DB0F4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A9E3F017-9040-47A2-B586-0486128F3261}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$127</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -951,68 +951,68 @@
     <t>SBLF87</t>
   </si>
   <si>
+    <t>TREKRENTAL</t>
+  </si>
+  <si>
+    <t>W1T964414N0555881</t>
+  </si>
+  <si>
+    <t>RYFJ53</t>
+  </si>
+  <si>
+    <t>Desconfiguracion</t>
+  </si>
+  <si>
+    <t>AGREDUCAM RANCAGUA (CM)</t>
+  </si>
+  <si>
+    <t>3AKJHPDV2MSMV2948</t>
+  </si>
+  <si>
+    <t>PLLF15</t>
+  </si>
+  <si>
+    <t>Re-Configuracion</t>
+  </si>
+  <si>
+    <t>WDB964231L0390577</t>
+  </si>
+  <si>
+    <t>T-070 </t>
+  </si>
+  <si>
+    <t>TERRA NORTE SPA (CM)</t>
+  </si>
+  <si>
+    <t>3AKJHPDV6KSKP7195</t>
+  </si>
+  <si>
+    <t>LPDH97</t>
+  </si>
+  <si>
+    <t>3AKJHPDV9KSKP7112</t>
+  </si>
+  <si>
+    <t>LPDH90</t>
+  </si>
+  <si>
+    <t>3AKJHPDV6KSKP7181</t>
+  </si>
+  <si>
+    <t>LRSY44</t>
+  </si>
+  <si>
     <t>IMEI</t>
   </si>
   <si>
     <t>Revisado</t>
-  </si>
-  <si>
-    <t>W1T964414N0555881</t>
-  </si>
-  <si>
-    <t>RYFJ53</t>
-  </si>
-  <si>
-    <t>TREKRENTAL</t>
-  </si>
-  <si>
-    <t>Desconfiguracion</t>
-  </si>
-  <si>
-    <t>3AKJHPDV2MSMV2948</t>
-  </si>
-  <si>
-    <t>PLLF15</t>
-  </si>
-  <si>
-    <t>AGREDUCAM RANCAGUA (CM)</t>
-  </si>
-  <si>
-    <t>Re-Configuracion</t>
-  </si>
-  <si>
-    <t>WDB964231L0390577</t>
-  </si>
-  <si>
-    <t>T-070 </t>
-  </si>
-  <si>
-    <t>3AKJHPDV6KSKP7195</t>
-  </si>
-  <si>
-    <t>LPDH97</t>
-  </si>
-  <si>
-    <t>TERRA NORTE SPA (CM)</t>
-  </si>
-  <si>
-    <t>3AKJHPDV9KSKP7112</t>
-  </si>
-  <si>
-    <t>LPDH90</t>
-  </si>
-  <si>
-    <t>3AKJHPDV6KSKP7181</t>
-  </si>
-  <si>
-    <t>LRSY44</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1206,19 +1206,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </left>
       <right/>
@@ -1250,11 +1237,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1325,17 +1325,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1565,7 +1564,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}" name="Tabla1" displayName="Tabla1" ref="A1:J135" totalsRowShown="0">
-  <autoFilter ref="A1:J135" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}"/>
+  <autoFilter ref="A1:J135" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}">
+    <filterColumn colId="6">
+      <filters>
+        <dateGroupItem year="2026" month="2" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0A7C6585-5C8B-46BF-ABA0-2DA806D161DC}" name="FLOTA" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{EB7792BB-219D-496F-9F16-84F6805E0CB0}" name="VIN CON PROBLEMAS" dataDxfId="8"/>
@@ -1902,25 +1907,25 @@
   <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
+      <pane ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.81640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="79" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.453125" style="6"/>
+    <col min="11" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="14.45">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1952,7 +1957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="14.45" hidden="1">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -1975,7 +1980,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="14.45" hidden="1">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -1998,7 +2003,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="14.45" hidden="1">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -2021,7 +2026,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="14.45" hidden="1">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2044,7 +2049,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="14.45" hidden="1">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2067,7 +2072,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="14.45" hidden="1">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -2090,7 +2095,7 @@
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="14.45" hidden="1">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -2113,7 +2118,7 @@
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="14.45" hidden="1">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -2136,7 +2141,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="14.45" hidden="1">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -2159,7 +2164,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="14.45" hidden="1">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2182,7 +2187,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="14.45" hidden="1">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
@@ -2206,7 +2211,7 @@
       <c r="I12" s="12"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="14.45" hidden="1">
       <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
@@ -2229,7 +2234,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="14.45" hidden="1">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
@@ -2252,7 +2257,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="14.45" hidden="1">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -2275,7 +2280,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="14.45" hidden="1">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -2298,7 +2303,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="14.45" hidden="1">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -2321,7 +2326,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="14.45" hidden="1">
       <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
@@ -2344,7 +2349,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="14.45" hidden="1">
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
@@ -2367,7 +2372,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="14.45" hidden="1">
       <c r="A20" s="7" t="s">
         <v>51</v>
       </c>
@@ -2390,7 +2395,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="14.45" hidden="1">
       <c r="A21" s="7" t="s">
         <v>51</v>
       </c>
@@ -2413,7 +2418,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="14.45" hidden="1">
       <c r="A22" s="7" t="s">
         <v>51</v>
       </c>
@@ -2436,7 +2441,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="14.45" hidden="1">
       <c r="A23" s="7" t="s">
         <v>59</v>
       </c>
@@ -2459,7 +2464,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="14.45" hidden="1">
       <c r="A24" s="7" t="s">
         <v>59</v>
       </c>
@@ -2482,7 +2487,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="14.45" hidden="1">
       <c r="A25" s="7" t="s">
         <v>65</v>
       </c>
@@ -2505,7 +2510,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="14.45" hidden="1">
       <c r="A26" s="7" t="s">
         <v>65</v>
       </c>
@@ -2528,7 +2533,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="14.45" hidden="1">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -2551,7 +2556,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="14.45" hidden="1">
       <c r="A28" s="7" t="s">
         <v>65</v>
       </c>
@@ -2574,7 +2579,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="14.45">
       <c r="A29" s="7" t="s">
         <v>65</v>
       </c>
@@ -2603,7 +2608,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="14.45" hidden="1">
       <c r="A30" s="7" t="s">
         <v>80</v>
       </c>
@@ -2626,7 +2631,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="14.45" hidden="1">
       <c r="A31" s="7" t="s">
         <v>80</v>
       </c>
@@ -2649,7 +2654,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="14.45" hidden="1">
       <c r="A32" s="7" t="s">
         <v>80</v>
       </c>
@@ -2672,7 +2677,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="14.45" hidden="1">
       <c r="A33" s="7" t="s">
         <v>80</v>
       </c>
@@ -2695,7 +2700,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="14.45" hidden="1">
       <c r="A34" s="7" t="s">
         <v>80</v>
       </c>
@@ -2718,7 +2723,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="14.45" hidden="1">
       <c r="A35" s="7" t="s">
         <v>80</v>
       </c>
@@ -2741,7 +2746,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="14.45" hidden="1">
       <c r="A36" s="7" t="s">
         <v>80</v>
       </c>
@@ -2764,7 +2769,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="14.45" hidden="1">
       <c r="A37" s="7" t="s">
         <v>95</v>
       </c>
@@ -2793,7 +2798,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="14.45">
       <c r="A38" s="7" t="s">
         <v>95</v>
       </c>
@@ -2822,11 +2827,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="14.45" hidden="1">
       <c r="A39" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="32" t="s">
         <v>102</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -2845,7 +2850,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="14.45" hidden="1">
       <c r="A40" s="7" t="s">
         <v>95</v>
       </c>
@@ -2874,7 +2879,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="14.45">
       <c r="A41" s="7" t="s">
         <v>95</v>
       </c>
@@ -2903,7 +2908,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="14.45" hidden="1">
       <c r="A42" s="7" t="s">
         <v>95</v>
       </c>
@@ -2926,7 +2931,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="14.45" hidden="1">
       <c r="A43" s="7" t="s">
         <v>95</v>
       </c>
@@ -2949,7 +2954,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="14.45" hidden="1">
       <c r="A44" s="7" t="s">
         <v>95</v>
       </c>
@@ -2972,7 +2977,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="14.45" hidden="1">
       <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
@@ -2995,7 +3000,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="14.45" hidden="1">
       <c r="A46" s="7" t="s">
         <v>95</v>
       </c>
@@ -3024,7 +3029,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="14.45" hidden="1">
       <c r="A47" s="7" t="s">
         <v>95</v>
       </c>
@@ -3053,7 +3058,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="14.45" hidden="1">
       <c r="A48" s="7" t="s">
         <v>95</v>
       </c>
@@ -3082,7 +3087,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="14.45" hidden="1">
       <c r="A49" s="7" t="s">
         <v>95</v>
       </c>
@@ -3111,7 +3116,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="14.45" hidden="1">
       <c r="A50" s="7" t="s">
         <v>95</v>
       </c>
@@ -3134,7 +3139,7 @@
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="14.45" hidden="1">
       <c r="A51" s="7" t="s">
         <v>95</v>
       </c>
@@ -3157,7 +3162,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="14.45" hidden="1">
       <c r="A52" s="7" t="s">
         <v>95</v>
       </c>
@@ -3180,7 +3185,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="14.45" hidden="1">
       <c r="A53" s="7" t="s">
         <v>95</v>
       </c>
@@ -3203,7 +3208,7 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="14.45" hidden="1">
       <c r="A54" s="7" t="s">
         <v>95</v>
       </c>
@@ -3226,7 +3231,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="14.45" hidden="1">
       <c r="A55" s="7" t="s">
         <v>95</v>
       </c>
@@ -3255,7 +3260,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="14.45" hidden="1">
       <c r="A56" s="7" t="s">
         <v>95</v>
       </c>
@@ -3284,7 +3289,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="14.45" hidden="1">
       <c r="A57" s="7" t="s">
         <v>95</v>
       </c>
@@ -3307,7 +3312,7 @@
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
     </row>
-    <row r="58" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="14.45" hidden="1">
       <c r="A58" s="7" t="s">
         <v>95</v>
       </c>
@@ -3330,7 +3335,7 @@
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
     </row>
-    <row r="59" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="14.45" hidden="1">
       <c r="A59" s="7" t="s">
         <v>95</v>
       </c>
@@ -3353,7 +3358,7 @@
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
     </row>
-    <row r="60" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="14.45" hidden="1">
       <c r="A60" s="7" t="s">
         <v>95</v>
       </c>
@@ -3376,7 +3381,7 @@
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
     </row>
-    <row r="61" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="14.45" hidden="1">
       <c r="A61" s="7" t="s">
         <v>95</v>
       </c>
@@ -3399,7 +3404,7 @@
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
     </row>
-    <row r="62" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="14.45" hidden="1">
       <c r="A62" s="7" t="s">
         <v>149</v>
       </c>
@@ -3422,7 +3427,7 @@
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
     </row>
-    <row r="63" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="14.45" hidden="1">
       <c r="A63" s="7" t="s">
         <v>149</v>
       </c>
@@ -3445,7 +3450,7 @@
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
     </row>
-    <row r="64" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="14.45" hidden="1">
       <c r="A64" s="7" t="s">
         <v>149</v>
       </c>
@@ -3468,7 +3473,7 @@
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
     </row>
-    <row r="65" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="14.45">
       <c r="A65" s="7" t="s">
         <v>149</v>
       </c>
@@ -3497,7 +3502,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="14.45">
       <c r="A66" s="7" t="s">
         <v>149</v>
       </c>
@@ -3526,7 +3531,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="14.45" hidden="1">
       <c r="A67" s="7" t="s">
         <v>149</v>
       </c>
@@ -3549,7 +3554,7 @@
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
     </row>
-    <row r="68" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="14.45" hidden="1">
       <c r="A68" s="7" t="s">
         <v>149</v>
       </c>
@@ -3572,7 +3577,7 @@
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
     </row>
-    <row r="69" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="14.45" hidden="1">
       <c r="A69" s="7" t="s">
         <v>149</v>
       </c>
@@ -3595,7 +3600,7 @@
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
     </row>
-    <row r="70" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="14.45" hidden="1">
       <c r="A70" s="7" t="s">
         <v>149</v>
       </c>
@@ -3618,7 +3623,7 @@
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
     </row>
-    <row r="71" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="14.45" hidden="1">
       <c r="A71" s="7" t="s">
         <v>149</v>
       </c>
@@ -3641,7 +3646,7 @@
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
     </row>
-    <row r="72" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" ht="14.45" hidden="1">
       <c r="A72" s="7" t="s">
         <v>149</v>
       </c>
@@ -3664,7 +3669,7 @@
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
     </row>
-    <row r="73" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" ht="14.45" hidden="1">
       <c r="A73" s="7" t="s">
         <v>172</v>
       </c>
@@ -3687,7 +3692,7 @@
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
     </row>
-    <row r="74" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" ht="14.45" hidden="1">
       <c r="A74" s="7" t="s">
         <v>172</v>
       </c>
@@ -3710,7 +3715,7 @@
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
     </row>
-    <row r="75" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" ht="14.45" hidden="1">
       <c r="A75" s="7" t="s">
         <v>177</v>
       </c>
@@ -3733,7 +3738,7 @@
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
     </row>
-    <row r="76" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" ht="14.45" hidden="1">
       <c r="A76" s="7" t="s">
         <v>177</v>
       </c>
@@ -3756,7 +3761,7 @@
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
     </row>
-    <row r="77" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" ht="14.45" hidden="1">
       <c r="A77" s="7" t="s">
         <v>177</v>
       </c>
@@ -3779,7 +3784,7 @@
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
     </row>
-    <row r="78" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" ht="14.45" hidden="1">
       <c r="A78" s="7" t="s">
         <v>177</v>
       </c>
@@ -3802,7 +3807,7 @@
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
     </row>
-    <row r="79" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" ht="14.45" hidden="1">
       <c r="A79" s="7" t="s">
         <v>177</v>
       </c>
@@ -3825,7 +3830,7 @@
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
     </row>
-    <row r="80" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" ht="14.45" hidden="1">
       <c r="A80" s="7" t="s">
         <v>177</v>
       </c>
@@ -3848,7 +3853,7 @@
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
     </row>
-    <row r="81" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" ht="14.45" hidden="1">
       <c r="A81" s="7" t="s">
         <v>177</v>
       </c>
@@ -3871,7 +3876,7 @@
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
     </row>
-    <row r="82" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" ht="14.45" hidden="1">
       <c r="A82" s="7" t="s">
         <v>177</v>
       </c>
@@ -3894,7 +3899,7 @@
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
     </row>
-    <row r="83" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" ht="14.45" hidden="1">
       <c r="A83" s="7" t="s">
         <v>177</v>
       </c>
@@ -3917,7 +3922,7 @@
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
     </row>
-    <row r="84" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" ht="14.45" hidden="1">
       <c r="A84" s="7" t="s">
         <v>177</v>
       </c>
@@ -3940,7 +3945,7 @@
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
     </row>
-    <row r="85" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" ht="14.45" hidden="1">
       <c r="A85" s="7" t="s">
         <v>177</v>
       </c>
@@ -3963,7 +3968,7 @@
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
     </row>
-    <row r="86" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" ht="14.45" hidden="1">
       <c r="A86" s="7" t="s">
         <v>177</v>
       </c>
@@ -3986,7 +3991,7 @@
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
     </row>
-    <row r="87" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" ht="14.45" hidden="1">
       <c r="A87" s="7" t="s">
         <v>177</v>
       </c>
@@ -4009,7 +4014,7 @@
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
     </row>
-    <row r="88" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" ht="14.45" hidden="1">
       <c r="A88" s="7" t="s">
         <v>177</v>
       </c>
@@ -4032,7 +4037,7 @@
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
     </row>
-    <row r="89" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" ht="14.45" hidden="1">
       <c r="A89" s="7" t="s">
         <v>177</v>
       </c>
@@ -4055,7 +4060,7 @@
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
     </row>
-    <row r="90" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" ht="14.45" hidden="1">
       <c r="A90" s="7" t="s">
         <v>177</v>
       </c>
@@ -4078,7 +4083,7 @@
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
     </row>
-    <row r="91" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" ht="14.45" hidden="1">
       <c r="A91" s="7" t="s">
         <v>210</v>
       </c>
@@ -4101,7 +4106,7 @@
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
     </row>
-    <row r="92" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" ht="14.45" hidden="1">
       <c r="A92" s="7" t="s">
         <v>210</v>
       </c>
@@ -4124,7 +4129,7 @@
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
     </row>
-    <row r="93" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" ht="14.45" hidden="1">
       <c r="A93" s="7" t="s">
         <v>210</v>
       </c>
@@ -4147,7 +4152,7 @@
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
     </row>
-    <row r="94" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" ht="14.45" hidden="1">
       <c r="A94" s="7" t="s">
         <v>217</v>
       </c>
@@ -4176,7 +4181,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" ht="14.45" hidden="1">
       <c r="A95" s="7" t="s">
         <v>217</v>
       </c>
@@ -4199,7 +4204,7 @@
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
     </row>
-    <row r="96" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" ht="14.45" hidden="1">
       <c r="A96" s="7" t="s">
         <v>217</v>
       </c>
@@ -4222,7 +4227,7 @@
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
     </row>
-    <row r="97" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" ht="14.45" hidden="1">
       <c r="A97" s="7" t="s">
         <v>217</v>
       </c>
@@ -4245,7 +4250,7 @@
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
     </row>
-    <row r="98" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" ht="14.45">
       <c r="A98" s="7" t="s">
         <v>225</v>
       </c>
@@ -4274,7 +4279,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" ht="14.45" hidden="1">
       <c r="A99" s="7" t="s">
         <v>225</v>
       </c>
@@ -4297,7 +4302,7 @@
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
     </row>
-    <row r="100" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" ht="14.45" hidden="1">
       <c r="A100" s="7" t="s">
         <v>231</v>
       </c>
@@ -4320,7 +4325,7 @@
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
     </row>
-    <row r="101" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" ht="14.45" hidden="1">
       <c r="A101" s="7" t="s">
         <v>231</v>
       </c>
@@ -4346,7 +4351,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" ht="14.45" hidden="1">
       <c r="A102" s="7" t="s">
         <v>238</v>
       </c>
@@ -4369,7 +4374,7 @@
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
     </row>
-    <row r="103" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" ht="14.45" hidden="1">
       <c r="A103" s="7" t="s">
         <v>238</v>
       </c>
@@ -4392,7 +4397,7 @@
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
     </row>
-    <row r="104" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" ht="14.45" hidden="1">
       <c r="A104" s="7" t="s">
         <v>238</v>
       </c>
@@ -4415,7 +4420,7 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
     </row>
-    <row r="105" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" ht="14.45" hidden="1">
       <c r="A105" s="7" t="s">
         <v>238</v>
       </c>
@@ -4438,7 +4443,7 @@
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" ht="14.45" hidden="1">
       <c r="A106" s="7" t="s">
         <v>238</v>
       </c>
@@ -4461,7 +4466,7 @@
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
     </row>
-    <row r="107" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="14.45" hidden="1">
       <c r="A107" s="7" t="s">
         <v>238</v>
       </c>
@@ -4484,7 +4489,7 @@
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
     </row>
-    <row r="108" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="14.45" hidden="1">
       <c r="A108" s="7" t="s">
         <v>238</v>
       </c>
@@ -4507,7 +4512,7 @@
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
     </row>
-    <row r="109" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" ht="14.45" hidden="1">
       <c r="A109" s="7" t="s">
         <v>238</v>
       </c>
@@ -4530,7 +4535,7 @@
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
     </row>
-    <row r="110" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" ht="14.45" hidden="1">
       <c r="A110" s="7" t="s">
         <v>238</v>
       </c>
@@ -4553,7 +4558,7 @@
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
     </row>
-    <row r="111" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" ht="14.45" hidden="1">
       <c r="A111" s="7" t="s">
         <v>238</v>
       </c>
@@ -4576,7 +4581,7 @@
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
     </row>
-    <row r="112" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" ht="14.45" hidden="1">
       <c r="A112" s="7" t="s">
         <v>238</v>
       </c>
@@ -4599,7 +4604,7 @@
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
     </row>
-    <row r="113" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" ht="14.45" hidden="1">
       <c r="A113" s="7" t="s">
         <v>238</v>
       </c>
@@ -4622,7 +4627,7 @@
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
     </row>
-    <row r="114" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" ht="14.45" hidden="1">
       <c r="A114" s="7" t="s">
         <v>238</v>
       </c>
@@ -4645,7 +4650,7 @@
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
     </row>
-    <row r="115" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" ht="14.45" hidden="1">
       <c r="A115" s="7" t="s">
         <v>238</v>
       </c>
@@ -4668,7 +4673,7 @@
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
     </row>
-    <row r="116" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" ht="14.45" hidden="1">
       <c r="A116" s="7" t="s">
         <v>238</v>
       </c>
@@ -4691,7 +4696,7 @@
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
     </row>
-    <row r="117" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" ht="14.45" hidden="1">
       <c r="A117" s="7" t="s">
         <v>238</v>
       </c>
@@ -4714,7 +4719,7 @@
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
     </row>
-    <row r="118" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" ht="14.45" hidden="1">
       <c r="A118" s="7" t="s">
         <v>238</v>
       </c>
@@ -4737,7 +4742,7 @@
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
     </row>
-    <row r="119" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" ht="14.45" hidden="1">
       <c r="A119" s="7" t="s">
         <v>238</v>
       </c>
@@ -4760,7 +4765,7 @@
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
     </row>
-    <row r="120" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" ht="14.45" hidden="1">
       <c r="A120" s="7" t="s">
         <v>276</v>
       </c>
@@ -4783,7 +4788,7 @@
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
     </row>
-    <row r="121" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" ht="14.45" hidden="1">
       <c r="A121" s="7" t="s">
         <v>276</v>
       </c>
@@ -4806,7 +4811,7 @@
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
     </row>
-    <row r="122" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" ht="14.45" hidden="1">
       <c r="A122" s="7" t="s">
         <v>276</v>
       </c>
@@ -4829,7 +4834,7 @@
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
     </row>
-    <row r="123" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" ht="14.45" hidden="1">
       <c r="A123" s="7" t="s">
         <v>284</v>
       </c>
@@ -4852,7 +4857,7 @@
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
     </row>
-    <row r="124" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" ht="14.45" hidden="1">
       <c r="A124" s="7" t="s">
         <v>287</v>
       </c>
@@ -4875,7 +4880,7 @@
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
     </row>
-    <row r="125" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" ht="14.45" hidden="1">
       <c r="A125" s="7" t="s">
         <v>287</v>
       </c>
@@ -4898,7 +4903,7 @@
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
     </row>
-    <row r="126" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" ht="14.45" hidden="1">
       <c r="A126" s="7" t="s">
         <v>287</v>
       </c>
@@ -4921,7 +4926,7 @@
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
     </row>
-    <row r="127" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" ht="14.45" hidden="1">
       <c r="A127" s="7" t="s">
         <v>294</v>
       </c>
@@ -4944,7 +4949,7 @@
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
     </row>
-    <row r="128" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" ht="14.45">
       <c r="A128" t="s">
         <v>297</v>
       </c>
@@ -4971,7 +4976,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" ht="14.45">
       <c r="A129" t="s">
         <v>297</v>
       </c>
@@ -4996,18 +5001,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="B130" s="35" t="s">
+    <row r="130" spans="1:10" ht="15" customHeight="1">
+      <c r="A130" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="B130" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="C130" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="C130" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="D130" s="36"/>
-      <c r="E130" s="35"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="34"/>
       <c r="F130" s="10" t="s">
         <v>77</v>
       </c>
@@ -5015,24 +5020,24 @@
         <v>46063</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I130" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="B131" s="35" t="s">
+    <row r="131" spans="1:10" ht="15" customHeight="1">
+      <c r="A131" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="B131" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="C131" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="C131" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="D131" s="36"/>
-      <c r="E131" s="35"/>
+      <c r="D131" s="35"/>
+      <c r="E131" s="34"/>
       <c r="F131" s="10" t="s">
         <v>77</v>
       </c>
@@ -5040,25 +5045,24 @@
         <v>46065</v>
       </c>
       <c r="H131" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I131" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="J131" s="38"/>
-    </row>
-    <row r="132" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="34" t="s">
+    </row>
+    <row r="132" spans="1:10" ht="15" customHeight="1">
+      <c r="A132" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B132" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="C132" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="D132" s="36"/>
-      <c r="E132" s="35"/>
+      <c r="B132" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="C132" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="D132" s="35"/>
+      <c r="E132" s="34"/>
       <c r="F132" s="10" t="s">
         <v>77</v>
       </c>
@@ -5066,123 +5070,158 @@
         <v>46065</v>
       </c>
       <c r="H132" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I132" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="J132" s="38"/>
-    </row>
-    <row r="133" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="B133" s="35" t="s">
+    </row>
+    <row r="133" spans="1:10" ht="15" customHeight="1">
+      <c r="A133" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B133" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C133" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="C133" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="D133" s="36"/>
-      <c r="E133" s="35"/>
-      <c r="F133" s="37" t="s">
+      <c r="D133" s="35"/>
+      <c r="E133" s="34"/>
+      <c r="F133" s="36" t="s">
         <v>77</v>
       </c>
       <c r="G133" s="27">
         <v>46065</v>
       </c>
       <c r="H133" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I133" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="J133" s="38"/>
-    </row>
-    <row r="134" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="34" t="s">
+    </row>
+    <row r="134" spans="1:10" ht="15" customHeight="1">
+      <c r="A134" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B134" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="C134" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="B134" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="C134" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D134" s="36"/>
-      <c r="E134" s="35"/>
-      <c r="F134" s="37" t="s">
+      <c r="D134" s="35"/>
+      <c r="E134" s="34"/>
+      <c r="F134" s="36" t="s">
         <v>77</v>
       </c>
       <c r="G134" s="27">
         <v>46065</v>
       </c>
       <c r="H134" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I134" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="J134" s="38"/>
-    </row>
-    <row r="135" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="34" t="s">
+    </row>
+    <row r="135" spans="1:10" ht="15" customHeight="1">
+      <c r="A135" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="B135" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="C135" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="D135" s="36"/>
-      <c r="E135" s="35"/>
-      <c r="F135" s="37" t="s">
+      <c r="B135" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="C135" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="D135" s="35"/>
+      <c r="E135" s="34"/>
+      <c r="F135" s="36" t="s">
         <v>77</v>
       </c>
       <c r="G135" s="27">
         <v>46065</v>
       </c>
       <c r="H135" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="I135" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="I135" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="J135" s="38"/>
-    </row>
-    <row r="137" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="7"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="32"/>
+    </row>
+    <row r="136" spans="1:10" ht="15" customHeight="1">
+      <c r="A136" s="37"/>
+      <c r="B136" s="38"/>
+      <c r="C136" s="37"/>
+      <c r="D136" s="37"/>
+      <c r="E136" s="37"/>
+      <c r="F136" s="37"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="37"/>
+    </row>
+    <row r="137" spans="1:10" ht="15" customHeight="1">
+      <c r="A137" s="39"/>
+      <c r="B137" s="37"/>
+      <c r="C137" s="37"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="37"/>
+      <c r="F137" s="37"/>
+      <c r="G137" s="12"/>
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
-    </row>
-    <row r="139" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="7"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="32"/>
+      <c r="J137" s="37"/>
+    </row>
+    <row r="138" spans="1:10" ht="15" customHeight="1">
+      <c r="A138" s="37"/>
+      <c r="B138" s="37"/>
+      <c r="C138" s="37"/>
+      <c r="D138" s="37"/>
+      <c r="E138" s="37"/>
+      <c r="F138" s="37"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="37"/>
+    </row>
+    <row r="139" spans="1:10" ht="15" customHeight="1">
+      <c r="A139" s="37"/>
+      <c r="B139" s="37"/>
+      <c r="C139" s="37"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="37"/>
+      <c r="F139" s="37"/>
+      <c r="G139" s="12"/>
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
-    </row>
-    <row r="141" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="7"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="32"/>
+      <c r="J139" s="37"/>
+    </row>
+    <row r="140" spans="1:10" ht="15" customHeight="1">
+      <c r="A140" s="37"/>
+      <c r="B140" s="37"/>
+      <c r="C140" s="37"/>
+      <c r="D140" s="37"/>
+      <c r="E140" s="37"/>
+      <c r="F140" s="37"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="37"/>
+    </row>
+    <row r="141" spans="1:10" ht="15" customHeight="1">
+      <c r="A141" s="37"/>
+      <c r="B141" s="37"/>
+      <c r="C141" s="37"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="37"/>
+      <c r="F141" s="37"/>
+      <c r="G141" s="12"/>
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
+      <c r="J141" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5200,413 +5239,413 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="54" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:14">
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:14">
       <c r="D3" s="1">
         <v>868589060374017</v>
       </c>
       <c r="F3" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="G3" s="2" t="e">
         <f ca="1">VLOOKUP(D3,Hoja2!G:K,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="I3" s="4">
         <v>46043</v>
       </c>
     </row>
-    <row r="4" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:14">
       <c r="D4" s="1">
         <v>868589060674226</v>
       </c>
       <c r="F4" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="G4" s="2" t="e">
         <f ca="1">VLOOKUP(D4,Hoja2!G:K,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="I4" s="4">
         <v>46043</v>
       </c>
     </row>
-    <row r="5" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:14">
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:14">
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:14">
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:14">
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:14">
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:14">
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:14">
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:14">
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:14">
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:14">
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:14">
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:14">
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="13:14">
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="13:14">
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="13:14">
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="13:14">
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="13:14">
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="13:14">
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="13:14">
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="13:14">
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="13:14">
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="13:14">
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="13:14">
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="13:14">
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="13:14">
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="13:14">
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="13:14">
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="13:14">
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="13:14">
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="13:14">
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="13:14">
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="13:14">
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="13:14">
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="13:14">
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="13:14">
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="13:14">
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="13:14">
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="13:14">
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="13:14">
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="13:14">
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="13:14">
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="13:14">
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="13:14">
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="13:14">
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="13:14">
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="13:14">
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="13:14">
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="13:14">
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="13:14">
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="13:14">
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="13:14">
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="13:14">
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="13:14">
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="13:14">
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="13:14">
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="13:14">
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="13:14">
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="13:14">
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="13:14">
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="13:14">
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="13:14">
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
     </row>
-    <row r="66" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="13:14">
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
     </row>
-    <row r="67" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="13:14">
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
     </row>
-    <row r="68" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="13:14">
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="13:14">
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="13:14">
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
     </row>
-    <row r="71" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="13:14">
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
     </row>
-    <row r="72" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="13:14">
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
     </row>
-    <row r="73" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="13:14">
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
     </row>
-    <row r="74" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="13:14">
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="13:14">
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
     </row>
-    <row r="76" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="13:14">
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
     </row>
-    <row r="77" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="13:14">
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
     </row>
-    <row r="78" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="13:14">
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
     </row>
-    <row r="79" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="13:14">
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
     </row>
-    <row r="80" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="13:14">
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="13:14">
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="13:14">
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
     </row>
-    <row r="83" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="13:14">
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
     </row>
-    <row r="84" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="13:14">
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
     </row>
-    <row r="85" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="13:14">
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
     </row>
-    <row r="86" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="13:14">
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
     </row>
-    <row r="87" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="13:14">
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
     </row>
-    <row r="88" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="13:14">
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
     </row>
-    <row r="89" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="13:14">
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
     </row>
-    <row r="90" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="13:14">
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
     </row>
-    <row r="91" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="13:14">
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
     </row>
-    <row r="92" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="13:14">
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
     </row>
@@ -5616,6 +5655,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100027709BF533FA442AFC4A8B2C0110727" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a37fc0d7c302f7619d355a49e1f175a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xmlns:ns4="bda9c1ec-c4e2-44f9-929c-ca399fe36c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="01250a30c504a808427f15ccf149ee4d" ns3:_="" ns4:_="">
     <xsd:import namespace="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
@@ -5848,7 +5895,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5857,47 +5904,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
-    <ds:schemaRef ds:uri="bda9c1ec-c4e2-44f9-929c-ca399fe36c88"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}"/>
 </file>
--- a/data/bitacora.xlsx
+++ b/data/bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupokaufmann-my.sharepoint.com/personal/samuel_sanchez_grupokaufmann_com/Documents/Documentos/Dev/bitacora_diaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="213" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD65CB64-88EE-4C4F-B8C1-8FDC675DB0F4}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA48294A-66F2-43D2-B05D-A0BE5D3D4EDA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A9E3F017-9040-47A2-B586-0486128F3261}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="322">
   <si>
     <t>FLOTA</t>
   </si>
@@ -1564,13 +1564,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}" name="Tabla1" displayName="Tabla1" ref="A1:J135" totalsRowShown="0">
-  <autoFilter ref="A1:J135" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}">
-    <filterColumn colId="6">
-      <filters>
-        <dateGroupItem year="2026" month="2" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J135" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0A7C6585-5C8B-46BF-ABA0-2DA806D161DC}" name="FLOTA" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{EB7792BB-219D-496F-9F16-84F6805E0CB0}" name="VIN CON PROBLEMAS" dataDxfId="8"/>
@@ -1907,8 +1901,8 @@
   <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A138" sqref="A138"/>
+      <pane ySplit="1" topLeftCell="B47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1957,7 +1951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.45" hidden="1">
+    <row r="2" spans="1:12" ht="14.45">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -1980,7 +1974,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="14.45" hidden="1">
+    <row r="3" spans="1:12" ht="14.45">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -2003,7 +1997,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="14.45" hidden="1">
+    <row r="4" spans="1:12" ht="14.45">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -2026,7 +2020,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="14.45" hidden="1">
+    <row r="5" spans="1:12" ht="14.45">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2049,7 +2043,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="14.45" hidden="1">
+    <row r="6" spans="1:12" ht="14.45">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2072,7 +2066,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="14.45" hidden="1">
+    <row r="7" spans="1:12" ht="14.45">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -2095,7 +2089,7 @@
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="1:12" ht="14.45" hidden="1">
+    <row r="8" spans="1:12" ht="14.45">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -2118,7 +2112,7 @@
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="1:12" ht="14.45" hidden="1">
+    <row r="9" spans="1:12" ht="14.45">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -2141,7 +2135,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="14.45" hidden="1">
+    <row r="10" spans="1:12" ht="14.45">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -2164,7 +2158,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="14.45" hidden="1">
+    <row r="11" spans="1:12" ht="14.45">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2187,7 +2181,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="14.45" hidden="1">
+    <row r="12" spans="1:12" ht="14.45">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
@@ -2211,7 +2205,7 @@
       <c r="I12" s="12"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:12" ht="14.45" hidden="1">
+    <row r="13" spans="1:12" ht="14.45">
       <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
@@ -2234,7 +2228,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="14.45" hidden="1">
+    <row r="14" spans="1:12" ht="14.45">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
@@ -2257,7 +2251,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:12" ht="14.45" hidden="1">
+    <row r="15" spans="1:12" ht="14.45">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -2280,7 +2274,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:12" ht="14.45" hidden="1">
+    <row r="16" spans="1:12" ht="14.45">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -2303,7 +2297,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="14.45" hidden="1">
+    <row r="17" spans="1:9" ht="14.45">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -2326,7 +2320,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" ht="14.45" hidden="1">
+    <row r="18" spans="1:9" ht="14.45">
       <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
@@ -2349,7 +2343,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" ht="14.45" hidden="1">
+    <row r="19" spans="1:9" ht="14.45">
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
@@ -2372,7 +2366,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" ht="14.45" hidden="1">
+    <row r="20" spans="1:9" ht="14.45">
       <c r="A20" s="7" t="s">
         <v>51</v>
       </c>
@@ -2395,7 +2389,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" ht="14.45" hidden="1">
+    <row r="21" spans="1:9" ht="14.45">
       <c r="A21" s="7" t="s">
         <v>51</v>
       </c>
@@ -2418,7 +2412,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" ht="14.45" hidden="1">
+    <row r="22" spans="1:9" ht="14.45">
       <c r="A22" s="7" t="s">
         <v>51</v>
       </c>
@@ -2441,7 +2435,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" ht="14.45" hidden="1">
+    <row r="23" spans="1:9" ht="14.45">
       <c r="A23" s="7" t="s">
         <v>59</v>
       </c>
@@ -2464,7 +2458,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" ht="14.45" hidden="1">
+    <row r="24" spans="1:9" ht="14.45">
       <c r="A24" s="7" t="s">
         <v>59</v>
       </c>
@@ -2487,7 +2481,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="14.45" hidden="1">
+    <row r="25" spans="1:9" ht="14.45">
       <c r="A25" s="7" t="s">
         <v>65</v>
       </c>
@@ -2510,7 +2504,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" ht="14.45" hidden="1">
+    <row r="26" spans="1:9" ht="14.45">
       <c r="A26" s="7" t="s">
         <v>65</v>
       </c>
@@ -2533,7 +2527,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" ht="14.45" hidden="1">
+    <row r="27" spans="1:9" ht="14.45">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -2556,7 +2550,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" ht="14.45" hidden="1">
+    <row r="28" spans="1:9" ht="14.45">
       <c r="A28" s="7" t="s">
         <v>65</v>
       </c>
@@ -2608,7 +2602,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.45" hidden="1">
+    <row r="30" spans="1:9" ht="14.45">
       <c r="A30" s="7" t="s">
         <v>80</v>
       </c>
@@ -2631,7 +2625,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" ht="14.45" hidden="1">
+    <row r="31" spans="1:9" ht="14.45">
       <c r="A31" s="7" t="s">
         <v>80</v>
       </c>
@@ -2654,7 +2648,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" ht="14.45" hidden="1">
+    <row r="32" spans="1:9" ht="14.45">
       <c r="A32" s="7" t="s">
         <v>80</v>
       </c>
@@ -2677,7 +2671,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" ht="14.45" hidden="1">
+    <row r="33" spans="1:9" ht="14.45">
       <c r="A33" s="7" t="s">
         <v>80</v>
       </c>
@@ -2700,7 +2694,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" ht="14.45" hidden="1">
+    <row r="34" spans="1:9" ht="14.45">
       <c r="A34" s="7" t="s">
         <v>80</v>
       </c>
@@ -2723,7 +2717,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" ht="14.45" hidden="1">
+    <row r="35" spans="1:9" ht="14.45">
       <c r="A35" s="7" t="s">
         <v>80</v>
       </c>
@@ -2746,7 +2740,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" ht="14.45" hidden="1">
+    <row r="36" spans="1:9" ht="14.45">
       <c r="A36" s="7" t="s">
         <v>80</v>
       </c>
@@ -2769,7 +2763,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="1:9" ht="14.45" hidden="1">
+    <row r="37" spans="1:9" ht="14.45">
       <c r="A37" s="7" t="s">
         <v>95</v>
       </c>
@@ -2827,7 +2821,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.45" hidden="1">
+    <row r="39" spans="1:9" ht="14.45">
       <c r="A39" s="7" t="s">
         <v>95</v>
       </c>
@@ -2850,7 +2844,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="1:9" ht="14.45" hidden="1">
+    <row r="40" spans="1:9" ht="14.45">
       <c r="A40" s="7" t="s">
         <v>95</v>
       </c>
@@ -2908,7 +2902,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.45" hidden="1">
+    <row r="42" spans="1:9" ht="14.45">
       <c r="A42" s="7" t="s">
         <v>95</v>
       </c>
@@ -2931,7 +2925,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="1:9" ht="14.45" hidden="1">
+    <row r="43" spans="1:9" ht="14.45">
       <c r="A43" s="7" t="s">
         <v>95</v>
       </c>
@@ -2954,7 +2948,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="1:9" ht="14.45" hidden="1">
+    <row r="44" spans="1:9" ht="14.45">
       <c r="A44" s="7" t="s">
         <v>95</v>
       </c>
@@ -2977,7 +2971,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="1:9" ht="14.45" hidden="1">
+    <row r="45" spans="1:9" ht="14.45">
       <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
@@ -3000,7 +2994,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="1:9" ht="14.45" hidden="1">
+    <row r="46" spans="1:9" ht="14.45">
       <c r="A46" s="7" t="s">
         <v>95</v>
       </c>
@@ -3029,7 +3023,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.45" hidden="1">
+    <row r="47" spans="1:9" ht="14.45">
       <c r="A47" s="7" t="s">
         <v>95</v>
       </c>
@@ -3058,7 +3052,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.45" hidden="1">
+    <row r="48" spans="1:9" ht="14.45">
       <c r="A48" s="7" t="s">
         <v>95</v>
       </c>
@@ -3087,7 +3081,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="14.45" hidden="1">
+    <row r="49" spans="1:9" ht="14.45">
       <c r="A49" s="7" t="s">
         <v>95</v>
       </c>
@@ -3116,7 +3110,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="14.45" hidden="1">
+    <row r="50" spans="1:9" ht="14.45">
       <c r="A50" s="7" t="s">
         <v>95</v>
       </c>
@@ -3139,7 +3133,7 @@
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="1:9" ht="14.45" hidden="1">
+    <row r="51" spans="1:9" ht="14.45">
       <c r="A51" s="7" t="s">
         <v>95</v>
       </c>
@@ -3162,7 +3156,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="1:9" ht="14.45" hidden="1">
+    <row r="52" spans="1:9" ht="14.45">
       <c r="A52" s="7" t="s">
         <v>95</v>
       </c>
@@ -3185,7 +3179,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="1:9" ht="14.45" hidden="1">
+    <row r="53" spans="1:9" ht="14.45">
       <c r="A53" s="7" t="s">
         <v>95</v>
       </c>
@@ -3208,7 +3202,7 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="1:9" ht="14.45" hidden="1">
+    <row r="54" spans="1:9" ht="14.45">
       <c r="A54" s="7" t="s">
         <v>95</v>
       </c>
@@ -3231,7 +3225,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="1:9" ht="14.45" hidden="1">
+    <row r="55" spans="1:9" ht="14.45">
       <c r="A55" s="7" t="s">
         <v>95</v>
       </c>
@@ -3260,7 +3254,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="14.45" hidden="1">
+    <row r="56" spans="1:9" ht="14.45">
       <c r="A56" s="7" t="s">
         <v>95</v>
       </c>
@@ -3289,7 +3283,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="14.45" hidden="1">
+    <row r="57" spans="1:9" ht="14.45">
       <c r="A57" s="7" t="s">
         <v>95</v>
       </c>
@@ -3312,7 +3306,7 @@
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
     </row>
-    <row r="58" spans="1:9" ht="14.45" hidden="1">
+    <row r="58" spans="1:9" ht="14.45">
       <c r="A58" s="7" t="s">
         <v>95</v>
       </c>
@@ -3335,7 +3329,7 @@
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
     </row>
-    <row r="59" spans="1:9" ht="14.45" hidden="1">
+    <row r="59" spans="1:9" ht="14.45">
       <c r="A59" s="7" t="s">
         <v>95</v>
       </c>
@@ -3352,13 +3346,17 @@
         <v>98</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="12"/>
+        <v>77</v>
+      </c>
+      <c r="G59" s="13">
+        <v>46070</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="I59" s="12"/>
     </row>
-    <row r="60" spans="1:9" ht="14.45" hidden="1">
+    <row r="60" spans="1:9" ht="14.45">
       <c r="A60" s="7" t="s">
         <v>95</v>
       </c>
@@ -3381,7 +3379,7 @@
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
     </row>
-    <row r="61" spans="1:9" ht="14.45" hidden="1">
+    <row r="61" spans="1:9" ht="14.45">
       <c r="A61" s="7" t="s">
         <v>95</v>
       </c>
@@ -3404,7 +3402,7 @@
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
     </row>
-    <row r="62" spans="1:9" ht="14.45" hidden="1">
+    <row r="62" spans="1:9" ht="14.45">
       <c r="A62" s="7" t="s">
         <v>149</v>
       </c>
@@ -3427,7 +3425,7 @@
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
     </row>
-    <row r="63" spans="1:9" ht="14.45" hidden="1">
+    <row r="63" spans="1:9" ht="14.45">
       <c r="A63" s="7" t="s">
         <v>149</v>
       </c>
@@ -3450,7 +3448,7 @@
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
     </row>
-    <row r="64" spans="1:9" ht="14.45" hidden="1">
+    <row r="64" spans="1:9" ht="14.45">
       <c r="A64" s="7" t="s">
         <v>149</v>
       </c>
@@ -3531,7 +3529,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="14.45" hidden="1">
+    <row r="67" spans="1:9" ht="14.45">
       <c r="A67" s="7" t="s">
         <v>149</v>
       </c>
@@ -3554,7 +3552,7 @@
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
     </row>
-    <row r="68" spans="1:9" ht="14.45" hidden="1">
+    <row r="68" spans="1:9" ht="14.45">
       <c r="A68" s="7" t="s">
         <v>149</v>
       </c>
@@ -3577,7 +3575,7 @@
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
     </row>
-    <row r="69" spans="1:9" ht="14.45" hidden="1">
+    <row r="69" spans="1:9" ht="14.45">
       <c r="A69" s="7" t="s">
         <v>149</v>
       </c>
@@ -3600,7 +3598,7 @@
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
     </row>
-    <row r="70" spans="1:9" ht="14.45" hidden="1">
+    <row r="70" spans="1:9" ht="14.45">
       <c r="A70" s="7" t="s">
         <v>149</v>
       </c>
@@ -3623,7 +3621,7 @@
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
     </row>
-    <row r="71" spans="1:9" ht="14.45" hidden="1">
+    <row r="71" spans="1:9" ht="14.45">
       <c r="A71" s="7" t="s">
         <v>149</v>
       </c>
@@ -3646,7 +3644,7 @@
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
     </row>
-    <row r="72" spans="1:9" ht="14.45" hidden="1">
+    <row r="72" spans="1:9" ht="14.45">
       <c r="A72" s="7" t="s">
         <v>149</v>
       </c>
@@ -3669,7 +3667,7 @@
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
     </row>
-    <row r="73" spans="1:9" ht="14.45" hidden="1">
+    <row r="73" spans="1:9" ht="14.45">
       <c r="A73" s="7" t="s">
         <v>172</v>
       </c>
@@ -3692,7 +3690,7 @@
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
     </row>
-    <row r="74" spans="1:9" ht="14.45" hidden="1">
+    <row r="74" spans="1:9" ht="14.45">
       <c r="A74" s="7" t="s">
         <v>172</v>
       </c>
@@ -3715,7 +3713,7 @@
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
     </row>
-    <row r="75" spans="1:9" ht="14.45" hidden="1">
+    <row r="75" spans="1:9" ht="14.45">
       <c r="A75" s="7" t="s">
         <v>177</v>
       </c>
@@ -3738,7 +3736,7 @@
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
     </row>
-    <row r="76" spans="1:9" ht="14.45" hidden="1">
+    <row r="76" spans="1:9" ht="14.45">
       <c r="A76" s="7" t="s">
         <v>177</v>
       </c>
@@ -3761,7 +3759,7 @@
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
     </row>
-    <row r="77" spans="1:9" ht="14.45" hidden="1">
+    <row r="77" spans="1:9" ht="14.45">
       <c r="A77" s="7" t="s">
         <v>177</v>
       </c>
@@ -3784,7 +3782,7 @@
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
     </row>
-    <row r="78" spans="1:9" ht="14.45" hidden="1">
+    <row r="78" spans="1:9" ht="14.45">
       <c r="A78" s="7" t="s">
         <v>177</v>
       </c>
@@ -3807,7 +3805,7 @@
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
     </row>
-    <row r="79" spans="1:9" ht="14.45" hidden="1">
+    <row r="79" spans="1:9" ht="14.45">
       <c r="A79" s="7" t="s">
         <v>177</v>
       </c>
@@ -3830,7 +3828,7 @@
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
     </row>
-    <row r="80" spans="1:9" ht="14.45" hidden="1">
+    <row r="80" spans="1:9" ht="14.45">
       <c r="A80" s="7" t="s">
         <v>177</v>
       </c>
@@ -3853,7 +3851,7 @@
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
     </row>
-    <row r="81" spans="1:9" ht="14.45" hidden="1">
+    <row r="81" spans="1:9" ht="14.45">
       <c r="A81" s="7" t="s">
         <v>177</v>
       </c>
@@ -3876,7 +3874,7 @@
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
     </row>
-    <row r="82" spans="1:9" ht="14.45" hidden="1">
+    <row r="82" spans="1:9" ht="14.45">
       <c r="A82" s="7" t="s">
         <v>177</v>
       </c>
@@ -3899,7 +3897,7 @@
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
     </row>
-    <row r="83" spans="1:9" ht="14.45" hidden="1">
+    <row r="83" spans="1:9" ht="14.45">
       <c r="A83" s="7" t="s">
         <v>177</v>
       </c>
@@ -3922,7 +3920,7 @@
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
     </row>
-    <row r="84" spans="1:9" ht="14.45" hidden="1">
+    <row r="84" spans="1:9" ht="14.45">
       <c r="A84" s="7" t="s">
         <v>177</v>
       </c>
@@ -3945,7 +3943,7 @@
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
     </row>
-    <row r="85" spans="1:9" ht="14.45" hidden="1">
+    <row r="85" spans="1:9" ht="14.45">
       <c r="A85" s="7" t="s">
         <v>177</v>
       </c>
@@ -3968,7 +3966,7 @@
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
     </row>
-    <row r="86" spans="1:9" ht="14.45" hidden="1">
+    <row r="86" spans="1:9" ht="14.45">
       <c r="A86" s="7" t="s">
         <v>177</v>
       </c>
@@ -3991,7 +3989,7 @@
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
     </row>
-    <row r="87" spans="1:9" ht="14.45" hidden="1">
+    <row r="87" spans="1:9" ht="14.45">
       <c r="A87" s="7" t="s">
         <v>177</v>
       </c>
@@ -4014,7 +4012,7 @@
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
     </row>
-    <row r="88" spans="1:9" ht="14.45" hidden="1">
+    <row r="88" spans="1:9" ht="14.45">
       <c r="A88" s="7" t="s">
         <v>177</v>
       </c>
@@ -4037,7 +4035,7 @@
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
     </row>
-    <row r="89" spans="1:9" ht="14.45" hidden="1">
+    <row r="89" spans="1:9" ht="14.45">
       <c r="A89" s="7" t="s">
         <v>177</v>
       </c>
@@ -4060,7 +4058,7 @@
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
     </row>
-    <row r="90" spans="1:9" ht="14.45" hidden="1">
+    <row r="90" spans="1:9" ht="14.45">
       <c r="A90" s="7" t="s">
         <v>177</v>
       </c>
@@ -4083,7 +4081,7 @@
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
     </row>
-    <row r="91" spans="1:9" ht="14.45" hidden="1">
+    <row r="91" spans="1:9" ht="14.45">
       <c r="A91" s="7" t="s">
         <v>210</v>
       </c>
@@ -4106,7 +4104,7 @@
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
     </row>
-    <row r="92" spans="1:9" ht="14.45" hidden="1">
+    <row r="92" spans="1:9" ht="14.45">
       <c r="A92" s="7" t="s">
         <v>210</v>
       </c>
@@ -4129,7 +4127,7 @@
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
     </row>
-    <row r="93" spans="1:9" ht="14.45" hidden="1">
+    <row r="93" spans="1:9" ht="14.45">
       <c r="A93" s="7" t="s">
         <v>210</v>
       </c>
@@ -4152,7 +4150,7 @@
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
     </row>
-    <row r="94" spans="1:9" ht="14.45" hidden="1">
+    <row r="94" spans="1:9" ht="14.45">
       <c r="A94" s="7" t="s">
         <v>217</v>
       </c>
@@ -4181,7 +4179,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="14.45" hidden="1">
+    <row r="95" spans="1:9" ht="14.45">
       <c r="A95" s="7" t="s">
         <v>217</v>
       </c>
@@ -4204,7 +4202,7 @@
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
     </row>
-    <row r="96" spans="1:9" ht="14.45" hidden="1">
+    <row r="96" spans="1:9" ht="14.45">
       <c r="A96" s="7" t="s">
         <v>217</v>
       </c>
@@ -4227,7 +4225,7 @@
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
     </row>
-    <row r="97" spans="1:10" ht="14.45" hidden="1">
+    <row r="97" spans="1:10" ht="14.45">
       <c r="A97" s="7" t="s">
         <v>217</v>
       </c>
@@ -4279,7 +4277,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="14.45" hidden="1">
+    <row r="99" spans="1:10" ht="14.45">
       <c r="A99" s="7" t="s">
         <v>225</v>
       </c>
@@ -4302,7 +4300,7 @@
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
     </row>
-    <row r="100" spans="1:10" ht="14.45" hidden="1">
+    <row r="100" spans="1:10" ht="14.45">
       <c r="A100" s="7" t="s">
         <v>231</v>
       </c>
@@ -4325,7 +4323,7 @@
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
     </row>
-    <row r="101" spans="1:10" ht="14.45" hidden="1">
+    <row r="101" spans="1:10" ht="14.45">
       <c r="A101" s="7" t="s">
         <v>231</v>
       </c>
@@ -4351,7 +4349,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="14.45" hidden="1">
+    <row r="102" spans="1:10" ht="14.45">
       <c r="A102" s="7" t="s">
         <v>238</v>
       </c>
@@ -4374,7 +4372,7 @@
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
     </row>
-    <row r="103" spans="1:10" ht="14.45" hidden="1">
+    <row r="103" spans="1:10" ht="14.45">
       <c r="A103" s="7" t="s">
         <v>238</v>
       </c>
@@ -4397,7 +4395,7 @@
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
     </row>
-    <row r="104" spans="1:10" ht="14.45" hidden="1">
+    <row r="104" spans="1:10" ht="14.45">
       <c r="A104" s="7" t="s">
         <v>238</v>
       </c>
@@ -4420,7 +4418,7 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
     </row>
-    <row r="105" spans="1:10" ht="14.45" hidden="1">
+    <row r="105" spans="1:10" ht="14.45">
       <c r="A105" s="7" t="s">
         <v>238</v>
       </c>
@@ -4443,7 +4441,7 @@
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="1:10" ht="14.45" hidden="1">
+    <row r="106" spans="1:10" ht="14.45">
       <c r="A106" s="7" t="s">
         <v>238</v>
       </c>
@@ -4466,7 +4464,7 @@
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
     </row>
-    <row r="107" spans="1:10" ht="14.45" hidden="1">
+    <row r="107" spans="1:10" ht="14.45">
       <c r="A107" s="7" t="s">
         <v>238</v>
       </c>
@@ -4489,7 +4487,7 @@
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
     </row>
-    <row r="108" spans="1:10" ht="14.45" hidden="1">
+    <row r="108" spans="1:10" ht="14.45">
       <c r="A108" s="7" t="s">
         <v>238</v>
       </c>
@@ -4512,7 +4510,7 @@
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
     </row>
-    <row r="109" spans="1:10" ht="14.45" hidden="1">
+    <row r="109" spans="1:10" ht="14.45">
       <c r="A109" s="7" t="s">
         <v>238</v>
       </c>
@@ -4535,7 +4533,7 @@
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
     </row>
-    <row r="110" spans="1:10" ht="14.45" hidden="1">
+    <row r="110" spans="1:10" ht="14.45">
       <c r="A110" s="7" t="s">
         <v>238</v>
       </c>
@@ -4558,7 +4556,7 @@
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
     </row>
-    <row r="111" spans="1:10" ht="14.45" hidden="1">
+    <row r="111" spans="1:10" ht="14.45">
       <c r="A111" s="7" t="s">
         <v>238</v>
       </c>
@@ -4581,7 +4579,7 @@
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
     </row>
-    <row r="112" spans="1:10" ht="14.45" hidden="1">
+    <row r="112" spans="1:10" ht="14.45">
       <c r="A112" s="7" t="s">
         <v>238</v>
       </c>
@@ -4604,7 +4602,7 @@
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
     </row>
-    <row r="113" spans="1:9" ht="14.45" hidden="1">
+    <row r="113" spans="1:9" ht="14.45">
       <c r="A113" s="7" t="s">
         <v>238</v>
       </c>
@@ -4627,7 +4625,7 @@
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
     </row>
-    <row r="114" spans="1:9" ht="14.45" hidden="1">
+    <row r="114" spans="1:9" ht="14.45">
       <c r="A114" s="7" t="s">
         <v>238</v>
       </c>
@@ -4650,7 +4648,7 @@
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
     </row>
-    <row r="115" spans="1:9" ht="14.45" hidden="1">
+    <row r="115" spans="1:9" ht="14.45">
       <c r="A115" s="7" t="s">
         <v>238</v>
       </c>
@@ -4673,7 +4671,7 @@
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
     </row>
-    <row r="116" spans="1:9" ht="14.45" hidden="1">
+    <row r="116" spans="1:9" ht="14.45">
       <c r="A116" s="7" t="s">
         <v>238</v>
       </c>
@@ -4696,7 +4694,7 @@
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
     </row>
-    <row r="117" spans="1:9" ht="14.45" hidden="1">
+    <row r="117" spans="1:9" ht="14.45">
       <c r="A117" s="7" t="s">
         <v>238</v>
       </c>
@@ -4719,7 +4717,7 @@
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
     </row>
-    <row r="118" spans="1:9" ht="14.45" hidden="1">
+    <row r="118" spans="1:9" ht="14.45">
       <c r="A118" s="7" t="s">
         <v>238</v>
       </c>
@@ -4742,7 +4740,7 @@
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
     </row>
-    <row r="119" spans="1:9" ht="14.45" hidden="1">
+    <row r="119" spans="1:9" ht="14.45">
       <c r="A119" s="7" t="s">
         <v>238</v>
       </c>
@@ -4765,7 +4763,7 @@
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
     </row>
-    <row r="120" spans="1:9" ht="14.45" hidden="1">
+    <row r="120" spans="1:9" ht="14.45">
       <c r="A120" s="7" t="s">
         <v>276</v>
       </c>
@@ -4788,7 +4786,7 @@
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
     </row>
-    <row r="121" spans="1:9" ht="14.45" hidden="1">
+    <row r="121" spans="1:9" ht="14.45">
       <c r="A121" s="7" t="s">
         <v>276</v>
       </c>
@@ -4811,7 +4809,7 @@
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
     </row>
-    <row r="122" spans="1:9" ht="14.45" hidden="1">
+    <row r="122" spans="1:9" ht="14.45">
       <c r="A122" s="7" t="s">
         <v>276</v>
       </c>
@@ -4834,7 +4832,7 @@
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
     </row>
-    <row r="123" spans="1:9" ht="14.45" hidden="1">
+    <row r="123" spans="1:9" ht="14.45">
       <c r="A123" s="7" t="s">
         <v>284</v>
       </c>
@@ -4857,7 +4855,7 @@
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
     </row>
-    <row r="124" spans="1:9" ht="14.45" hidden="1">
+    <row r="124" spans="1:9" ht="14.45">
       <c r="A124" s="7" t="s">
         <v>287</v>
       </c>
@@ -4880,7 +4878,7 @@
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
     </row>
-    <row r="125" spans="1:9" ht="14.45" hidden="1">
+    <row r="125" spans="1:9" ht="14.45">
       <c r="A125" s="7" t="s">
         <v>287</v>
       </c>
@@ -4903,7 +4901,7 @@
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
     </row>
-    <row r="126" spans="1:9" ht="14.45" hidden="1">
+    <row r="126" spans="1:9" ht="14.45">
       <c r="A126" s="7" t="s">
         <v>287</v>
       </c>
@@ -4926,7 +4924,7 @@
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
     </row>
-    <row r="127" spans="1:9" ht="14.45" hidden="1">
+    <row r="127" spans="1:9" ht="14.45">
       <c r="A127" s="7" t="s">
         <v>294</v>
       </c>
@@ -5655,14 +5653,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100027709BF533FA442AFC4A8B2C0110727" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a37fc0d7c302f7619d355a49e1f175a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xmlns:ns4="bda9c1ec-c4e2-44f9-929c-ca399fe36c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="01250a30c504a808427f15ccf149ee4d" ns3:_="" ns4:_="">
     <xsd:import namespace="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
@@ -5895,6 +5885,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5905,11 +5903,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/bitacora.xlsx
+++ b/data/bitacora.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupokaufmann-my.sharepoint.com/personal/samuel_sanchez_grupokaufmann_com/Documents/Documentos/Dev/bitacora_diaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA48294A-66F2-43D2-B05D-A0BE5D3D4EDA}"/>
+  <xr:revisionPtr revIDLastSave="258" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FAC2C63-55EA-4AD5-8E14-8758A7E571A5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A9E3F017-9040-47A2-B586-0486128F3261}"/>
+    <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="15720" xr2:uid="{A9E3F017-9040-47A2-B586-0486128F3261}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$127</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="335">
   <si>
     <t>FLOTA</t>
   </si>
@@ -1002,17 +1002,56 @@
     <t>LRSY44</t>
   </si>
   <si>
+    <t>CSI</t>
+  </si>
+  <si>
+    <t>W1T964016L0426437</t>
+  </si>
+  <si>
+    <t>Cambio de Hardware</t>
+  </si>
+  <si>
     <t>IMEI</t>
   </si>
   <si>
     <t>Revisado</t>
+  </si>
+  <si>
+    <t>PHLF88</t>
+  </si>
+  <si>
+    <t>9BM634074RB317665</t>
+  </si>
+  <si>
+    <t>Buses ISKRA</t>
+  </si>
+  <si>
+    <t>TFWK28</t>
+  </si>
+  <si>
+    <t>Kamaleon 2</t>
+  </si>
+  <si>
+    <t>9BM634016RB330716</t>
+  </si>
+  <si>
+    <t>9BM634011RB333200</t>
+  </si>
+  <si>
+    <t>9BM634016RB331072</t>
+  </si>
+  <si>
+    <t>VIGGO</t>
+  </si>
+  <si>
+    <t>Configuracion DCT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1081,7 +1120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1237,24 +1276,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1333,8 +1359,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1562,9 +1587,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}" name="Tabla1" displayName="Tabla1" ref="A1:J135" totalsRowShown="0">
-  <autoFilter ref="A1:J135" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}" name="Tabla1" displayName="Tabla1" ref="A1:J140" totalsRowShown="0">
+  <autoFilter ref="A1:J140" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0A7C6585-5C8B-46BF-ABA0-2DA806D161DC}" name="FLOTA" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{EB7792BB-219D-496F-9F16-84F6805E0CB0}" name="VIN CON PROBLEMAS" dataDxfId="8"/>
@@ -1901,25 +1930,25 @@
   <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="79" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="6"/>
+    <col min="11" max="16384" width="11.453125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.45">
+    <row r="1" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1951,7 +1980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.45">
+    <row r="2" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -1974,7 +2003,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="14.45">
+    <row r="3" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -1997,7 +2026,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="14.45">
+    <row r="4" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -2020,7 +2049,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="14.45">
+    <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2043,7 +2072,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="14.45">
+    <row r="6" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2066,7 +2095,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="14.45">
+    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -2089,7 +2118,7 @@
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="1:12" ht="14.45">
+    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -2112,7 +2141,7 @@
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="1:12" ht="14.45">
+    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -2135,7 +2164,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="14.45">
+    <row r="10" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -2158,7 +2187,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="14.45">
+    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2181,7 +2210,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="14.45">
+    <row r="12" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
@@ -2205,7 +2234,7 @@
       <c r="I12" s="12"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:12" ht="14.45">
+    <row r="13" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
@@ -2228,7 +2257,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="14.45">
+    <row r="14" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
@@ -2251,7 +2280,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:12" ht="14.45">
+    <row r="15" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -2274,7 +2303,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:12" ht="14.45">
+    <row r="16" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -2297,7 +2326,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="14.45">
+    <row r="17" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -2320,7 +2349,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" ht="14.45">
+    <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
@@ -2343,7 +2372,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" ht="14.45">
+    <row r="19" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
@@ -2366,7 +2395,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" ht="14.45">
+    <row r="20" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>51</v>
       </c>
@@ -2389,7 +2418,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" ht="14.45">
+    <row r="21" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>51</v>
       </c>
@@ -2412,7 +2441,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" ht="14.45">
+    <row r="22" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>51</v>
       </c>
@@ -2435,7 +2464,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" ht="14.45">
+    <row r="23" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>59</v>
       </c>
@@ -2458,7 +2487,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" ht="14.45">
+    <row r="24" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>59</v>
       </c>
@@ -2481,7 +2510,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="14.45">
+    <row r="25" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>65</v>
       </c>
@@ -2504,7 +2533,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" ht="14.45">
+    <row r="26" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>65</v>
       </c>
@@ -2527,7 +2556,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" ht="14.45">
+    <row r="27" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -2550,7 +2579,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" ht="14.45">
+    <row r="28" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>65</v>
       </c>
@@ -2573,7 +2602,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" ht="14.45">
+    <row r="29" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>65</v>
       </c>
@@ -2602,7 +2631,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.45">
+    <row r="30" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>80</v>
       </c>
@@ -2625,7 +2654,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" ht="14.45">
+    <row r="31" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>80</v>
       </c>
@@ -2648,7 +2677,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" ht="14.45">
+    <row r="32" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>80</v>
       </c>
@@ -2671,7 +2700,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" ht="14.45">
+    <row r="33" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>80</v>
       </c>
@@ -2694,7 +2723,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" ht="14.45">
+    <row r="34" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>80</v>
       </c>
@@ -2717,7 +2746,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" ht="14.45">
+    <row r="35" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>80</v>
       </c>
@@ -2740,7 +2769,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" ht="14.45">
+    <row r="36" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>80</v>
       </c>
@@ -2763,7 +2792,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="1:9" ht="14.45">
+    <row r="37" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>95</v>
       </c>
@@ -2792,7 +2821,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.45">
+    <row r="38" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>95</v>
       </c>
@@ -2821,7 +2850,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.45">
+    <row r="39" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>95</v>
       </c>
@@ -2844,7 +2873,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="1:9" ht="14.45">
+    <row r="40" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>95</v>
       </c>
@@ -2873,7 +2902,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.45">
+    <row r="41" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>95</v>
       </c>
@@ -2902,7 +2931,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.45">
+    <row r="42" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>95</v>
       </c>
@@ -2925,7 +2954,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="1:9" ht="14.45">
+    <row r="43" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>95</v>
       </c>
@@ -2948,7 +2977,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="1:9" ht="14.45">
+    <row r="44" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>95</v>
       </c>
@@ -2971,7 +3000,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="1:9" ht="14.45">
+    <row r="45" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
@@ -2994,7 +3023,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="1:9" ht="14.45">
+    <row r="46" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>95</v>
       </c>
@@ -3023,7 +3052,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.45">
+    <row r="47" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>95</v>
       </c>
@@ -3052,7 +3081,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.45">
+    <row r="48" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>95</v>
       </c>
@@ -3081,7 +3110,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="14.45">
+    <row r="49" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>95</v>
       </c>
@@ -3110,7 +3139,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="14.45">
+    <row r="50" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>95</v>
       </c>
@@ -3133,7 +3162,7 @@
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="1:9" ht="14.45">
+    <row r="51" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>95</v>
       </c>
@@ -3156,7 +3185,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="1:9" ht="14.45">
+    <row r="52" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>95</v>
       </c>
@@ -3179,7 +3208,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="1:9" ht="14.45">
+    <row r="53" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>95</v>
       </c>
@@ -3202,7 +3231,7 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="1:9" ht="14.45">
+    <row r="54" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>95</v>
       </c>
@@ -3225,7 +3254,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="1:9" ht="14.45">
+    <row r="55" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>95</v>
       </c>
@@ -3254,7 +3283,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="14.45">
+    <row r="56" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>95</v>
       </c>
@@ -3283,7 +3312,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="14.45">
+    <row r="57" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>95</v>
       </c>
@@ -3306,7 +3335,7 @@
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
     </row>
-    <row r="58" spans="1:9" ht="14.45">
+    <row r="58" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>95</v>
       </c>
@@ -3329,7 +3358,7 @@
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
     </row>
-    <row r="59" spans="1:9" ht="14.45">
+    <row r="59" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>95</v>
       </c>
@@ -3354,9 +3383,11 @@
       <c r="H59" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="I59" s="12"/>
-    </row>
-    <row r="60" spans="1:9" ht="14.45">
+      <c r="I59" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>95</v>
       </c>
@@ -3379,7 +3410,7 @@
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
     </row>
-    <row r="61" spans="1:9" ht="14.45">
+    <row r="61" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>95</v>
       </c>
@@ -3402,7 +3433,7 @@
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
     </row>
-    <row r="62" spans="1:9" ht="14.45">
+    <row r="62" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>149</v>
       </c>
@@ -3425,7 +3456,7 @@
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
     </row>
-    <row r="63" spans="1:9" ht="14.45">
+    <row r="63" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>149</v>
       </c>
@@ -3448,7 +3479,7 @@
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
     </row>
-    <row r="64" spans="1:9" ht="14.45">
+    <row r="64" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>149</v>
       </c>
@@ -3471,7 +3502,7 @@
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
     </row>
-    <row r="65" spans="1:9" ht="14.45">
+    <row r="65" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>149</v>
       </c>
@@ -3500,7 +3531,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="14.45">
+    <row r="66" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>149</v>
       </c>
@@ -3529,7 +3560,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="14.45">
+    <row r="67" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>149</v>
       </c>
@@ -3552,7 +3583,7 @@
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
     </row>
-    <row r="68" spans="1:9" ht="14.45">
+    <row r="68" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>149</v>
       </c>
@@ -3575,7 +3606,7 @@
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
     </row>
-    <row r="69" spans="1:9" ht="14.45">
+    <row r="69" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>149</v>
       </c>
@@ -3598,7 +3629,7 @@
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
     </row>
-    <row r="70" spans="1:9" ht="14.45">
+    <row r="70" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>149</v>
       </c>
@@ -3621,7 +3652,7 @@
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
     </row>
-    <row r="71" spans="1:9" ht="14.45">
+    <row r="71" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>149</v>
       </c>
@@ -3644,7 +3675,7 @@
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
     </row>
-    <row r="72" spans="1:9" ht="14.45">
+    <row r="72" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>149</v>
       </c>
@@ -3667,7 +3698,7 @@
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
     </row>
-    <row r="73" spans="1:9" ht="14.45">
+    <row r="73" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>172</v>
       </c>
@@ -3690,7 +3721,7 @@
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
     </row>
-    <row r="74" spans="1:9" ht="14.45">
+    <row r="74" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>172</v>
       </c>
@@ -3713,7 +3744,7 @@
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
     </row>
-    <row r="75" spans="1:9" ht="14.45">
+    <row r="75" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>177</v>
       </c>
@@ -3736,7 +3767,7 @@
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
     </row>
-    <row r="76" spans="1:9" ht="14.45">
+    <row r="76" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>177</v>
       </c>
@@ -3759,7 +3790,7 @@
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
     </row>
-    <row r="77" spans="1:9" ht="14.45">
+    <row r="77" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>177</v>
       </c>
@@ -3782,7 +3813,7 @@
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
     </row>
-    <row r="78" spans="1:9" ht="14.45">
+    <row r="78" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>177</v>
       </c>
@@ -3805,7 +3836,7 @@
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
     </row>
-    <row r="79" spans="1:9" ht="14.45">
+    <row r="79" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>177</v>
       </c>
@@ -3828,7 +3859,7 @@
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
     </row>
-    <row r="80" spans="1:9" ht="14.45">
+    <row r="80" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>177</v>
       </c>
@@ -3851,7 +3882,7 @@
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
     </row>
-    <row r="81" spans="1:9" ht="14.45">
+    <row r="81" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>177</v>
       </c>
@@ -3874,7 +3905,7 @@
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
     </row>
-    <row r="82" spans="1:9" ht="14.45">
+    <row r="82" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>177</v>
       </c>
@@ -3897,7 +3928,7 @@
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
     </row>
-    <row r="83" spans="1:9" ht="14.45">
+    <row r="83" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>177</v>
       </c>
@@ -3920,7 +3951,7 @@
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
     </row>
-    <row r="84" spans="1:9" ht="14.45">
+    <row r="84" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>177</v>
       </c>
@@ -3943,7 +3974,7 @@
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
     </row>
-    <row r="85" spans="1:9" ht="14.45">
+    <row r="85" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>177</v>
       </c>
@@ -3966,7 +3997,7 @@
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
     </row>
-    <row r="86" spans="1:9" ht="14.45">
+    <row r="86" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>177</v>
       </c>
@@ -3989,7 +4020,7 @@
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
     </row>
-    <row r="87" spans="1:9" ht="14.45">
+    <row r="87" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>177</v>
       </c>
@@ -4012,7 +4043,7 @@
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
     </row>
-    <row r="88" spans="1:9" ht="14.45">
+    <row r="88" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>177</v>
       </c>
@@ -4035,7 +4066,7 @@
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
     </row>
-    <row r="89" spans="1:9" ht="14.45">
+    <row r="89" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
         <v>177</v>
       </c>
@@ -4058,7 +4089,7 @@
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
     </row>
-    <row r="90" spans="1:9" ht="14.45">
+    <row r="90" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>177</v>
       </c>
@@ -4081,7 +4112,7 @@
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
     </row>
-    <row r="91" spans="1:9" ht="14.45">
+    <row r="91" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>210</v>
       </c>
@@ -4104,7 +4135,7 @@
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
     </row>
-    <row r="92" spans="1:9" ht="14.45">
+    <row r="92" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>210</v>
       </c>
@@ -4127,7 +4158,7 @@
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
     </row>
-    <row r="93" spans="1:9" ht="14.45">
+    <row r="93" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>210</v>
       </c>
@@ -4150,7 +4181,7 @@
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
     </row>
-    <row r="94" spans="1:9" ht="14.45">
+    <row r="94" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>217</v>
       </c>
@@ -4179,7 +4210,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="14.45">
+    <row r="95" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>217</v>
       </c>
@@ -4202,7 +4233,7 @@
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
     </row>
-    <row r="96" spans="1:9" ht="14.45">
+    <row r="96" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>217</v>
       </c>
@@ -4225,7 +4256,7 @@
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
     </row>
-    <row r="97" spans="1:10" ht="14.45">
+    <row r="97" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>217</v>
       </c>
@@ -4248,7 +4279,7 @@
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
     </row>
-    <row r="98" spans="1:10" ht="14.45">
+    <row r="98" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>225</v>
       </c>
@@ -4277,7 +4308,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="14.45">
+    <row r="99" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>225</v>
       </c>
@@ -4300,7 +4331,7 @@
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
     </row>
-    <row r="100" spans="1:10" ht="14.45">
+    <row r="100" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>231</v>
       </c>
@@ -4323,7 +4354,7 @@
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
     </row>
-    <row r="101" spans="1:10" ht="14.45">
+    <row r="101" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>231</v>
       </c>
@@ -4349,7 +4380,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="14.45">
+    <row r="102" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>238</v>
       </c>
@@ -4372,7 +4403,7 @@
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
     </row>
-    <row r="103" spans="1:10" ht="14.45">
+    <row r="103" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>238</v>
       </c>
@@ -4395,7 +4426,7 @@
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
     </row>
-    <row r="104" spans="1:10" ht="14.45">
+    <row r="104" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>238</v>
       </c>
@@ -4418,7 +4449,7 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
     </row>
-    <row r="105" spans="1:10" ht="14.45">
+    <row r="105" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>238</v>
       </c>
@@ -4441,7 +4472,7 @@
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="1:10" ht="14.45">
+    <row r="106" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>238</v>
       </c>
@@ -4464,7 +4495,7 @@
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
     </row>
-    <row r="107" spans="1:10" ht="14.45">
+    <row r="107" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>238</v>
       </c>
@@ -4487,7 +4518,7 @@
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
     </row>
-    <row r="108" spans="1:10" ht="14.45">
+    <row r="108" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>238</v>
       </c>
@@ -4510,7 +4541,7 @@
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
     </row>
-    <row r="109" spans="1:10" ht="14.45">
+    <row r="109" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>238</v>
       </c>
@@ -4533,7 +4564,7 @@
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
     </row>
-    <row r="110" spans="1:10" ht="14.45">
+    <row r="110" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>238</v>
       </c>
@@ -4556,7 +4587,7 @@
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
     </row>
-    <row r="111" spans="1:10" ht="14.45">
+    <row r="111" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>238</v>
       </c>
@@ -4579,7 +4610,7 @@
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
     </row>
-    <row r="112" spans="1:10" ht="14.45">
+    <row r="112" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>238</v>
       </c>
@@ -4602,7 +4633,7 @@
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
     </row>
-    <row r="113" spans="1:9" ht="14.45">
+    <row r="113" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>238</v>
       </c>
@@ -4625,7 +4656,7 @@
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
     </row>
-    <row r="114" spans="1:9" ht="14.45">
+    <row r="114" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>238</v>
       </c>
@@ -4648,7 +4679,7 @@
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
     </row>
-    <row r="115" spans="1:9" ht="14.45">
+    <row r="115" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>238</v>
       </c>
@@ -4671,7 +4702,7 @@
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
     </row>
-    <row r="116" spans="1:9" ht="14.45">
+    <row r="116" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>238</v>
       </c>
@@ -4694,7 +4725,7 @@
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
     </row>
-    <row r="117" spans="1:9" ht="14.45">
+    <row r="117" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>238</v>
       </c>
@@ -4717,7 +4748,7 @@
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
     </row>
-    <row r="118" spans="1:9" ht="14.45">
+    <row r="118" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>238</v>
       </c>
@@ -4740,7 +4771,7 @@
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
     </row>
-    <row r="119" spans="1:9" ht="14.45">
+    <row r="119" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>238</v>
       </c>
@@ -4763,7 +4794,7 @@
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
     </row>
-    <row r="120" spans="1:9" ht="14.45">
+    <row r="120" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>276</v>
       </c>
@@ -4786,7 +4817,7 @@
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
     </row>
-    <row r="121" spans="1:9" ht="14.45">
+    <row r="121" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>276</v>
       </c>
@@ -4809,7 +4840,7 @@
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
     </row>
-    <row r="122" spans="1:9" ht="14.45">
+    <row r="122" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>276</v>
       </c>
@@ -4832,7 +4863,7 @@
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
     </row>
-    <row r="123" spans="1:9" ht="14.45">
+    <row r="123" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>284</v>
       </c>
@@ -4855,7 +4886,7 @@
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
     </row>
-    <row r="124" spans="1:9" ht="14.45">
+    <row r="124" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>287</v>
       </c>
@@ -4878,7 +4909,7 @@
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
     </row>
-    <row r="125" spans="1:9" ht="14.45">
+    <row r="125" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
         <v>287</v>
       </c>
@@ -4901,7 +4932,7 @@
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
     </row>
-    <row r="126" spans="1:9" ht="14.45">
+    <row r="126" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>287</v>
       </c>
@@ -4924,7 +4955,7 @@
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
     </row>
-    <row r="127" spans="1:9" ht="14.45">
+    <row r="127" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>294</v>
       </c>
@@ -4947,7 +4978,7 @@
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
     </row>
-    <row r="128" spans="1:9" ht="14.45">
+    <row r="128" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>297</v>
       </c>
@@ -4974,7 +5005,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="14.45">
+    <row r="129" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>297</v>
       </c>
@@ -4999,7 +5030,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15" customHeight="1">
+    <row r="130" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="33" t="s">
         <v>303</v>
       </c>
@@ -5024,7 +5055,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15" customHeight="1">
+    <row r="131" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="33" t="s">
         <v>307</v>
       </c>
@@ -5043,13 +5074,13 @@
         <v>46065</v>
       </c>
       <c r="H131" s="15" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="I131" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15" customHeight="1">
+    <row r="132" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="33" t="s">
         <v>65</v>
       </c>
@@ -5068,13 +5099,13 @@
         <v>46065</v>
       </c>
       <c r="H132" s="15" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="I132" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15" customHeight="1">
+    <row r="133" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="33" t="s">
         <v>313</v>
       </c>
@@ -5093,13 +5124,13 @@
         <v>46065</v>
       </c>
       <c r="H133" s="15" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="I133" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15" customHeight="1">
+    <row r="134" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="33" t="s">
         <v>313</v>
       </c>
@@ -5118,13 +5149,13 @@
         <v>46065</v>
       </c>
       <c r="H134" s="15" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="I134" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15" customHeight="1">
+    <row r="135" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="33" t="s">
         <v>276</v>
       </c>
@@ -5143,73 +5174,137 @@
         <v>46065</v>
       </c>
       <c r="H135" s="15" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="I135" s="28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15" customHeight="1">
-      <c r="A136" s="37"/>
-      <c r="B136" s="38"/>
-      <c r="C136" s="37"/>
-      <c r="D136" s="37"/>
-      <c r="E136" s="37"/>
-      <c r="F136" s="37"/>
-      <c r="G136" s="12"/>
-      <c r="H136" s="12"/>
-      <c r="I136" s="12"/>
-      <c r="J136" s="37"/>
-    </row>
-    <row r="137" spans="1:10" ht="15" customHeight="1">
-      <c r="A137" s="39"/>
-      <c r="B137" s="37"/>
-      <c r="C137" s="37"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="37"/>
-      <c r="F137" s="37"/>
-      <c r="G137" s="12"/>
-      <c r="H137" s="12"/>
-      <c r="I137" s="12"/>
-      <c r="J137" s="37"/>
-    </row>
-    <row r="138" spans="1:10" ht="15" customHeight="1">
-      <c r="A138" s="37"/>
-      <c r="B138" s="37"/>
-      <c r="C138" s="37"/>
-      <c r="D138" s="37"/>
-      <c r="E138" s="37"/>
-      <c r="F138" s="37"/>
-      <c r="G138" s="12"/>
-      <c r="H138" s="12"/>
-      <c r="I138" s="12"/>
+    <row r="136" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B136" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="C136" t="s">
+        <v>325</v>
+      </c>
+      <c r="D136" s="35"/>
+      <c r="E136" s="34"/>
+      <c r="F136" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G136" s="27">
+        <v>46071</v>
+      </c>
+      <c r="H136" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="I136" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J136" s="38"/>
+    </row>
+    <row r="137" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="B137" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="C137" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="D137" s="35"/>
+      <c r="E137" s="34"/>
+      <c r="F137" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G137" s="27">
+        <v>46071</v>
+      </c>
+      <c r="H137" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="I137" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="J137" s="38"/>
+    </row>
+    <row r="138" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C138" s="8"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G138" s="27">
+        <v>46071</v>
+      </c>
+      <c r="H138" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="I138" s="15" t="s">
+        <v>329</v>
+      </c>
       <c r="J138" s="37"/>
     </row>
-    <row r="139" spans="1:10" ht="15" customHeight="1">
-      <c r="A139" s="37"/>
-      <c r="B139" s="37"/>
-      <c r="C139" s="37"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="37"/>
-      <c r="F139" s="37"/>
-      <c r="G139" s="12"/>
-      <c r="H139" s="12"/>
-      <c r="I139" s="12"/>
-      <c r="J139" s="37"/>
-    </row>
-    <row r="140" spans="1:10" ht="15" customHeight="1">
-      <c r="A140" s="37"/>
-      <c r="B140" s="37"/>
-      <c r="C140" s="37"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="37"/>
-      <c r="F140" s="37"/>
-      <c r="G140" s="12"/>
-      <c r="H140" s="12"/>
-      <c r="I140" s="12"/>
-      <c r="J140" s="37"/>
-    </row>
-    <row r="141" spans="1:10" ht="15" customHeight="1">
+    <row r="139" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B139" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="C139" s="34"/>
+      <c r="D139" s="35"/>
+      <c r="E139" s="34"/>
+      <c r="F139" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G139" s="27">
+        <v>46071</v>
+      </c>
+      <c r="H139" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="I139" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="J139" s="38"/>
+    </row>
+    <row r="140" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B140" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="C140" s="34"/>
+      <c r="D140" s="35"/>
+      <c r="E140" s="34"/>
+      <c r="F140" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G140" s="27">
+        <v>46071</v>
+      </c>
+      <c r="H140" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="I140" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="J140" s="38"/>
+    </row>
+    <row r="141" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="37"/>
       <c r="B141" s="37"/>
       <c r="C141" s="37"/>
@@ -5237,413 +5332,413 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="54" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:14">
+    <row r="2" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="4:14">
+    <row r="3" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D3" s="1">
         <v>868589060374017</v>
       </c>
       <c r="F3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G3" s="2" t="e">
         <f ca="1">VLOOKUP(D3,Hoja2!G:K,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="I3" s="4">
         <v>46043</v>
       </c>
     </row>
-    <row r="4" spans="4:14">
+    <row r="4" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D4" s="1">
         <v>868589060674226</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G4" s="2" t="e">
         <f ca="1">VLOOKUP(D4,Hoja2!G:K,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="I4" s="4">
         <v>46043</v>
       </c>
     </row>
-    <row r="5" spans="4:14">
+    <row r="5" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="4:14">
+    <row r="6" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="4:14">
+    <row r="7" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="4:14">
+    <row r="8" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="4:14">
+    <row r="10" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="4:14">
+    <row r="11" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="4:14">
+    <row r="12" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="4:14">
+    <row r="13" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="4:14">
+    <row r="14" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="4:14">
+    <row r="15" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="4:14">
+    <row r="16" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="13:14">
+    <row r="17" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="13:14">
+    <row r="18" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="13:14">
+    <row r="19" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="13:14">
+    <row r="20" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="13:14">
+    <row r="21" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="13:14">
+    <row r="22" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="13:14">
+    <row r="23" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="13:14">
+    <row r="24" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="13:14">
+    <row r="25" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="13:14">
+    <row r="26" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="13:14">
+    <row r="27" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="13:14">
+    <row r="28" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="13:14">
+    <row r="29" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="13:14">
+    <row r="30" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="13:14">
+    <row r="31" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="13:14">
+    <row r="32" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="13:14">
+    <row r="33" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="13:14">
+    <row r="34" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="13:14">
+    <row r="35" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="13:14">
+    <row r="36" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="13:14">
+    <row r="37" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="13:14">
+    <row r="38" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="13:14">
+    <row r="39" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="13:14">
+    <row r="40" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="13:14">
+    <row r="41" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="13:14">
+    <row r="42" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="13:14">
+    <row r="43" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="13:14">
+    <row r="44" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="13:14">
+    <row r="45" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="13:14">
+    <row r="46" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="13:14">
+    <row r="47" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="13:14">
+    <row r="48" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="13:14">
+    <row r="49" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="13:14">
+    <row r="50" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="13:14">
+    <row r="51" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="13:14">
+    <row r="52" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="13:14">
+    <row r="53" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="13:14">
+    <row r="54" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="13:14">
+    <row r="55" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="13:14">
+    <row r="56" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="13:14">
+    <row r="57" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="13:14">
+    <row r="58" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="13:14">
+    <row r="59" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="13:14">
+    <row r="60" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="13:14">
+    <row r="61" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="13:14">
+    <row r="62" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="13:14">
+    <row r="63" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="13:14">
+    <row r="64" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="13:14">
+    <row r="65" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
     </row>
-    <row r="66" spans="13:14">
+    <row r="66" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
     </row>
-    <row r="67" spans="13:14">
+    <row r="67" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
     </row>
-    <row r="68" spans="13:14">
+    <row r="68" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" spans="13:14">
+    <row r="69" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="13:14">
+    <row r="70" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
     </row>
-    <row r="71" spans="13:14">
+    <row r="71" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
     </row>
-    <row r="72" spans="13:14">
+    <row r="72" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
     </row>
-    <row r="73" spans="13:14">
+    <row r="73" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
     </row>
-    <row r="74" spans="13:14">
+    <row r="74" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" spans="13:14">
+    <row r="75" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
     </row>
-    <row r="76" spans="13:14">
+    <row r="76" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
     </row>
-    <row r="77" spans="13:14">
+    <row r="77" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
     </row>
-    <row r="78" spans="13:14">
+    <row r="78" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
     </row>
-    <row r="79" spans="13:14">
+    <row r="79" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
     </row>
-    <row r="80" spans="13:14">
+    <row r="80" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" spans="13:14">
+    <row r="81" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="13:14">
+    <row r="82" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
     </row>
-    <row r="83" spans="13:14">
+    <row r="83" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
     </row>
-    <row r="84" spans="13:14">
+    <row r="84" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
     </row>
-    <row r="85" spans="13:14">
+    <row r="85" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
     </row>
-    <row r="86" spans="13:14">
+    <row r="86" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
     </row>
-    <row r="87" spans="13:14">
+    <row r="87" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
     </row>
-    <row r="88" spans="13:14">
+    <row r="88" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
     </row>
-    <row r="89" spans="13:14">
+    <row r="89" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
     </row>
-    <row r="90" spans="13:14">
+    <row r="90" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
     </row>
-    <row r="91" spans="13:14">
+    <row r="91" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
     </row>
-    <row r="92" spans="13:14">
+    <row r="92" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
     </row>
@@ -5653,6 +5748,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100027709BF533FA442AFC4A8B2C0110727" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a37fc0d7c302f7619d355a49e1f175a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xmlns:ns4="bda9c1ec-c4e2-44f9-929c-ca399fe36c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="01250a30c504a808427f15ccf149ee4d" ns3:_="" ns4:_="">
     <xsd:import namespace="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
@@ -5885,31 +5997,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
+    <ds:schemaRef ds:uri="bda9c1ec-c4e2-44f9-929c-ca399fe36c88"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/bitacora.xlsx
+++ b/data/bitacora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupokaufmann-my.sharepoint.com/personal/samuel_sanchez_grupokaufmann_com/Documents/Documentos/Dev/bitacora_diaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="258" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FAC2C63-55EA-4AD5-8E14-8758A7E571A5}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFF83FDE-916E-438A-992A-B610A4DBF4E7}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="15720" xr2:uid="{A9E3F017-9040-47A2-B586-0486128F3261}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A9E3F017-9040-47A2-B586-0486128F3261}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="341">
   <si>
     <t>FLOTA</t>
   </si>
@@ -972,43 +972,82 @@
     <t>PLLF15</t>
   </si>
   <si>
+    <t>Configuracion DCT</t>
+  </si>
+  <si>
+    <t>WDB964231L0390577</t>
+  </si>
+  <si>
+    <t>T-070 </t>
+  </si>
+  <si>
+    <t>TERRA NORTE SPA (CM)</t>
+  </si>
+  <si>
+    <t>3AKJHPDV6KSKP7195</t>
+  </si>
+  <si>
+    <t>LPDH97</t>
+  </si>
+  <si>
+    <t>3AKJHPDV9KSKP7112</t>
+  </si>
+  <si>
+    <t>LPDH90</t>
+  </si>
+  <si>
+    <t>3AKJHPDV6KSKP7181</t>
+  </si>
+  <si>
+    <t>LRSY44</t>
+  </si>
+  <si>
+    <t>CSI</t>
+  </si>
+  <si>
+    <t>W1T964016L0426437</t>
+  </si>
+  <si>
+    <t>PHLF88</t>
+  </si>
+  <si>
+    <t>Cambio de Hardware</t>
+  </si>
+  <si>
+    <t>Buses ISKRA</t>
+  </si>
+  <si>
+    <t>9BM634074RB317665</t>
+  </si>
+  <si>
+    <t>TFWK28</t>
+  </si>
+  <si>
     <t>Re-Configuracion</t>
   </si>
   <si>
-    <t>WDB964231L0390577</t>
-  </si>
-  <si>
-    <t>T-070 </t>
-  </si>
-  <si>
-    <t>TERRA NORTE SPA (CM)</t>
-  </si>
-  <si>
-    <t>3AKJHPDV6KSKP7195</t>
-  </si>
-  <si>
-    <t>LPDH97</t>
-  </si>
-  <si>
-    <t>3AKJHPDV9KSKP7112</t>
-  </si>
-  <si>
-    <t>LPDH90</t>
-  </si>
-  <si>
-    <t>3AKJHPDV6KSKP7181</t>
-  </si>
-  <si>
-    <t>LRSY44</t>
-  </si>
-  <si>
-    <t>CSI</t>
-  </si>
-  <si>
-    <t>W1T964016L0426437</t>
-  </si>
-  <si>
-    <t>Cambio de Hardware</t>
+    <t>Kamaleon 2</t>
+  </si>
+  <si>
+    <t>VIGGO</t>
+  </si>
+  <si>
+    <t>9BM634016RB330716</t>
+  </si>
+  <si>
+    <t>9BM634011RB333200</t>
+  </si>
+  <si>
+    <t>9BM634016RB331072</t>
+  </si>
+  <si>
+    <t>CIKBUS</t>
+  </si>
+  <si>
+    <t>9BM634074RB328911</t>
+  </si>
+  <si>
+    <t>SWHG77  </t>
   </si>
   <si>
     <t>IMEI</t>
@@ -1017,34 +1056,13 @@
     <t>Revisado</t>
   </si>
   <si>
-    <t>PHLF88</t>
-  </si>
-  <si>
-    <t>9BM634074RB317665</t>
-  </si>
-  <si>
-    <t>Buses ISKRA</t>
-  </si>
-  <si>
-    <t>TFWK28</t>
-  </si>
-  <si>
-    <t>Kamaleon 2</t>
-  </si>
-  <si>
-    <t>9BM634016RB330716</t>
-  </si>
-  <si>
-    <t>9BM634011RB333200</t>
-  </si>
-  <si>
-    <t>9BM634016RB331072</t>
-  </si>
-  <si>
-    <t>VIGGO</t>
-  </si>
-  <si>
-    <t>Configuracion DCT</t>
+    <t>9BM634011RB332232</t>
+  </si>
+  <si>
+    <t>TFWL96</t>
+  </si>
+  <si>
+    <t>COMPANIA JAC TRANSPORTES SPA</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1360,6 +1378,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1519,6 +1552,7 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1587,13 +1621,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}" name="Tabla1" displayName="Tabla1" ref="A1:J140" totalsRowShown="0">
-  <autoFilter ref="A1:J140" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}" name="Tabla1" displayName="Tabla1" ref="A1:J205" totalsRowShown="0">
+  <autoFilter ref="A1:J205" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0A7C6585-5C8B-46BF-ABA0-2DA806D161DC}" name="FLOTA" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{EB7792BB-219D-496F-9F16-84F6805E0CB0}" name="VIN CON PROBLEMAS" dataDxfId="8"/>
@@ -1927,18 +1957,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA66EBA-6B88-4C75-8217-0B7E221D898D}">
-  <dimension ref="A1:L141"/>
+  <dimension ref="A1:L204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
+    <sheetView tabSelected="1" topLeftCell="D127" workbookViewId="0">
+      <selection activeCell="G136" sqref="G136:G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="43" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.26953125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.54296875" style="6" bestFit="1" customWidth="1"/>
@@ -1955,7 +1984,7 @@
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="19" t="s">
@@ -1987,7 +2016,7 @@
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="40" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="9">
@@ -2010,7 +2039,7 @@
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="40" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="9">
@@ -2033,7 +2062,7 @@
       <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="40" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="9">
@@ -2056,7 +2085,7 @@
       <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="40" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="9">
@@ -2079,7 +2108,7 @@
       <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="40" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="9">
@@ -2102,7 +2131,7 @@
       <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="40" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="9">
@@ -2125,7 +2154,7 @@
       <c r="B8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="40" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="9">
@@ -2148,7 +2177,7 @@
       <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="40" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="9">
@@ -2171,7 +2200,7 @@
       <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="40" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="9">
@@ -2194,7 +2223,7 @@
       <c r="B11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="40" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="9">
@@ -2217,7 +2246,7 @@
       <c r="B12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="40" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="9">
@@ -2241,7 +2270,7 @@
       <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="40" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="9">
@@ -2264,7 +2293,7 @@
       <c r="B14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="40" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="9">
@@ -2287,7 +2316,7 @@
       <c r="B15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="40" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="9">
@@ -2310,7 +2339,7 @@
       <c r="B16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="40" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="9">
@@ -2333,7 +2362,7 @@
       <c r="B17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="40" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="9">
@@ -2356,7 +2385,7 @@
       <c r="B18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="40" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="9">
@@ -2379,7 +2408,7 @@
       <c r="B19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="40" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="9">
@@ -2402,7 +2431,7 @@
       <c r="B20" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="40" t="s">
         <v>53</v>
       </c>
       <c r="D20" s="9">
@@ -2425,7 +2454,7 @@
       <c r="B21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="40" t="s">
         <v>56</v>
       </c>
       <c r="D21" s="9">
@@ -2448,7 +2477,7 @@
       <c r="B22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="40" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="9">
@@ -2471,7 +2500,7 @@
       <c r="B23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="40" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="9">
@@ -2494,7 +2523,7 @@
       <c r="B24" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="40" t="s">
         <v>64</v>
       </c>
       <c r="D24" s="9">
@@ -2517,7 +2546,7 @@
       <c r="B25" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="40" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="9">
@@ -2540,7 +2569,7 @@
       <c r="B26" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="40" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="9">
@@ -2563,7 +2592,7 @@
       <c r="B27" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="40" t="s">
         <v>72</v>
       </c>
       <c r="D27" s="9">
@@ -2586,7 +2615,7 @@
       <c r="B28" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="40" t="s">
         <v>74</v>
       </c>
       <c r="D28" s="9">
@@ -2596,7 +2625,7 @@
         <v>54</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
@@ -2609,7 +2638,7 @@
       <c r="B29" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="40" t="s">
         <v>76</v>
       </c>
       <c r="D29" s="9">
@@ -2638,7 +2667,7 @@
       <c r="B30" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="40" t="s">
         <v>82</v>
       </c>
       <c r="D30" s="9">
@@ -2661,7 +2690,7 @@
       <c r="B31" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="40" t="s">
         <v>84</v>
       </c>
       <c r="D31" s="9">
@@ -2684,7 +2713,7 @@
       <c r="B32" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="40" t="s">
         <v>86</v>
       </c>
       <c r="D32" s="9">
@@ -2707,7 +2736,7 @@
       <c r="B33" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="40" t="s">
         <v>88</v>
       </c>
       <c r="D33" s="9">
@@ -2730,7 +2759,7 @@
       <c r="B34" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="40" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="9">
@@ -2753,7 +2782,7 @@
       <c r="B35" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="40" t="s">
         <v>92</v>
       </c>
       <c r="D35" s="9">
@@ -2776,7 +2805,7 @@
       <c r="B36" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="40" t="s">
         <v>94</v>
       </c>
       <c r="D36" s="9">
@@ -2799,7 +2828,7 @@
       <c r="B37" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="40" t="s">
         <v>97</v>
       </c>
       <c r="D37" s="9">
@@ -2828,7 +2857,7 @@
       <c r="B38" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="40" t="s">
         <v>101</v>
       </c>
       <c r="D38" s="9">
@@ -2857,7 +2886,7 @@
       <c r="B39" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="40" t="s">
         <v>103</v>
       </c>
       <c r="D39" s="9">
@@ -2880,7 +2909,7 @@
       <c r="B40" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="40" t="s">
         <v>105</v>
       </c>
       <c r="D40" s="9">
@@ -2909,7 +2938,7 @@
       <c r="B41" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="40" t="s">
         <v>107</v>
       </c>
       <c r="D41" s="9">
@@ -2938,7 +2967,7 @@
       <c r="B42" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="40" t="s">
         <v>109</v>
       </c>
       <c r="D42" s="9">
@@ -2961,7 +2990,7 @@
       <c r="B43" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="40" t="s">
         <v>111</v>
       </c>
       <c r="D43" s="9">
@@ -2984,7 +3013,7 @@
       <c r="B44" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="40" t="s">
         <v>113</v>
       </c>
       <c r="D44" s="9">
@@ -3007,7 +3036,7 @@
       <c r="B45" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="40" t="s">
         <v>115</v>
       </c>
       <c r="D45" s="9">
@@ -3030,7 +3059,7 @@
       <c r="B46" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="40" t="s">
         <v>117</v>
       </c>
       <c r="D46" s="9">
@@ -3059,7 +3088,7 @@
       <c r="B47" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="40" t="s">
         <v>119</v>
       </c>
       <c r="D47" s="9">
@@ -3088,7 +3117,7 @@
       <c r="B48" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="40" t="s">
         <v>121</v>
       </c>
       <c r="D48" s="9">
@@ -3117,7 +3146,7 @@
       <c r="B49" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="40" t="s">
         <v>124</v>
       </c>
       <c r="D49" s="9">
@@ -3146,7 +3175,7 @@
       <c r="B50" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="40" t="s">
         <v>126</v>
       </c>
       <c r="D50" s="9">
@@ -3169,7 +3198,7 @@
       <c r="B51" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="40" t="s">
         <v>128</v>
       </c>
       <c r="D51" s="9">
@@ -3192,7 +3221,7 @@
       <c r="B52" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="40" t="s">
         <v>130</v>
       </c>
       <c r="D52" s="9">
@@ -3215,7 +3244,7 @@
       <c r="B53" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="40" t="s">
         <v>132</v>
       </c>
       <c r="D53" s="9">
@@ -3238,7 +3267,7 @@
       <c r="B54" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="40" t="s">
         <v>134</v>
       </c>
       <c r="D54" s="9">
@@ -3261,7 +3290,7 @@
       <c r="B55" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="40" t="s">
         <v>136</v>
       </c>
       <c r="D55" s="9">
@@ -3290,7 +3319,7 @@
       <c r="B56" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="40" t="s">
         <v>138</v>
       </c>
       <c r="D56" s="9">
@@ -3319,7 +3348,7 @@
       <c r="B57" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="40" t="s">
         <v>140</v>
       </c>
       <c r="D57" s="9">
@@ -3342,7 +3371,7 @@
       <c r="B58" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="40" t="s">
         <v>142</v>
       </c>
       <c r="D58" s="9">
@@ -3365,7 +3394,7 @@
       <c r="B59" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="40" t="s">
         <v>144</v>
       </c>
       <c r="D59" s="9">
@@ -3394,7 +3423,7 @@
       <c r="B60" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="40" t="s">
         <v>146</v>
       </c>
       <c r="D60" s="9">
@@ -3417,7 +3446,7 @@
       <c r="B61" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="40" t="s">
         <v>148</v>
       </c>
       <c r="D61" s="9">
@@ -3440,7 +3469,7 @@
       <c r="B62" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="40" t="s">
         <v>151</v>
       </c>
       <c r="D62" s="9">
@@ -3463,7 +3492,7 @@
       <c r="B63" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="40" t="s">
         <v>153</v>
       </c>
       <c r="D63" s="9">
@@ -3486,7 +3515,7 @@
       <c r="B64" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="40" t="s">
         <v>155</v>
       </c>
       <c r="D64" s="9">
@@ -3509,7 +3538,7 @@
       <c r="B65" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="40" t="s">
         <v>157</v>
       </c>
       <c r="D65" s="9">
@@ -3538,7 +3567,7 @@
       <c r="B66" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="40" t="s">
         <v>159</v>
       </c>
       <c r="D66" s="9">
@@ -3567,7 +3596,7 @@
       <c r="B67" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="40" t="s">
         <v>161</v>
       </c>
       <c r="D67" s="9">
@@ -3590,7 +3619,7 @@
       <c r="B68" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="40" t="s">
         <v>163</v>
       </c>
       <c r="D68" s="9">
@@ -3613,7 +3642,7 @@
       <c r="B69" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="40" t="s">
         <v>165</v>
       </c>
       <c r="D69" s="9">
@@ -3636,7 +3665,7 @@
       <c r="B70" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="40" t="s">
         <v>167</v>
       </c>
       <c r="D70" s="9">
@@ -3659,7 +3688,7 @@
       <c r="B71" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="40" t="s">
         <v>169</v>
       </c>
       <c r="D71" s="9">
@@ -3682,7 +3711,7 @@
       <c r="B72" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="40" t="s">
         <v>171</v>
       </c>
       <c r="D72" s="9">
@@ -3705,7 +3734,7 @@
       <c r="B73" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="40" t="s">
         <v>174</v>
       </c>
       <c r="D73" s="9">
@@ -3728,7 +3757,7 @@
       <c r="B74" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="40" t="s">
         <v>176</v>
       </c>
       <c r="D74" s="9">
@@ -3751,7 +3780,7 @@
       <c r="B75" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="40" t="s">
         <v>179</v>
       </c>
       <c r="D75" s="9">
@@ -3774,7 +3803,7 @@
       <c r="B76" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="40" t="s">
         <v>181</v>
       </c>
       <c r="D76" s="9">
@@ -3797,7 +3826,7 @@
       <c r="B77" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="40" t="s">
         <v>183</v>
       </c>
       <c r="D77" s="9">
@@ -3820,7 +3849,7 @@
       <c r="B78" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="40" t="s">
         <v>185</v>
       </c>
       <c r="D78" s="9">
@@ -3843,7 +3872,7 @@
       <c r="B79" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="40" t="s">
         <v>187</v>
       </c>
       <c r="D79" s="9">
@@ -3866,7 +3895,7 @@
       <c r="B80" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="40" t="s">
         <v>189</v>
       </c>
       <c r="D80" s="9">
@@ -3889,7 +3918,7 @@
       <c r="B81" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="40" t="s">
         <v>191</v>
       </c>
       <c r="D81" s="9">
@@ -3912,7 +3941,7 @@
       <c r="B82" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="40" t="s">
         <v>193</v>
       </c>
       <c r="D82" s="9">
@@ -3935,7 +3964,7 @@
       <c r="B83" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="40" t="s">
         <v>195</v>
       </c>
       <c r="D83" s="9">
@@ -3958,7 +3987,7 @@
       <c r="B84" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="40" t="s">
         <v>197</v>
       </c>
       <c r="D84" s="9">
@@ -3981,7 +4010,7 @@
       <c r="B85" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="40" t="s">
         <v>199</v>
       </c>
       <c r="D85" s="9">
@@ -4004,7 +4033,7 @@
       <c r="B86" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="40" t="s">
         <v>201</v>
       </c>
       <c r="D86" s="9">
@@ -4027,7 +4056,7 @@
       <c r="B87" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="40" t="s">
         <v>203</v>
       </c>
       <c r="D87" s="9">
@@ -4050,7 +4079,7 @@
       <c r="B88" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="40" t="s">
         <v>205</v>
       </c>
       <c r="D88" s="9">
@@ -4073,7 +4102,7 @@
       <c r="B89" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="40" t="s">
         <v>207</v>
       </c>
       <c r="D89" s="9">
@@ -4096,7 +4125,7 @@
       <c r="B90" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="40" t="s">
         <v>209</v>
       </c>
       <c r="D90" s="9">
@@ -4119,7 +4148,7 @@
       <c r="B91" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="40" t="s">
         <v>212</v>
       </c>
       <c r="D91" s="9">
@@ -4142,7 +4171,7 @@
       <c r="B92" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="40" t="s">
         <v>214</v>
       </c>
       <c r="D92" s="9">
@@ -4165,7 +4194,7 @@
       <c r="B93" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="40" t="s">
         <v>216</v>
       </c>
       <c r="D93" s="9">
@@ -4188,7 +4217,7 @@
       <c r="B94" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="40" t="s">
         <v>219</v>
       </c>
       <c r="D94" s="9">
@@ -4217,7 +4246,7 @@
       <c r="B95" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="40" t="s">
         <v>221</v>
       </c>
       <c r="D95" s="9">
@@ -4240,7 +4269,7 @@
       <c r="B96" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="40" t="s">
         <v>223</v>
       </c>
       <c r="D96" s="9">
@@ -4263,7 +4292,7 @@
       <c r="B97" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C97" s="8">
+      <c r="C97" s="40">
         <v>65153</v>
       </c>
       <c r="D97" s="9">
@@ -4286,7 +4315,7 @@
       <c r="B98" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="40" t="s">
         <v>227</v>
       </c>
       <c r="D98" s="9">
@@ -4315,7 +4344,7 @@
       <c r="B99" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="40" t="s">
         <v>230</v>
       </c>
       <c r="D99" s="9">
@@ -4338,7 +4367,7 @@
       <c r="B100" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="40" t="s">
         <v>233</v>
       </c>
       <c r="D100" s="9">
@@ -4361,7 +4390,7 @@
       <c r="B101" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="40" t="s">
         <v>235</v>
       </c>
       <c r="D101" s="9">
@@ -4387,7 +4416,7 @@
       <c r="B102" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="40" t="s">
         <v>240</v>
       </c>
       <c r="D102" s="9">
@@ -4410,7 +4439,7 @@
       <c r="B103" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="40" t="s">
         <v>243</v>
       </c>
       <c r="D103" s="9">
@@ -4433,7 +4462,7 @@
       <c r="B104" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="40" t="s">
         <v>245</v>
       </c>
       <c r="D104" s="9">
@@ -4456,7 +4485,7 @@
       <c r="B105" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="40" t="s">
         <v>247</v>
       </c>
       <c r="D105" s="9">
@@ -4479,7 +4508,7 @@
       <c r="B106" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="40" t="s">
         <v>249</v>
       </c>
       <c r="D106" s="9">
@@ -4502,7 +4531,7 @@
       <c r="B107" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="40" t="s">
         <v>251</v>
       </c>
       <c r="D107" s="9">
@@ -4525,7 +4554,7 @@
       <c r="B108" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="40" t="s">
         <v>253</v>
       </c>
       <c r="D108" s="9">
@@ -4548,7 +4577,7 @@
       <c r="B109" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="40" t="s">
         <v>255</v>
       </c>
       <c r="D109" s="9">
@@ -4571,7 +4600,7 @@
       <c r="B110" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="40" t="s">
         <v>257</v>
       </c>
       <c r="D110" s="9">
@@ -4594,7 +4623,7 @@
       <c r="B111" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="40" t="s">
         <v>259</v>
       </c>
       <c r="D111" s="9">
@@ -4617,7 +4646,7 @@
       <c r="B112" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="40" t="s">
         <v>261</v>
       </c>
       <c r="D112" s="9">
@@ -4640,7 +4669,7 @@
       <c r="B113" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="40" t="s">
         <v>263</v>
       </c>
       <c r="D113" s="9">
@@ -4663,7 +4692,7 @@
       <c r="B114" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="40" t="s">
         <v>265</v>
       </c>
       <c r="D114" s="9">
@@ -4686,7 +4715,7 @@
       <c r="B115" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="40" t="s">
         <v>267</v>
       </c>
       <c r="D115" s="9">
@@ -4709,7 +4738,7 @@
       <c r="B116" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="40" t="s">
         <v>269</v>
       </c>
       <c r="D116" s="9">
@@ -4732,7 +4761,7 @@
       <c r="B117" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="40" t="s">
         <v>271</v>
       </c>
       <c r="D117" s="9">
@@ -4755,7 +4784,7 @@
       <c r="B118" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="40" t="s">
         <v>273</v>
       </c>
       <c r="D118" s="9">
@@ -4778,7 +4807,7 @@
       <c r="B119" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="40" t="s">
         <v>275</v>
       </c>
       <c r="D119" s="9">
@@ -4801,7 +4830,7 @@
       <c r="B120" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C120" s="40" t="s">
         <v>278</v>
       </c>
       <c r="D120" s="9">
@@ -4824,7 +4853,7 @@
       <c r="B121" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C121" s="40" t="s">
         <v>280</v>
       </c>
       <c r="D121" s="9">
@@ -4847,7 +4876,7 @@
       <c r="B122" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C122" s="40" t="s">
         <v>282</v>
       </c>
       <c r="D122" s="9">
@@ -4870,7 +4899,7 @@
       <c r="B123" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="40" t="s">
         <v>286</v>
       </c>
       <c r="D123" s="9">
@@ -4893,7 +4922,7 @@
       <c r="B124" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="40" t="s">
         <v>289</v>
       </c>
       <c r="D124" s="9">
@@ -4916,7 +4945,7 @@
       <c r="B125" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C125" s="40" t="s">
         <v>291</v>
       </c>
       <c r="D125" s="9">
@@ -4939,7 +4968,7 @@
       <c r="B126" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="40" t="s">
         <v>293</v>
       </c>
       <c r="D126" s="9">
@@ -4962,7 +4991,7 @@
       <c r="B127" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="40" t="s">
         <v>296</v>
       </c>
       <c r="D127" s="9">
@@ -4985,7 +5014,7 @@
       <c r="B128" t="s">
         <v>298</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="40" t="s">
         <v>299</v>
       </c>
       <c r="D128" s="9" t="s">
@@ -5012,7 +5041,7 @@
       <c r="B129" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="40" t="s">
         <v>302</v>
       </c>
       <c r="D129" s="9"/>
@@ -5037,7 +5066,7 @@
       <c r="B130" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="C130" s="34" t="s">
+      <c r="C130" s="41" t="s">
         <v>305</v>
       </c>
       <c r="D130" s="35"/>
@@ -5062,7 +5091,7 @@
       <c r="B131" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="C131" s="34" t="s">
+      <c r="C131" s="41" t="s">
         <v>309</v>
       </c>
       <c r="D131" s="35"/>
@@ -5074,7 +5103,7 @@
         <v>46065</v>
       </c>
       <c r="H131" s="15" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="I131" s="14" t="s">
         <v>79</v>
@@ -5087,7 +5116,7 @@
       <c r="B132" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="C132" s="34" t="s">
+      <c r="C132" s="41" t="s">
         <v>312</v>
       </c>
       <c r="D132" s="35"/>
@@ -5099,7 +5128,7 @@
         <v>46065</v>
       </c>
       <c r="H132" s="15" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="I132" s="14" t="s">
         <v>79</v>
@@ -5112,7 +5141,7 @@
       <c r="B133" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="C133" s="34" t="s">
+      <c r="C133" s="41" t="s">
         <v>315</v>
       </c>
       <c r="D133" s="35"/>
@@ -5124,7 +5153,7 @@
         <v>46065</v>
       </c>
       <c r="H133" s="15" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="I133" s="14" t="s">
         <v>79</v>
@@ -5137,7 +5166,7 @@
       <c r="B134" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="C134" s="34" t="s">
+      <c r="C134" s="41" t="s">
         <v>317</v>
       </c>
       <c r="D134" s="35"/>
@@ -5149,7 +5178,7 @@
         <v>46065</v>
       </c>
       <c r="H134" s="15" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="I134" s="14" t="s">
         <v>79</v>
@@ -5162,7 +5191,7 @@
       <c r="B135" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="C135" s="34" t="s">
+      <c r="C135" s="41" t="s">
         <v>319</v>
       </c>
       <c r="D135" s="35"/>
@@ -5174,7 +5203,7 @@
         <v>46065</v>
       </c>
       <c r="H135" s="15" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="I135" s="28" t="s">
         <v>79</v>
@@ -5187,8 +5216,8 @@
       <c r="B136" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="C136" t="s">
-        <v>325</v>
+      <c r="C136" s="42" t="s">
+        <v>322</v>
       </c>
       <c r="D136" s="35"/>
       <c r="E136" s="34"/>
@@ -5199,7 +5228,7 @@
         <v>46071</v>
       </c>
       <c r="H136" s="15" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I136" s="15" t="s">
         <v>79</v>
@@ -5208,13 +5237,13 @@
     </row>
     <row r="137" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="33" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B137" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C137" s="41" t="s">
         <v>326</v>
-      </c>
-      <c r="C137" s="34" t="s">
-        <v>328</v>
       </c>
       <c r="D137" s="35"/>
       <c r="E137" s="34"/>
@@ -5225,21 +5254,21 @@
         <v>46071</v>
       </c>
       <c r="H137" s="15" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="I137" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J137" s="38"/>
     </row>
     <row r="138" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C138" s="8"/>
+      <c r="C138" s="40"/>
       <c r="D138" s="9"/>
       <c r="E138" s="8"/>
       <c r="F138" s="10" t="s">
@@ -5249,21 +5278,21 @@
         <v>46071</v>
       </c>
       <c r="H138" s="15" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="I138" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J138" s="37"/>
     </row>
     <row r="139" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B139" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="C139" s="34"/>
+      <c r="C139" s="41"/>
       <c r="D139" s="35"/>
       <c r="E139" s="34"/>
       <c r="F139" s="10" t="s">
@@ -5273,21 +5302,21 @@
         <v>46071</v>
       </c>
       <c r="H139" s="15" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="I139" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J139" s="38"/>
     </row>
     <row r="140" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B140" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="C140" s="34"/>
+      <c r="C140" s="41"/>
       <c r="D140" s="35"/>
       <c r="E140" s="34"/>
       <c r="F140" s="10" t="s">
@@ -5297,24 +5326,759 @@
         <v>46071</v>
       </c>
       <c r="H140" s="15" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="I140" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J140" s="38"/>
     </row>
     <row r="141" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="37"/>
-      <c r="B141" s="37"/>
-      <c r="C141" s="37"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="37"/>
-      <c r="F141" s="37"/>
-      <c r="G141" s="12"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="12"/>
-      <c r="J141" s="37"/>
+      <c r="A141" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="B141" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="C141" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="D141" s="35"/>
+      <c r="E141" s="34"/>
+      <c r="F141" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G141" s="27">
+        <v>46072</v>
+      </c>
+      <c r="H141" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I141" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J141" s="38"/>
+    </row>
+    <row r="142" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C142" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="D142" s="9"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G142" s="27">
+        <v>46072</v>
+      </c>
+      <c r="H142" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I142" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C143" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="D143" s="9"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G143" s="27">
+        <v>46072</v>
+      </c>
+      <c r="H143" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="I143" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="7"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="40"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+    </row>
+    <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="7"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="40"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+    </row>
+    <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="7"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="40"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+    </row>
+    <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="7"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="40"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="12"/>
+    </row>
+    <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="7"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="40"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="12"/>
+    </row>
+    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="7"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="40"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+    </row>
+    <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="7"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="40"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+    </row>
+    <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="7"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="40"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+    </row>
+    <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="7"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="40"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12"/>
+    </row>
+    <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="7"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="40"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+    </row>
+    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="7"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="40"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+    </row>
+    <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="7"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="40"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+    </row>
+    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="7"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="40"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="12"/>
+    </row>
+    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="7"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="40"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="13"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="12"/>
+    </row>
+    <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="7"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="40"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
+    </row>
+    <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="7"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="40"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+    </row>
+    <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="7"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="40"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+    </row>
+    <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="7"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="40"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+    </row>
+    <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="7"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="40"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+    </row>
+    <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="7"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="40"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12"/>
+    </row>
+    <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="7"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="40"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+    </row>
+    <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="7"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="40"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="12"/>
+    </row>
+    <row r="166" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="7"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="40"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="12"/>
+    </row>
+    <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="7"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="40"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="12"/>
+    </row>
+    <row r="168" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="7"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="40"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+    </row>
+    <row r="169" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="7"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="40"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="12"/>
+    </row>
+    <row r="170" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="7"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="40"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="13"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
+    </row>
+    <row r="171" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="7"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="40"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="12"/>
+    </row>
+    <row r="172" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="7"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="40"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="13"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="12"/>
+    </row>
+    <row r="173" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="7"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="40"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="13"/>
+      <c r="H173" s="12"/>
+      <c r="I173" s="12"/>
+    </row>
+    <row r="174" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="7"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="40"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="13"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12"/>
+    </row>
+    <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="7"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="40"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="13"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="12"/>
+    </row>
+    <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="7"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="40"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="12"/>
+    </row>
+    <row r="177" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="7"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="40"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="8"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="12"/>
+    </row>
+    <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="7"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="40"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="8"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
+    </row>
+    <row r="179" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="7"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="40"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+    </row>
+    <row r="180" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="7"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="40"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="8"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="13"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="12"/>
+    </row>
+    <row r="181" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="7"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="40"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="13"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="12"/>
+    </row>
+    <row r="182" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="7"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="40"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="8"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="13"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="12"/>
+    </row>
+    <row r="183" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="7"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="40"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="8"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="13"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="12"/>
+    </row>
+    <row r="184" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="7"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="40"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="8"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="13"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="12"/>
+    </row>
+    <row r="185" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="7"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="40"/>
+      <c r="D185" s="9"/>
+      <c r="E185" s="8"/>
+      <c r="F185" s="10"/>
+      <c r="G185" s="13"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="12"/>
+    </row>
+    <row r="186" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="7"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="40"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="8"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="13"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+    </row>
+    <row r="187" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="7"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="40"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="8"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="13"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+    </row>
+    <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="7"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="40"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="8"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="13"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="12"/>
+    </row>
+    <row r="189" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="7"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="40"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="8"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="13"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+    </row>
+    <row r="190" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="7"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="40"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="13"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12"/>
+    </row>
+    <row r="191" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="7"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="40"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="8"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="13"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+    </row>
+    <row r="192" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="7"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="40"/>
+      <c r="D192" s="9"/>
+      <c r="E192" s="8"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="13"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="12"/>
+    </row>
+    <row r="193" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="7"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="40"/>
+      <c r="D193" s="9"/>
+      <c r="E193" s="8"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="13"/>
+      <c r="H193" s="12"/>
+      <c r="I193" s="12"/>
+    </row>
+    <row r="194" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="7"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="40"/>
+      <c r="D194" s="9"/>
+      <c r="E194" s="8"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="13"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="12"/>
+    </row>
+    <row r="195" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="7"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="40"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="8"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="13"/>
+      <c r="H195" s="12"/>
+      <c r="I195" s="12"/>
+    </row>
+    <row r="196" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="7"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="40"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="8"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="13"/>
+      <c r="H196" s="12"/>
+      <c r="I196" s="12"/>
+    </row>
+    <row r="197" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="7"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="40"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="8"/>
+      <c r="F197" s="10"/>
+      <c r="G197" s="13"/>
+      <c r="H197" s="12"/>
+      <c r="I197" s="12"/>
+    </row>
+    <row r="198" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="7"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="40"/>
+      <c r="D198" s="9"/>
+      <c r="E198" s="8"/>
+      <c r="F198" s="10"/>
+      <c r="G198" s="13"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="12"/>
+    </row>
+    <row r="199" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="7"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="40"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="8"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="13"/>
+      <c r="H199" s="12"/>
+      <c r="I199" s="12"/>
+    </row>
+    <row r="200" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="7"/>
+      <c r="B200" s="8"/>
+      <c r="C200" s="40"/>
+      <c r="D200" s="9"/>
+      <c r="E200" s="8"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="13"/>
+      <c r="H200" s="12"/>
+      <c r="I200" s="12"/>
+    </row>
+    <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="7"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="40"/>
+      <c r="D201" s="9"/>
+      <c r="E201" s="8"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="13"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="12"/>
+    </row>
+    <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="7"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="40"/>
+      <c r="D202" s="9"/>
+      <c r="E202" s="8"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="13"/>
+      <c r="H202" s="12"/>
+      <c r="I202" s="12"/>
+    </row>
+    <row r="203" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="7"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="40"/>
+      <c r="D203" s="9"/>
+      <c r="E203" s="8"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="13"/>
+      <c r="H203" s="12"/>
+      <c r="I203" s="12"/>
+    </row>
+    <row r="204" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="7"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="40"/>
+      <c r="D204" s="9"/>
+      <c r="E204" s="8"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="13"/>
+      <c r="H204" s="12"/>
+      <c r="I204" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5359,14 +6123,14 @@
         <v>868589060374017</v>
       </c>
       <c r="F3" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="G3" s="2" t="e">
         <f ca="1">VLOOKUP(D3,Hoja2!G:K,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="I3" s="4">
         <v>46043</v>
@@ -5377,14 +6141,14 @@
         <v>868589060674226</v>
       </c>
       <c r="F4" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="G4" s="2" t="e">
         <f ca="1">VLOOKUP(D4,Hoja2!G:K,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="I4" s="4">
         <v>46043</v>
@@ -5748,20 +6512,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5998,19 +6762,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/bitacora.xlsx
+++ b/data/bitacora.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29816"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupokaufmann-my.sharepoint.com/personal/samuel_sanchez_grupokaufmann_com/Documents/Documentos/Dev/bitacora_diaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="297" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFF83FDE-916E-438A-992A-B610A4DBF4E7}"/>
+  <xr:revisionPtr revIDLastSave="305" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C21E82E7-EDCF-44C3-9BAC-062E93F513DE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A9E3F017-9040-47A2-B586-0486128F3261}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$127</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="345">
   <si>
     <t>FLOTA</t>
   </si>
@@ -1050,26 +1050,38 @@
     <t>SWHG77  </t>
   </si>
   <si>
+    <t>COMPANIA JAC TRANSPORTES SPA</t>
+  </si>
+  <si>
+    <t>9BM634011RB332232</t>
+  </si>
+  <si>
+    <t>TFWL96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE EDUARDO GONZALEZ ROJAS TRANSPORTE </t>
+  </si>
+  <si>
+    <t>9BM634016SB357244</t>
+  </si>
+  <si>
+    <t>B357244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamaleon 1 </t>
+  </si>
+  <si>
     <t>IMEI</t>
   </si>
   <si>
     <t>Revisado</t>
-  </si>
-  <si>
-    <t>9BM634011RB332232</t>
-  </si>
-  <si>
-    <t>TFWL96</t>
-  </si>
-  <si>
-    <t>COMPANIA JAC TRANSPORTES SPA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1298,7 +1310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1392,6 +1404,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1959,25 +1974,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA66EBA-6B88-4C75-8217-0B7E221D898D}">
   <dimension ref="A1:L204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D127" workbookViewId="0">
-      <selection activeCell="G136" sqref="G136:G143"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="43" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.81640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="79" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.453125" style="6"/>
+    <col min="11" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="14.45">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2009,7 +2024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="14.45">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -2032,7 +2047,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="14.45">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -2055,7 +2070,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="14.45">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -2078,7 +2093,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="14.45">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2101,7 +2116,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="14.45">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2124,7 +2139,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="14.45">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -2147,7 +2162,7 @@
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="14.45">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -2170,7 +2185,7 @@
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="14.45">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -2193,7 +2208,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="14.45">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -2216,7 +2231,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="14.45">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2239,7 +2254,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="14.45">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
@@ -2263,7 +2278,7 @@
       <c r="I12" s="12"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="14.45">
       <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
@@ -2286,7 +2301,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="14.45">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
@@ -2309,7 +2324,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="14.45">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -2332,7 +2347,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="14.45">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -2355,7 +2370,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="14.45">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -2378,7 +2393,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="14.45">
       <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
@@ -2401,7 +2416,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="14.45">
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
@@ -2424,7 +2439,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="14.45">
       <c r="A20" s="7" t="s">
         <v>51</v>
       </c>
@@ -2447,7 +2462,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="14.45">
       <c r="A21" s="7" t="s">
         <v>51</v>
       </c>
@@ -2470,7 +2485,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="14.45">
       <c r="A22" s="7" t="s">
         <v>51</v>
       </c>
@@ -2493,7 +2508,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="14.45">
       <c r="A23" s="7" t="s">
         <v>59</v>
       </c>
@@ -2516,7 +2531,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="14.45">
       <c r="A24" s="7" t="s">
         <v>59</v>
       </c>
@@ -2539,7 +2554,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="14.45">
       <c r="A25" s="7" t="s">
         <v>65</v>
       </c>
@@ -2562,7 +2577,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="14.45">
       <c r="A26" s="7" t="s">
         <v>65</v>
       </c>
@@ -2585,7 +2600,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="14.45">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -2608,7 +2623,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="14.45">
       <c r="A28" s="7" t="s">
         <v>65</v>
       </c>
@@ -2631,7 +2646,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="14.45">
       <c r="A29" s="7" t="s">
         <v>65</v>
       </c>
@@ -2660,7 +2675,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="14.45">
       <c r="A30" s="7" t="s">
         <v>80</v>
       </c>
@@ -2683,7 +2698,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="14.45">
       <c r="A31" s="7" t="s">
         <v>80</v>
       </c>
@@ -2706,7 +2721,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="14.45">
       <c r="A32" s="7" t="s">
         <v>80</v>
       </c>
@@ -2729,7 +2744,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="14.45">
       <c r="A33" s="7" t="s">
         <v>80</v>
       </c>
@@ -2752,7 +2767,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="14.45">
       <c r="A34" s="7" t="s">
         <v>80</v>
       </c>
@@ -2775,7 +2790,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="14.45">
       <c r="A35" s="7" t="s">
         <v>80</v>
       </c>
@@ -2798,7 +2813,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="14.45">
       <c r="A36" s="7" t="s">
         <v>80</v>
       </c>
@@ -2821,7 +2836,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="14.45">
       <c r="A37" s="7" t="s">
         <v>95</v>
       </c>
@@ -2850,7 +2865,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="14.45">
       <c r="A38" s="7" t="s">
         <v>95</v>
       </c>
@@ -2879,7 +2894,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="14.45">
       <c r="A39" s="7" t="s">
         <v>95</v>
       </c>
@@ -2902,7 +2917,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="14.45">
       <c r="A40" s="7" t="s">
         <v>95</v>
       </c>
@@ -2931,7 +2946,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="14.45">
       <c r="A41" s="7" t="s">
         <v>95</v>
       </c>
@@ -2960,7 +2975,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="14.45">
       <c r="A42" s="7" t="s">
         <v>95</v>
       </c>
@@ -2983,7 +2998,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="14.45">
       <c r="A43" s="7" t="s">
         <v>95</v>
       </c>
@@ -3006,7 +3021,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="14.45">
       <c r="A44" s="7" t="s">
         <v>95</v>
       </c>
@@ -3029,7 +3044,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="14.45">
       <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
@@ -3052,7 +3067,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="14.45">
       <c r="A46" s="7" t="s">
         <v>95</v>
       </c>
@@ -3081,7 +3096,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="14.45">
       <c r="A47" s="7" t="s">
         <v>95</v>
       </c>
@@ -3110,7 +3125,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="14.45">
       <c r="A48" s="7" t="s">
         <v>95</v>
       </c>
@@ -3139,7 +3154,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="14.45">
       <c r="A49" s="7" t="s">
         <v>95</v>
       </c>
@@ -3168,7 +3183,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="14.45">
       <c r="A50" s="7" t="s">
         <v>95</v>
       </c>
@@ -3191,7 +3206,7 @@
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="14.45">
       <c r="A51" s="7" t="s">
         <v>95</v>
       </c>
@@ -3214,7 +3229,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="14.45">
       <c r="A52" s="7" t="s">
         <v>95</v>
       </c>
@@ -3237,7 +3252,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="14.45">
       <c r="A53" s="7" t="s">
         <v>95</v>
       </c>
@@ -3260,7 +3275,7 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="14.45">
       <c r="A54" s="7" t="s">
         <v>95</v>
       </c>
@@ -3283,7 +3298,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="14.45">
       <c r="A55" s="7" t="s">
         <v>95</v>
       </c>
@@ -3312,7 +3327,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="14.45">
       <c r="A56" s="7" t="s">
         <v>95</v>
       </c>
@@ -3341,7 +3356,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="14.45">
       <c r="A57" s="7" t="s">
         <v>95</v>
       </c>
@@ -3364,7 +3379,7 @@
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
     </row>
-    <row r="58" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="14.45">
       <c r="A58" s="7" t="s">
         <v>95</v>
       </c>
@@ -3387,7 +3402,7 @@
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
     </row>
-    <row r="59" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="14.45">
       <c r="A59" s="7" t="s">
         <v>95</v>
       </c>
@@ -3416,7 +3431,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="14.45">
       <c r="A60" s="7" t="s">
         <v>95</v>
       </c>
@@ -3439,7 +3454,7 @@
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
     </row>
-    <row r="61" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="14.45">
       <c r="A61" s="7" t="s">
         <v>95</v>
       </c>
@@ -3462,7 +3477,7 @@
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
     </row>
-    <row r="62" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="14.45">
       <c r="A62" s="7" t="s">
         <v>149</v>
       </c>
@@ -3485,7 +3500,7 @@
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
     </row>
-    <row r="63" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="14.45">
       <c r="A63" s="7" t="s">
         <v>149</v>
       </c>
@@ -3508,7 +3523,7 @@
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
     </row>
-    <row r="64" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="14.45">
       <c r="A64" s="7" t="s">
         <v>149</v>
       </c>
@@ -3531,7 +3546,7 @@
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
     </row>
-    <row r="65" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="14.45">
       <c r="A65" s="7" t="s">
         <v>149</v>
       </c>
@@ -3560,7 +3575,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="14.45">
       <c r="A66" s="7" t="s">
         <v>149</v>
       </c>
@@ -3589,7 +3604,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="14.45">
       <c r="A67" s="7" t="s">
         <v>149</v>
       </c>
@@ -3612,7 +3627,7 @@
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
     </row>
-    <row r="68" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="14.45">
       <c r="A68" s="7" t="s">
         <v>149</v>
       </c>
@@ -3635,7 +3650,7 @@
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
     </row>
-    <row r="69" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="14.45">
       <c r="A69" s="7" t="s">
         <v>149</v>
       </c>
@@ -3658,7 +3673,7 @@
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
     </row>
-    <row r="70" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="14.45">
       <c r="A70" s="7" t="s">
         <v>149</v>
       </c>
@@ -3681,7 +3696,7 @@
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
     </row>
-    <row r="71" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="14.45">
       <c r="A71" s="7" t="s">
         <v>149</v>
       </c>
@@ -3704,7 +3719,7 @@
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
     </row>
-    <row r="72" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" ht="14.45">
       <c r="A72" s="7" t="s">
         <v>149</v>
       </c>
@@ -3727,7 +3742,7 @@
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
     </row>
-    <row r="73" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" ht="14.45">
       <c r="A73" s="7" t="s">
         <v>172</v>
       </c>
@@ -3750,7 +3765,7 @@
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
     </row>
-    <row r="74" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" ht="14.45">
       <c r="A74" s="7" t="s">
         <v>172</v>
       </c>
@@ -3773,7 +3788,7 @@
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
     </row>
-    <row r="75" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" ht="14.45">
       <c r="A75" s="7" t="s">
         <v>177</v>
       </c>
@@ -3796,7 +3811,7 @@
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
     </row>
-    <row r="76" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" ht="14.45">
       <c r="A76" s="7" t="s">
         <v>177</v>
       </c>
@@ -3819,7 +3834,7 @@
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
     </row>
-    <row r="77" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" ht="14.45">
       <c r="A77" s="7" t="s">
         <v>177</v>
       </c>
@@ -3842,7 +3857,7 @@
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
     </row>
-    <row r="78" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" ht="14.45">
       <c r="A78" s="7" t="s">
         <v>177</v>
       </c>
@@ -3865,7 +3880,7 @@
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
     </row>
-    <row r="79" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" ht="14.45">
       <c r="A79" s="7" t="s">
         <v>177</v>
       </c>
@@ -3888,7 +3903,7 @@
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
     </row>
-    <row r="80" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" ht="14.45">
       <c r="A80" s="7" t="s">
         <v>177</v>
       </c>
@@ -3911,7 +3926,7 @@
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
     </row>
-    <row r="81" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" ht="14.45">
       <c r="A81" s="7" t="s">
         <v>177</v>
       </c>
@@ -3934,7 +3949,7 @@
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
     </row>
-    <row r="82" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" ht="14.45">
       <c r="A82" s="7" t="s">
         <v>177</v>
       </c>
@@ -3957,7 +3972,7 @@
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
     </row>
-    <row r="83" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" ht="14.45">
       <c r="A83" s="7" t="s">
         <v>177</v>
       </c>
@@ -3980,7 +3995,7 @@
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
     </row>
-    <row r="84" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" ht="14.45">
       <c r="A84" s="7" t="s">
         <v>177</v>
       </c>
@@ -4003,7 +4018,7 @@
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
     </row>
-    <row r="85" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" ht="14.45">
       <c r="A85" s="7" t="s">
         <v>177</v>
       </c>
@@ -4026,7 +4041,7 @@
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
     </row>
-    <row r="86" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" ht="14.45">
       <c r="A86" s="7" t="s">
         <v>177</v>
       </c>
@@ -4049,7 +4064,7 @@
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
     </row>
-    <row r="87" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" ht="14.45">
       <c r="A87" s="7" t="s">
         <v>177</v>
       </c>
@@ -4072,7 +4087,7 @@
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
     </row>
-    <row r="88" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" ht="14.45">
       <c r="A88" s="7" t="s">
         <v>177</v>
       </c>
@@ -4095,7 +4110,7 @@
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
     </row>
-    <row r="89" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" ht="14.45">
       <c r="A89" s="7" t="s">
         <v>177</v>
       </c>
@@ -4118,7 +4133,7 @@
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
     </row>
-    <row r="90" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" ht="14.45">
       <c r="A90" s="7" t="s">
         <v>177</v>
       </c>
@@ -4141,7 +4156,7 @@
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
     </row>
-    <row r="91" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" ht="14.45">
       <c r="A91" s="7" t="s">
         <v>210</v>
       </c>
@@ -4164,7 +4179,7 @@
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
     </row>
-    <row r="92" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" ht="14.45">
       <c r="A92" s="7" t="s">
         <v>210</v>
       </c>
@@ -4187,7 +4202,7 @@
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
     </row>
-    <row r="93" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" ht="14.45">
       <c r="A93" s="7" t="s">
         <v>210</v>
       </c>
@@ -4210,7 +4225,7 @@
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
     </row>
-    <row r="94" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" ht="14.45">
       <c r="A94" s="7" t="s">
         <v>217</v>
       </c>
@@ -4239,7 +4254,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" ht="14.45">
       <c r="A95" s="7" t="s">
         <v>217</v>
       </c>
@@ -4262,7 +4277,7 @@
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
     </row>
-    <row r="96" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" ht="14.45">
       <c r="A96" s="7" t="s">
         <v>217</v>
       </c>
@@ -4285,7 +4300,7 @@
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
     </row>
-    <row r="97" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" ht="14.45">
       <c r="A97" s="7" t="s">
         <v>217</v>
       </c>
@@ -4308,7 +4323,7 @@
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
     </row>
-    <row r="98" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" ht="14.45">
       <c r="A98" s="7" t="s">
         <v>225</v>
       </c>
@@ -4337,7 +4352,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" ht="14.45">
       <c r="A99" s="7" t="s">
         <v>225</v>
       </c>
@@ -4360,7 +4375,7 @@
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
     </row>
-    <row r="100" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" ht="14.45">
       <c r="A100" s="7" t="s">
         <v>231</v>
       </c>
@@ -4383,7 +4398,7 @@
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
     </row>
-    <row r="101" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" ht="14.45">
       <c r="A101" s="7" t="s">
         <v>231</v>
       </c>
@@ -4409,7 +4424,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" ht="14.45">
       <c r="A102" s="7" t="s">
         <v>238</v>
       </c>
@@ -4432,7 +4447,7 @@
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
     </row>
-    <row r="103" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" ht="14.45">
       <c r="A103" s="7" t="s">
         <v>238</v>
       </c>
@@ -4455,7 +4470,7 @@
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
     </row>
-    <row r="104" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" ht="14.45">
       <c r="A104" s="7" t="s">
         <v>238</v>
       </c>
@@ -4478,7 +4493,7 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
     </row>
-    <row r="105" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" ht="14.45">
       <c r="A105" s="7" t="s">
         <v>238</v>
       </c>
@@ -4501,7 +4516,7 @@
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" ht="14.45">
       <c r="A106" s="7" t="s">
         <v>238</v>
       </c>
@@ -4524,7 +4539,7 @@
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
     </row>
-    <row r="107" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="14.45">
       <c r="A107" s="7" t="s">
         <v>238</v>
       </c>
@@ -4547,7 +4562,7 @@
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
     </row>
-    <row r="108" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="14.45">
       <c r="A108" s="7" t="s">
         <v>238</v>
       </c>
@@ -4570,7 +4585,7 @@
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
     </row>
-    <row r="109" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" ht="14.45">
       <c r="A109" s="7" t="s">
         <v>238</v>
       </c>
@@ -4593,7 +4608,7 @@
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
     </row>
-    <row r="110" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" ht="14.45">
       <c r="A110" s="7" t="s">
         <v>238</v>
       </c>
@@ -4616,7 +4631,7 @@
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
     </row>
-    <row r="111" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" ht="14.45">
       <c r="A111" s="7" t="s">
         <v>238</v>
       </c>
@@ -4639,7 +4654,7 @@
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
     </row>
-    <row r="112" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" ht="14.45">
       <c r="A112" s="7" t="s">
         <v>238</v>
       </c>
@@ -4662,7 +4677,7 @@
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
     </row>
-    <row r="113" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" ht="14.45">
       <c r="A113" s="7" t="s">
         <v>238</v>
       </c>
@@ -4685,7 +4700,7 @@
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
     </row>
-    <row r="114" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" ht="14.45">
       <c r="A114" s="7" t="s">
         <v>238</v>
       </c>
@@ -4708,7 +4723,7 @@
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
     </row>
-    <row r="115" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" ht="14.45">
       <c r="A115" s="7" t="s">
         <v>238</v>
       </c>
@@ -4731,7 +4746,7 @@
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
     </row>
-    <row r="116" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" ht="14.45">
       <c r="A116" s="7" t="s">
         <v>238</v>
       </c>
@@ -4754,7 +4769,7 @@
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
     </row>
-    <row r="117" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" ht="14.45">
       <c r="A117" s="7" t="s">
         <v>238</v>
       </c>
@@ -4777,7 +4792,7 @@
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
     </row>
-    <row r="118" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" ht="14.45">
       <c r="A118" s="7" t="s">
         <v>238</v>
       </c>
@@ -4800,7 +4815,7 @@
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
     </row>
-    <row r="119" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" ht="14.45">
       <c r="A119" s="7" t="s">
         <v>238</v>
       </c>
@@ -4823,7 +4838,7 @@
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
     </row>
-    <row r="120" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" ht="14.45">
       <c r="A120" s="7" t="s">
         <v>276</v>
       </c>
@@ -4846,7 +4861,7 @@
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
     </row>
-    <row r="121" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" ht="14.45">
       <c r="A121" s="7" t="s">
         <v>276</v>
       </c>
@@ -4869,7 +4884,7 @@
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
     </row>
-    <row r="122" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" ht="14.45">
       <c r="A122" s="7" t="s">
         <v>276</v>
       </c>
@@ -4892,7 +4907,7 @@
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
     </row>
-    <row r="123" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" ht="14.45">
       <c r="A123" s="7" t="s">
         <v>284</v>
       </c>
@@ -4915,7 +4930,7 @@
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
     </row>
-    <row r="124" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" ht="14.45">
       <c r="A124" s="7" t="s">
         <v>287</v>
       </c>
@@ -4938,7 +4953,7 @@
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
     </row>
-    <row r="125" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" ht="14.45">
       <c r="A125" s="7" t="s">
         <v>287</v>
       </c>
@@ -4961,7 +4976,7 @@
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
     </row>
-    <row r="126" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" ht="14.45">
       <c r="A126" s="7" t="s">
         <v>287</v>
       </c>
@@ -4984,7 +4999,7 @@
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
     </row>
-    <row r="127" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" ht="14.45">
       <c r="A127" s="7" t="s">
         <v>294</v>
       </c>
@@ -5007,7 +5022,7 @@
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
     </row>
-    <row r="128" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" ht="14.45">
       <c r="A128" t="s">
         <v>297</v>
       </c>
@@ -5034,7 +5049,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" ht="14.45">
       <c r="A129" t="s">
         <v>297</v>
       </c>
@@ -5059,7 +5074,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" ht="15" customHeight="1">
       <c r="A130" s="33" t="s">
         <v>303</v>
       </c>
@@ -5084,7 +5099,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" ht="15" customHeight="1">
       <c r="A131" s="33" t="s">
         <v>307</v>
       </c>
@@ -5109,7 +5124,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" ht="15" customHeight="1">
       <c r="A132" s="33" t="s">
         <v>65</v>
       </c>
@@ -5134,7 +5149,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" ht="15" customHeight="1">
       <c r="A133" s="33" t="s">
         <v>313</v>
       </c>
@@ -5159,7 +5174,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" ht="15" customHeight="1">
       <c r="A134" s="33" t="s">
         <v>313</v>
       </c>
@@ -5184,7 +5199,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" ht="15" customHeight="1">
       <c r="A135" s="33" t="s">
         <v>276</v>
       </c>
@@ -5209,7 +5224,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" ht="15" customHeight="1">
       <c r="A136" s="33" t="s">
         <v>320</v>
       </c>
@@ -5235,7 +5250,7 @@
       </c>
       <c r="J136" s="38"/>
     </row>
-    <row r="137" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" ht="15" customHeight="1">
       <c r="A137" s="33" t="s">
         <v>324</v>
       </c>
@@ -5261,7 +5276,7 @@
       </c>
       <c r="J137" s="38"/>
     </row>
-    <row r="138" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" ht="15" customHeight="1">
       <c r="A138" s="7" t="s">
         <v>329</v>
       </c>
@@ -5285,7 +5300,7 @@
       </c>
       <c r="J138" s="37"/>
     </row>
-    <row r="139" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" ht="15" customHeight="1">
       <c r="A139" s="7" t="s">
         <v>329</v>
       </c>
@@ -5309,7 +5324,7 @@
       </c>
       <c r="J139" s="38"/>
     </row>
-    <row r="140" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" ht="15" customHeight="1">
       <c r="A140" s="7" t="s">
         <v>329</v>
       </c>
@@ -5333,7 +5348,7 @@
       </c>
       <c r="J140" s="38"/>
     </row>
-    <row r="141" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" ht="15" customHeight="1">
       <c r="A141" s="33" t="s">
         <v>333</v>
       </c>
@@ -5359,7 +5374,7 @@
       </c>
       <c r="J141" s="38"/>
     </row>
-    <row r="142" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" ht="15" customHeight="1">
       <c r="A142" s="33" t="s">
         <v>313</v>
       </c>
@@ -5384,15 +5399,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" ht="15" customHeight="1">
       <c r="A143" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B143" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C143" s="40" t="s">
         <v>338</v>
-      </c>
-      <c r="C143" s="40" t="s">
-        <v>339</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="8"/>
@@ -5409,18 +5424,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="7"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="40"/>
+    <row r="144" spans="1:10" ht="15" customHeight="1">
+      <c r="A144" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="B144" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="C144" s="44" t="s">
+        <v>341</v>
+      </c>
       <c r="D144" s="9"/>
       <c r="E144" s="8"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="13"/>
-      <c r="H144" s="12"/>
-      <c r="I144" s="12"/>
-    </row>
-    <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F144" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G144" s="13">
+        <v>46073</v>
+      </c>
+      <c r="H144" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I144" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="15" customHeight="1">
       <c r="A145" s="7"/>
       <c r="B145" s="8"/>
       <c r="C145" s="40"/>
@@ -5431,7 +5460,7 @@
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
     </row>
-    <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" ht="15" customHeight="1">
       <c r="A146" s="7"/>
       <c r="B146" s="8"/>
       <c r="C146" s="40"/>
@@ -5442,7 +5471,7 @@
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
     </row>
-    <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" ht="15" customHeight="1">
       <c r="A147" s="7"/>
       <c r="B147" s="8"/>
       <c r="C147" s="40"/>
@@ -5453,7 +5482,7 @@
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
     </row>
-    <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" ht="15" customHeight="1">
       <c r="A148" s="7"/>
       <c r="B148" s="8"/>
       <c r="C148" s="40"/>
@@ -5464,7 +5493,7 @@
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
     </row>
-    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" ht="15" customHeight="1">
       <c r="A149" s="7"/>
       <c r="B149" s="8"/>
       <c r="C149" s="40"/>
@@ -5475,7 +5504,7 @@
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
     </row>
-    <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" ht="15" customHeight="1">
       <c r="A150" s="7"/>
       <c r="B150" s="8"/>
       <c r="C150" s="40"/>
@@ -5486,7 +5515,7 @@
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
     </row>
-    <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" ht="15" customHeight="1">
       <c r="A151" s="7"/>
       <c r="B151" s="8"/>
       <c r="C151" s="40"/>
@@ -5497,7 +5526,7 @@
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
     </row>
-    <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" ht="15" customHeight="1">
       <c r="A152" s="7"/>
       <c r="B152" s="8"/>
       <c r="C152" s="40"/>
@@ -5508,7 +5537,7 @@
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
     </row>
-    <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" ht="15" customHeight="1">
       <c r="A153" s="7"/>
       <c r="B153" s="8"/>
       <c r="C153" s="40"/>
@@ -5519,7 +5548,7 @@
       <c r="H153" s="12"/>
       <c r="I153" s="12"/>
     </row>
-    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" ht="15" customHeight="1">
       <c r="A154" s="7"/>
       <c r="B154" s="8"/>
       <c r="C154" s="40"/>
@@ -5530,7 +5559,7 @@
       <c r="H154" s="12"/>
       <c r="I154" s="12"/>
     </row>
-    <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" ht="15" customHeight="1">
       <c r="A155" s="7"/>
       <c r="B155" s="8"/>
       <c r="C155" s="40"/>
@@ -5541,7 +5570,7 @@
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
     </row>
-    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" ht="15" customHeight="1">
       <c r="A156" s="7"/>
       <c r="B156" s="8"/>
       <c r="C156" s="40"/>
@@ -5552,7 +5581,7 @@
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
     </row>
-    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" ht="15" customHeight="1">
       <c r="A157" s="7"/>
       <c r="B157" s="8"/>
       <c r="C157" s="40"/>
@@ -5563,7 +5592,7 @@
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
     </row>
-    <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" ht="15" customHeight="1">
       <c r="A158" s="7"/>
       <c r="B158" s="8"/>
       <c r="C158" s="40"/>
@@ -5574,7 +5603,7 @@
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
     </row>
-    <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" ht="15" customHeight="1">
       <c r="A159" s="7"/>
       <c r="B159" s="8"/>
       <c r="C159" s="40"/>
@@ -5585,7 +5614,7 @@
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
     </row>
-    <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" ht="15" customHeight="1">
       <c r="A160" s="7"/>
       <c r="B160" s="8"/>
       <c r="C160" s="40"/>
@@ -5596,7 +5625,7 @@
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
     </row>
-    <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" ht="15" customHeight="1">
       <c r="A161" s="7"/>
       <c r="B161" s="8"/>
       <c r="C161" s="40"/>
@@ -5607,7 +5636,7 @@
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
     </row>
-    <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" ht="15" customHeight="1">
       <c r="A162" s="7"/>
       <c r="B162" s="8"/>
       <c r="C162" s="40"/>
@@ -5618,7 +5647,7 @@
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
     </row>
-    <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" ht="15" customHeight="1">
       <c r="A163" s="7"/>
       <c r="B163" s="8"/>
       <c r="C163" s="40"/>
@@ -5629,7 +5658,7 @@
       <c r="H163" s="12"/>
       <c r="I163" s="12"/>
     </row>
-    <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" ht="15" customHeight="1">
       <c r="A164" s="7"/>
       <c r="B164" s="8"/>
       <c r="C164" s="40"/>
@@ -5640,7 +5669,7 @@
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>
     </row>
-    <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" ht="15" customHeight="1">
       <c r="A165" s="7"/>
       <c r="B165" s="8"/>
       <c r="C165" s="40"/>
@@ -5651,7 +5680,7 @@
       <c r="H165" s="12"/>
       <c r="I165" s="12"/>
     </row>
-    <row r="166" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" ht="15" customHeight="1">
       <c r="A166" s="7"/>
       <c r="B166" s="8"/>
       <c r="C166" s="40"/>
@@ -5662,7 +5691,7 @@
       <c r="H166" s="12"/>
       <c r="I166" s="12"/>
     </row>
-    <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" ht="15" customHeight="1">
       <c r="A167" s="7"/>
       <c r="B167" s="8"/>
       <c r="C167" s="40"/>
@@ -5673,7 +5702,7 @@
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
     </row>
-    <row r="168" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" ht="15" customHeight="1">
       <c r="A168" s="7"/>
       <c r="B168" s="8"/>
       <c r="C168" s="40"/>
@@ -5684,7 +5713,7 @@
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
     </row>
-    <row r="169" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" ht="15" customHeight="1">
       <c r="A169" s="7"/>
       <c r="B169" s="8"/>
       <c r="C169" s="40"/>
@@ -5695,7 +5724,7 @@
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
     </row>
-    <row r="170" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" ht="15" customHeight="1">
       <c r="A170" s="7"/>
       <c r="B170" s="8"/>
       <c r="C170" s="40"/>
@@ -5706,7 +5735,7 @@
       <c r="H170" s="12"/>
       <c r="I170" s="12"/>
     </row>
-    <row r="171" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" ht="15" customHeight="1">
       <c r="A171" s="7"/>
       <c r="B171" s="8"/>
       <c r="C171" s="40"/>
@@ -5717,7 +5746,7 @@
       <c r="H171" s="12"/>
       <c r="I171" s="12"/>
     </row>
-    <row r="172" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" ht="15" customHeight="1">
       <c r="A172" s="7"/>
       <c r="B172" s="8"/>
       <c r="C172" s="40"/>
@@ -5728,7 +5757,7 @@
       <c r="H172" s="12"/>
       <c r="I172" s="12"/>
     </row>
-    <row r="173" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" ht="15" customHeight="1">
       <c r="A173" s="7"/>
       <c r="B173" s="8"/>
       <c r="C173" s="40"/>
@@ -5739,7 +5768,7 @@
       <c r="H173" s="12"/>
       <c r="I173" s="12"/>
     </row>
-    <row r="174" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" ht="15" customHeight="1">
       <c r="A174" s="7"/>
       <c r="B174" s="8"/>
       <c r="C174" s="40"/>
@@ -5750,7 +5779,7 @@
       <c r="H174" s="12"/>
       <c r="I174" s="12"/>
     </row>
-    <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" ht="15" customHeight="1">
       <c r="A175" s="7"/>
       <c r="B175" s="8"/>
       <c r="C175" s="40"/>
@@ -5761,7 +5790,7 @@
       <c r="H175" s="12"/>
       <c r="I175" s="12"/>
     </row>
-    <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" ht="15" customHeight="1">
       <c r="A176" s="7"/>
       <c r="B176" s="8"/>
       <c r="C176" s="40"/>
@@ -5772,7 +5801,7 @@
       <c r="H176" s="12"/>
       <c r="I176" s="12"/>
     </row>
-    <row r="177" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" ht="15" customHeight="1">
       <c r="A177" s="7"/>
       <c r="B177" s="8"/>
       <c r="C177" s="40"/>
@@ -5783,7 +5812,7 @@
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
     </row>
-    <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" ht="15" customHeight="1">
       <c r="A178" s="7"/>
       <c r="B178" s="8"/>
       <c r="C178" s="40"/>
@@ -5794,7 +5823,7 @@
       <c r="H178" s="12"/>
       <c r="I178" s="12"/>
     </row>
-    <row r="179" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" ht="15" customHeight="1">
       <c r="A179" s="7"/>
       <c r="B179" s="8"/>
       <c r="C179" s="40"/>
@@ -5805,7 +5834,7 @@
       <c r="H179" s="12"/>
       <c r="I179" s="12"/>
     </row>
-    <row r="180" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" ht="15" customHeight="1">
       <c r="A180" s="7"/>
       <c r="B180" s="8"/>
       <c r="C180" s="40"/>
@@ -5816,7 +5845,7 @@
       <c r="H180" s="12"/>
       <c r="I180" s="12"/>
     </row>
-    <row r="181" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" ht="15" customHeight="1">
       <c r="A181" s="7"/>
       <c r="B181" s="8"/>
       <c r="C181" s="40"/>
@@ -5827,7 +5856,7 @@
       <c r="H181" s="12"/>
       <c r="I181" s="12"/>
     </row>
-    <row r="182" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" ht="15" customHeight="1">
       <c r="A182" s="7"/>
       <c r="B182" s="8"/>
       <c r="C182" s="40"/>
@@ -5838,7 +5867,7 @@
       <c r="H182" s="12"/>
       <c r="I182" s="12"/>
     </row>
-    <row r="183" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" ht="15" customHeight="1">
       <c r="A183" s="7"/>
       <c r="B183" s="8"/>
       <c r="C183" s="40"/>
@@ -5849,7 +5878,7 @@
       <c r="H183" s="12"/>
       <c r="I183" s="12"/>
     </row>
-    <row r="184" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" ht="15" customHeight="1">
       <c r="A184" s="7"/>
       <c r="B184" s="8"/>
       <c r="C184" s="40"/>
@@ -5860,7 +5889,7 @@
       <c r="H184" s="12"/>
       <c r="I184" s="12"/>
     </row>
-    <row r="185" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" ht="15" customHeight="1">
       <c r="A185" s="7"/>
       <c r="B185" s="8"/>
       <c r="C185" s="40"/>
@@ -5871,7 +5900,7 @@
       <c r="H185" s="12"/>
       <c r="I185" s="12"/>
     </row>
-    <row r="186" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" ht="15" customHeight="1">
       <c r="A186" s="7"/>
       <c r="B186" s="8"/>
       <c r="C186" s="40"/>
@@ -5882,7 +5911,7 @@
       <c r="H186" s="12"/>
       <c r="I186" s="12"/>
     </row>
-    <row r="187" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" ht="15" customHeight="1">
       <c r="A187" s="7"/>
       <c r="B187" s="8"/>
       <c r="C187" s="40"/>
@@ -5893,7 +5922,7 @@
       <c r="H187" s="12"/>
       <c r="I187" s="12"/>
     </row>
-    <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" ht="15" customHeight="1">
       <c r="A188" s="7"/>
       <c r="B188" s="8"/>
       <c r="C188" s="40"/>
@@ -5904,7 +5933,7 @@
       <c r="H188" s="12"/>
       <c r="I188" s="12"/>
     </row>
-    <row r="189" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" ht="15" customHeight="1">
       <c r="A189" s="7"/>
       <c r="B189" s="8"/>
       <c r="C189" s="40"/>
@@ -5915,7 +5944,7 @@
       <c r="H189" s="12"/>
       <c r="I189" s="12"/>
     </row>
-    <row r="190" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" ht="15" customHeight="1">
       <c r="A190" s="7"/>
       <c r="B190" s="8"/>
       <c r="C190" s="40"/>
@@ -5926,7 +5955,7 @@
       <c r="H190" s="12"/>
       <c r="I190" s="12"/>
     </row>
-    <row r="191" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" ht="15" customHeight="1">
       <c r="A191" s="7"/>
       <c r="B191" s="8"/>
       <c r="C191" s="40"/>
@@ -5937,7 +5966,7 @@
       <c r="H191" s="12"/>
       <c r="I191" s="12"/>
     </row>
-    <row r="192" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" ht="15" customHeight="1">
       <c r="A192" s="7"/>
       <c r="B192" s="8"/>
       <c r="C192" s="40"/>
@@ -5948,7 +5977,7 @@
       <c r="H192" s="12"/>
       <c r="I192" s="12"/>
     </row>
-    <row r="193" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" ht="15" customHeight="1">
       <c r="A193" s="7"/>
       <c r="B193" s="8"/>
       <c r="C193" s="40"/>
@@ -5959,7 +5988,7 @@
       <c r="H193" s="12"/>
       <c r="I193" s="12"/>
     </row>
-    <row r="194" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" ht="15" customHeight="1">
       <c r="A194" s="7"/>
       <c r="B194" s="8"/>
       <c r="C194" s="40"/>
@@ -5970,7 +5999,7 @@
       <c r="H194" s="12"/>
       <c r="I194" s="12"/>
     </row>
-    <row r="195" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" ht="15" customHeight="1">
       <c r="A195" s="7"/>
       <c r="B195" s="8"/>
       <c r="C195" s="40"/>
@@ -5981,7 +6010,7 @@
       <c r="H195" s="12"/>
       <c r="I195" s="12"/>
     </row>
-    <row r="196" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" ht="15" customHeight="1">
       <c r="A196" s="7"/>
       <c r="B196" s="8"/>
       <c r="C196" s="40"/>
@@ -5992,7 +6021,7 @@
       <c r="H196" s="12"/>
       <c r="I196" s="12"/>
     </row>
-    <row r="197" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" ht="15" customHeight="1">
       <c r="A197" s="7"/>
       <c r="B197" s="8"/>
       <c r="C197" s="40"/>
@@ -6003,7 +6032,7 @@
       <c r="H197" s="12"/>
       <c r="I197" s="12"/>
     </row>
-    <row r="198" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" ht="15" customHeight="1">
       <c r="A198" s="7"/>
       <c r="B198" s="8"/>
       <c r="C198" s="40"/>
@@ -6014,7 +6043,7 @@
       <c r="H198" s="12"/>
       <c r="I198" s="12"/>
     </row>
-    <row r="199" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" ht="15" customHeight="1">
       <c r="A199" s="7"/>
       <c r="B199" s="8"/>
       <c r="C199" s="40"/>
@@ -6025,7 +6054,7 @@
       <c r="H199" s="12"/>
       <c r="I199" s="12"/>
     </row>
-    <row r="200" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" ht="15" customHeight="1">
       <c r="A200" s="7"/>
       <c r="B200" s="8"/>
       <c r="C200" s="40"/>
@@ -6036,7 +6065,7 @@
       <c r="H200" s="12"/>
       <c r="I200" s="12"/>
     </row>
-    <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" ht="15" customHeight="1">
       <c r="A201" s="7"/>
       <c r="B201" s="8"/>
       <c r="C201" s="40"/>
@@ -6047,7 +6076,7 @@
       <c r="H201" s="12"/>
       <c r="I201" s="12"/>
     </row>
-    <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" ht="15" customHeight="1">
       <c r="A202" s="7"/>
       <c r="B202" s="8"/>
       <c r="C202" s="40"/>
@@ -6058,7 +6087,7 @@
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
     </row>
-    <row r="203" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" ht="15" customHeight="1">
       <c r="A203" s="7"/>
       <c r="B203" s="8"/>
       <c r="C203" s="40"/>
@@ -6069,7 +6098,7 @@
       <c r="H203" s="12"/>
       <c r="I203" s="12"/>
     </row>
-    <row r="204" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" ht="15" customHeight="1">
       <c r="A204" s="7"/>
       <c r="B204" s="8"/>
       <c r="C204" s="40"/>
@@ -6096,413 +6125,413 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="54" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:14">
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:14">
       <c r="D3" s="1">
         <v>868589060374017</v>
       </c>
       <c r="F3" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="G3" s="2" t="e">
         <f ca="1">VLOOKUP(D3,Hoja2!G:K,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="I3" s="4">
         <v>46043</v>
       </c>
     </row>
-    <row r="4" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:14">
       <c r="D4" s="1">
         <v>868589060674226</v>
       </c>
       <c r="F4" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="G4" s="2" t="e">
         <f ca="1">VLOOKUP(D4,Hoja2!G:K,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="I4" s="4">
         <v>46043</v>
       </c>
     </row>
-    <row r="5" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:14">
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:14">
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:14">
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:14">
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:14">
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:14">
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:14">
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:14">
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:14">
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:14">
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:14">
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:14">
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="13:14">
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="13:14">
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="13:14">
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="13:14">
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="13:14">
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="13:14">
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="13:14">
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="13:14">
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="13:14">
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="13:14">
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="13:14">
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="13:14">
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="13:14">
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="13:14">
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="13:14">
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="13:14">
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="13:14">
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="13:14">
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="13:14">
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="13:14">
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="13:14">
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="13:14">
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="13:14">
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="13:14">
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="13:14">
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="13:14">
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="13:14">
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="13:14">
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="13:14">
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="13:14">
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="13:14">
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="13:14">
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="13:14">
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="13:14">
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="13:14">
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="13:14">
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="13:14">
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="13:14">
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="13:14">
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="13:14">
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="13:14">
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="13:14">
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="13:14">
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="13:14">
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="13:14">
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="13:14">
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="13:14">
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="13:14">
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="13:14">
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
     </row>
-    <row r="66" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="13:14">
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
     </row>
-    <row r="67" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="13:14">
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
     </row>
-    <row r="68" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="13:14">
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="13:14">
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="13:14">
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
     </row>
-    <row r="71" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="13:14">
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
     </row>
-    <row r="72" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="13:14">
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
     </row>
-    <row r="73" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="13:14">
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
     </row>
-    <row r="74" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="13:14">
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="13:14">
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
     </row>
-    <row r="76" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="13:14">
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
     </row>
-    <row r="77" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="13:14">
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
     </row>
-    <row r="78" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="13:14">
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
     </row>
-    <row r="79" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="13:14">
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
     </row>
-    <row r="80" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="13:14">
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="13:14">
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="13:14">
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
     </row>
-    <row r="83" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="13:14">
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
     </row>
-    <row r="84" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="13:14">
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
     </row>
-    <row r="85" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="13:14">
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
     </row>
-    <row r="86" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="13:14">
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
     </row>
-    <row r="87" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="13:14">
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
     </row>
-    <row r="88" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="13:14">
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
     </row>
-    <row r="89" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="13:14">
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
     </row>
-    <row r="90" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="13:14">
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
     </row>
-    <row r="91" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="13:14">
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
     </row>
-    <row r="92" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="13:14">
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
     </row>
@@ -6512,20 +6541,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6762,38 +6791,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
-    <ds:schemaRef ds:uri="bda9c1ec-c4e2-44f9-929c-ca399fe36c88"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}"/>
 </file>
--- a/data/bitacora.xlsx
+++ b/data/bitacora.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupokaufmann-my.sharepoint.com/personal/samuel_sanchez_grupokaufmann_com/Documents/Documentos/Dev/bitacora_diaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="305" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C21E82E7-EDCF-44C3-9BAC-062E93F513DE}"/>
+  <xr:revisionPtr revIDLastSave="316" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75E34D15-03CA-467F-9AF3-5A2EEBC2D618}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A9E3F017-9040-47A2-B586-0486128F3261}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$127</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="347">
   <si>
     <t>FLOTA</t>
   </si>
@@ -1075,13 +1075,19 @@
   </si>
   <si>
     <t>Revisado</t>
+  </si>
+  <si>
+    <t>WDB964216L0384156</t>
+  </si>
+  <si>
+    <t>PDCT73</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1310,7 +1316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1404,9 +1410,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1974,25 +1977,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA66EBA-6B88-4C75-8217-0B7E221D898D}">
   <dimension ref="A1:L204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="H144" sqref="H144"/>
+    <sheetView tabSelected="1" topLeftCell="F133" workbookViewId="0">
+      <selection activeCell="I145" sqref="I145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="43" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="79" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="6"/>
+    <col min="11" max="16384" width="11.453125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.45">
+    <row r="1" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2024,7 +2027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.45">
+    <row r="2" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -2047,7 +2050,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="14.45">
+    <row r="3" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -2070,7 +2073,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="14.45">
+    <row r="4" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -2093,7 +2096,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="14.45">
+    <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2116,7 +2119,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="14.45">
+    <row r="6" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2139,7 +2142,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="14.45">
+    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -2162,7 +2165,7 @@
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="1:12" ht="14.45">
+    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -2185,7 +2188,7 @@
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="1:12" ht="14.45">
+    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -2208,7 +2211,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="14.45">
+    <row r="10" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -2231,7 +2234,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="14.45">
+    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2254,7 +2257,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="14.45">
+    <row r="12" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
@@ -2278,7 +2281,7 @@
       <c r="I12" s="12"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:12" ht="14.45">
+    <row r="13" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
@@ -2301,7 +2304,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="14.45">
+    <row r="14" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
@@ -2324,7 +2327,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:12" ht="14.45">
+    <row r="15" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -2347,7 +2350,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:12" ht="14.45">
+    <row r="16" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -2370,7 +2373,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="14.45">
+    <row r="17" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -2393,7 +2396,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" ht="14.45">
+    <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
@@ -2416,7 +2419,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" ht="14.45">
+    <row r="19" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
@@ -2439,7 +2442,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" ht="14.45">
+    <row r="20" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>51</v>
       </c>
@@ -2462,7 +2465,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" ht="14.45">
+    <row r="21" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>51</v>
       </c>
@@ -2485,7 +2488,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" ht="14.45">
+    <row r="22" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>51</v>
       </c>
@@ -2508,7 +2511,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" ht="14.45">
+    <row r="23" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>59</v>
       </c>
@@ -2531,7 +2534,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" ht="14.45">
+    <row r="24" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>59</v>
       </c>
@@ -2554,7 +2557,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="14.45">
+    <row r="25" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>65</v>
       </c>
@@ -2577,7 +2580,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" ht="14.45">
+    <row r="26" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>65</v>
       </c>
@@ -2600,7 +2603,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" ht="14.45">
+    <row r="27" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -2623,7 +2626,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" ht="14.45">
+    <row r="28" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>65</v>
       </c>
@@ -2646,7 +2649,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" ht="14.45">
+    <row r="29" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>65</v>
       </c>
@@ -2675,7 +2678,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.45">
+    <row r="30" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>80</v>
       </c>
@@ -2698,7 +2701,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" ht="14.45">
+    <row r="31" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>80</v>
       </c>
@@ -2721,7 +2724,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" ht="14.45">
+    <row r="32" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>80</v>
       </c>
@@ -2744,7 +2747,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" ht="14.45">
+    <row r="33" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>80</v>
       </c>
@@ -2767,7 +2770,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" ht="14.45">
+    <row r="34" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>80</v>
       </c>
@@ -2790,7 +2793,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" ht="14.45">
+    <row r="35" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>80</v>
       </c>
@@ -2813,7 +2816,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" ht="14.45">
+    <row r="36" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>80</v>
       </c>
@@ -2836,7 +2839,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="1:9" ht="14.45">
+    <row r="37" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>95</v>
       </c>
@@ -2865,7 +2868,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.45">
+    <row r="38" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>95</v>
       </c>
@@ -2894,7 +2897,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.45">
+    <row r="39" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>95</v>
       </c>
@@ -2917,7 +2920,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="1:9" ht="14.45">
+    <row r="40" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>95</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.45">
+    <row r="41" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>95</v>
       </c>
@@ -2975,7 +2978,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.45">
+    <row r="42" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>95</v>
       </c>
@@ -2998,7 +3001,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="1:9" ht="14.45">
+    <row r="43" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>95</v>
       </c>
@@ -3021,7 +3024,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="1:9" ht="14.45">
+    <row r="44" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>95</v>
       </c>
@@ -3044,7 +3047,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="1:9" ht="14.45">
+    <row r="45" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
@@ -3067,7 +3070,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="1:9" ht="14.45">
+    <row r="46" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>95</v>
       </c>
@@ -3096,7 +3099,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.45">
+    <row r="47" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>95</v>
       </c>
@@ -3125,7 +3128,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.45">
+    <row r="48" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>95</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="14.45">
+    <row r="49" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>95</v>
       </c>
@@ -3183,7 +3186,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="14.45">
+    <row r="50" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>95</v>
       </c>
@@ -3206,7 +3209,7 @@
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="1:9" ht="14.45">
+    <row r="51" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>95</v>
       </c>
@@ -3229,7 +3232,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="1:9" ht="14.45">
+    <row r="52" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>95</v>
       </c>
@@ -3252,7 +3255,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="1:9" ht="14.45">
+    <row r="53" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>95</v>
       </c>
@@ -3275,7 +3278,7 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="1:9" ht="14.45">
+    <row r="54" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>95</v>
       </c>
@@ -3298,7 +3301,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="1:9" ht="14.45">
+    <row r="55" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>95</v>
       </c>
@@ -3327,7 +3330,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="14.45">
+    <row r="56" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>95</v>
       </c>
@@ -3356,7 +3359,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="14.45">
+    <row r="57" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>95</v>
       </c>
@@ -3379,7 +3382,7 @@
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
     </row>
-    <row r="58" spans="1:9" ht="14.45">
+    <row r="58" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>95</v>
       </c>
@@ -3402,7 +3405,7 @@
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
     </row>
-    <row r="59" spans="1:9" ht="14.45">
+    <row r="59" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>95</v>
       </c>
@@ -3431,7 +3434,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="14.45">
+    <row r="60" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>95</v>
       </c>
@@ -3454,7 +3457,7 @@
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
     </row>
-    <row r="61" spans="1:9" ht="14.45">
+    <row r="61" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>95</v>
       </c>
@@ -3477,7 +3480,7 @@
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
     </row>
-    <row r="62" spans="1:9" ht="14.45">
+    <row r="62" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>149</v>
       </c>
@@ -3500,7 +3503,7 @@
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
     </row>
-    <row r="63" spans="1:9" ht="14.45">
+    <row r="63" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>149</v>
       </c>
@@ -3523,7 +3526,7 @@
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
     </row>
-    <row r="64" spans="1:9" ht="14.45">
+    <row r="64" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>149</v>
       </c>
@@ -3546,7 +3549,7 @@
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
     </row>
-    <row r="65" spans="1:9" ht="14.45">
+    <row r="65" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>149</v>
       </c>
@@ -3575,7 +3578,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="14.45">
+    <row r="66" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>149</v>
       </c>
@@ -3604,7 +3607,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="14.45">
+    <row r="67" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>149</v>
       </c>
@@ -3627,7 +3630,7 @@
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
     </row>
-    <row r="68" spans="1:9" ht="14.45">
+    <row r="68" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>149</v>
       </c>
@@ -3650,7 +3653,7 @@
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
     </row>
-    <row r="69" spans="1:9" ht="14.45">
+    <row r="69" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>149</v>
       </c>
@@ -3673,7 +3676,7 @@
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
     </row>
-    <row r="70" spans="1:9" ht="14.45">
+    <row r="70" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>149</v>
       </c>
@@ -3696,7 +3699,7 @@
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
     </row>
-    <row r="71" spans="1:9" ht="14.45">
+    <row r="71" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>149</v>
       </c>
@@ -3719,7 +3722,7 @@
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
     </row>
-    <row r="72" spans="1:9" ht="14.45">
+    <row r="72" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>149</v>
       </c>
@@ -3742,7 +3745,7 @@
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
     </row>
-    <row r="73" spans="1:9" ht="14.45">
+    <row r="73" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>172</v>
       </c>
@@ -3765,7 +3768,7 @@
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
     </row>
-    <row r="74" spans="1:9" ht="14.45">
+    <row r="74" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>172</v>
       </c>
@@ -3788,7 +3791,7 @@
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
     </row>
-    <row r="75" spans="1:9" ht="14.45">
+    <row r="75" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>177</v>
       </c>
@@ -3811,7 +3814,7 @@
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
     </row>
-    <row r="76" spans="1:9" ht="14.45">
+    <row r="76" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>177</v>
       </c>
@@ -3834,7 +3837,7 @@
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
     </row>
-    <row r="77" spans="1:9" ht="14.45">
+    <row r="77" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>177</v>
       </c>
@@ -3857,7 +3860,7 @@
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
     </row>
-    <row r="78" spans="1:9" ht="14.45">
+    <row r="78" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>177</v>
       </c>
@@ -3880,7 +3883,7 @@
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
     </row>
-    <row r="79" spans="1:9" ht="14.45">
+    <row r="79" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>177</v>
       </c>
@@ -3903,7 +3906,7 @@
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
     </row>
-    <row r="80" spans="1:9" ht="14.45">
+    <row r="80" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>177</v>
       </c>
@@ -3926,7 +3929,7 @@
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
     </row>
-    <row r="81" spans="1:9" ht="14.45">
+    <row r="81" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>177</v>
       </c>
@@ -3949,7 +3952,7 @@
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
     </row>
-    <row r="82" spans="1:9" ht="14.45">
+    <row r="82" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>177</v>
       </c>
@@ -3972,7 +3975,7 @@
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
     </row>
-    <row r="83" spans="1:9" ht="14.45">
+    <row r="83" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>177</v>
       </c>
@@ -3995,7 +3998,7 @@
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
     </row>
-    <row r="84" spans="1:9" ht="14.45">
+    <row r="84" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>177</v>
       </c>
@@ -4018,7 +4021,7 @@
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
     </row>
-    <row r="85" spans="1:9" ht="14.45">
+    <row r="85" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>177</v>
       </c>
@@ -4041,7 +4044,7 @@
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
     </row>
-    <row r="86" spans="1:9" ht="14.45">
+    <row r="86" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>177</v>
       </c>
@@ -4064,7 +4067,7 @@
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
     </row>
-    <row r="87" spans="1:9" ht="14.45">
+    <row r="87" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>177</v>
       </c>
@@ -4087,7 +4090,7 @@
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
     </row>
-    <row r="88" spans="1:9" ht="14.45">
+    <row r="88" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>177</v>
       </c>
@@ -4110,7 +4113,7 @@
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
     </row>
-    <row r="89" spans="1:9" ht="14.45">
+    <row r="89" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
         <v>177</v>
       </c>
@@ -4133,7 +4136,7 @@
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
     </row>
-    <row r="90" spans="1:9" ht="14.45">
+    <row r="90" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>177</v>
       </c>
@@ -4156,7 +4159,7 @@
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
     </row>
-    <row r="91" spans="1:9" ht="14.45">
+    <row r="91" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>210</v>
       </c>
@@ -4179,7 +4182,7 @@
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
     </row>
-    <row r="92" spans="1:9" ht="14.45">
+    <row r="92" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>210</v>
       </c>
@@ -4202,7 +4205,7 @@
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
     </row>
-    <row r="93" spans="1:9" ht="14.45">
+    <row r="93" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>210</v>
       </c>
@@ -4225,7 +4228,7 @@
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
     </row>
-    <row r="94" spans="1:9" ht="14.45">
+    <row r="94" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>217</v>
       </c>
@@ -4254,7 +4257,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="14.45">
+    <row r="95" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>217</v>
       </c>
@@ -4277,7 +4280,7 @@
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
     </row>
-    <row r="96" spans="1:9" ht="14.45">
+    <row r="96" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>217</v>
       </c>
@@ -4300,7 +4303,7 @@
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
     </row>
-    <row r="97" spans="1:10" ht="14.45">
+    <row r="97" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>217</v>
       </c>
@@ -4323,7 +4326,7 @@
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
     </row>
-    <row r="98" spans="1:10" ht="14.45">
+    <row r="98" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>225</v>
       </c>
@@ -4352,7 +4355,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="14.45">
+    <row r="99" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>225</v>
       </c>
@@ -4375,7 +4378,7 @@
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
     </row>
-    <row r="100" spans="1:10" ht="14.45">
+    <row r="100" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>231</v>
       </c>
@@ -4398,7 +4401,7 @@
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
     </row>
-    <row r="101" spans="1:10" ht="14.45">
+    <row r="101" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>231</v>
       </c>
@@ -4424,7 +4427,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="14.45">
+    <row r="102" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>238</v>
       </c>
@@ -4447,7 +4450,7 @@
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
     </row>
-    <row r="103" spans="1:10" ht="14.45">
+    <row r="103" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>238</v>
       </c>
@@ -4470,7 +4473,7 @@
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
     </row>
-    <row r="104" spans="1:10" ht="14.45">
+    <row r="104" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>238</v>
       </c>
@@ -4493,7 +4496,7 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
     </row>
-    <row r="105" spans="1:10" ht="14.45">
+    <row r="105" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>238</v>
       </c>
@@ -4516,7 +4519,7 @@
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="1:10" ht="14.45">
+    <row r="106" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>238</v>
       </c>
@@ -4539,7 +4542,7 @@
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
     </row>
-    <row r="107" spans="1:10" ht="14.45">
+    <row r="107" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>238</v>
       </c>
@@ -4562,7 +4565,7 @@
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
     </row>
-    <row r="108" spans="1:10" ht="14.45">
+    <row r="108" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>238</v>
       </c>
@@ -4585,7 +4588,7 @@
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
     </row>
-    <row r="109" spans="1:10" ht="14.45">
+    <row r="109" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>238</v>
       </c>
@@ -4608,7 +4611,7 @@
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
     </row>
-    <row r="110" spans="1:10" ht="14.45">
+    <row r="110" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>238</v>
       </c>
@@ -4631,7 +4634,7 @@
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
     </row>
-    <row r="111" spans="1:10" ht="14.45">
+    <row r="111" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>238</v>
       </c>
@@ -4654,7 +4657,7 @@
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
     </row>
-    <row r="112" spans="1:10" ht="14.45">
+    <row r="112" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>238</v>
       </c>
@@ -4677,7 +4680,7 @@
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
     </row>
-    <row r="113" spans="1:9" ht="14.45">
+    <row r="113" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>238</v>
       </c>
@@ -4700,7 +4703,7 @@
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
     </row>
-    <row r="114" spans="1:9" ht="14.45">
+    <row r="114" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>238</v>
       </c>
@@ -4723,7 +4726,7 @@
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
     </row>
-    <row r="115" spans="1:9" ht="14.45">
+    <row r="115" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>238</v>
       </c>
@@ -4746,7 +4749,7 @@
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
     </row>
-    <row r="116" spans="1:9" ht="14.45">
+    <row r="116" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>238</v>
       </c>
@@ -4769,7 +4772,7 @@
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
     </row>
-    <row r="117" spans="1:9" ht="14.45">
+    <row r="117" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>238</v>
       </c>
@@ -4792,7 +4795,7 @@
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
     </row>
-    <row r="118" spans="1:9" ht="14.45">
+    <row r="118" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>238</v>
       </c>
@@ -4815,7 +4818,7 @@
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
     </row>
-    <row r="119" spans="1:9" ht="14.45">
+    <row r="119" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>238</v>
       </c>
@@ -4838,7 +4841,7 @@
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
     </row>
-    <row r="120" spans="1:9" ht="14.45">
+    <row r="120" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>276</v>
       </c>
@@ -4861,7 +4864,7 @@
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
     </row>
-    <row r="121" spans="1:9" ht="14.45">
+    <row r="121" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>276</v>
       </c>
@@ -4884,7 +4887,7 @@
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
     </row>
-    <row r="122" spans="1:9" ht="14.45">
+    <row r="122" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>276</v>
       </c>
@@ -4907,7 +4910,7 @@
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
     </row>
-    <row r="123" spans="1:9" ht="14.45">
+    <row r="123" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>284</v>
       </c>
@@ -4930,7 +4933,7 @@
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
     </row>
-    <row r="124" spans="1:9" ht="14.45">
+    <row r="124" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>287</v>
       </c>
@@ -4953,7 +4956,7 @@
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
     </row>
-    <row r="125" spans="1:9" ht="14.45">
+    <row r="125" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
         <v>287</v>
       </c>
@@ -4976,7 +4979,7 @@
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
     </row>
-    <row r="126" spans="1:9" ht="14.45">
+    <row r="126" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>287</v>
       </c>
@@ -4999,7 +5002,7 @@
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
     </row>
-    <row r="127" spans="1:9" ht="14.45">
+    <row r="127" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>294</v>
       </c>
@@ -5022,7 +5025,7 @@
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
     </row>
-    <row r="128" spans="1:9" ht="14.45">
+    <row r="128" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>297</v>
       </c>
@@ -5049,7 +5052,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="14.45">
+    <row r="129" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>297</v>
       </c>
@@ -5074,7 +5077,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15" customHeight="1">
+    <row r="130" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="33" t="s">
         <v>303</v>
       </c>
@@ -5099,7 +5102,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15" customHeight="1">
+    <row r="131" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="33" t="s">
         <v>307</v>
       </c>
@@ -5124,7 +5127,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15" customHeight="1">
+    <row r="132" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="33" t="s">
         <v>65</v>
       </c>
@@ -5149,7 +5152,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15" customHeight="1">
+    <row r="133" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="33" t="s">
         <v>313</v>
       </c>
@@ -5174,7 +5177,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15" customHeight="1">
+    <row r="134" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="33" t="s">
         <v>313</v>
       </c>
@@ -5199,7 +5202,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15" customHeight="1">
+    <row r="135" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="33" t="s">
         <v>276</v>
       </c>
@@ -5224,7 +5227,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15" customHeight="1">
+    <row r="136" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="33" t="s">
         <v>320</v>
       </c>
@@ -5250,7 +5253,7 @@
       </c>
       <c r="J136" s="38"/>
     </row>
-    <row r="137" spans="1:10" ht="15" customHeight="1">
+    <row r="137" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="33" t="s">
         <v>324</v>
       </c>
@@ -5276,7 +5279,7 @@
       </c>
       <c r="J137" s="38"/>
     </row>
-    <row r="138" spans="1:10" ht="15" customHeight="1">
+    <row r="138" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>329</v>
       </c>
@@ -5300,7 +5303,7 @@
       </c>
       <c r="J138" s="37"/>
     </row>
-    <row r="139" spans="1:10" ht="15" customHeight="1">
+    <row r="139" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>329</v>
       </c>
@@ -5324,7 +5327,7 @@
       </c>
       <c r="J139" s="38"/>
     </row>
-    <row r="140" spans="1:10" ht="15" customHeight="1">
+    <row r="140" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>329</v>
       </c>
@@ -5348,7 +5351,7 @@
       </c>
       <c r="J140" s="38"/>
     </row>
-    <row r="141" spans="1:10" ht="15" customHeight="1">
+    <row r="141" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="33" t="s">
         <v>333</v>
       </c>
@@ -5374,7 +5377,7 @@
       </c>
       <c r="J141" s="38"/>
     </row>
-    <row r="142" spans="1:10" ht="15" customHeight="1">
+    <row r="142" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="33" t="s">
         <v>313</v>
       </c>
@@ -5399,7 +5402,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15" customHeight="1">
+    <row r="143" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>336</v>
       </c>
@@ -5424,14 +5427,14 @@
         <v>79</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15" customHeight="1">
-      <c r="A144" s="44" t="s">
+    <row r="144" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="B144" s="44" t="s">
+      <c r="B144" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="C144" s="44" t="s">
+      <c r="C144" s="40" t="s">
         <v>341</v>
       </c>
       <c r="D144" s="9"/>
@@ -5449,18 +5452,32 @@
         <v>342</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="15" customHeight="1">
-      <c r="A145" s="7"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="40"/>
+    <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C145" s="40" t="s">
+        <v>346</v>
+      </c>
       <c r="D145" s="9"/>
       <c r="E145" s="8"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="13"/>
-      <c r="H145" s="12"/>
-      <c r="I145" s="12"/>
-    </row>
-    <row r="146" spans="1:9" ht="15" customHeight="1">
+      <c r="F145" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G145" s="13">
+        <v>46073</v>
+      </c>
+      <c r="H145" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I145" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="7"/>
       <c r="B146" s="8"/>
       <c r="C146" s="40"/>
@@ -5471,7 +5488,7 @@
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
     </row>
-    <row r="147" spans="1:9" ht="15" customHeight="1">
+    <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="7"/>
       <c r="B147" s="8"/>
       <c r="C147" s="40"/>
@@ -5482,7 +5499,7 @@
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
     </row>
-    <row r="148" spans="1:9" ht="15" customHeight="1">
+    <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="7"/>
       <c r="B148" s="8"/>
       <c r="C148" s="40"/>
@@ -5493,7 +5510,7 @@
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
     </row>
-    <row r="149" spans="1:9" ht="15" customHeight="1">
+    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="7"/>
       <c r="B149" s="8"/>
       <c r="C149" s="40"/>
@@ -5504,7 +5521,7 @@
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
     </row>
-    <row r="150" spans="1:9" ht="15" customHeight="1">
+    <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="7"/>
       <c r="B150" s="8"/>
       <c r="C150" s="40"/>
@@ -5515,7 +5532,7 @@
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
     </row>
-    <row r="151" spans="1:9" ht="15" customHeight="1">
+    <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="7"/>
       <c r="B151" s="8"/>
       <c r="C151" s="40"/>
@@ -5526,7 +5543,7 @@
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
     </row>
-    <row r="152" spans="1:9" ht="15" customHeight="1">
+    <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="7"/>
       <c r="B152" s="8"/>
       <c r="C152" s="40"/>
@@ -5537,7 +5554,7 @@
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
     </row>
-    <row r="153" spans="1:9" ht="15" customHeight="1">
+    <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="7"/>
       <c r="B153" s="8"/>
       <c r="C153" s="40"/>
@@ -5548,7 +5565,7 @@
       <c r="H153" s="12"/>
       <c r="I153" s="12"/>
     </row>
-    <row r="154" spans="1:9" ht="15" customHeight="1">
+    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="7"/>
       <c r="B154" s="8"/>
       <c r="C154" s="40"/>
@@ -5559,7 +5576,7 @@
       <c r="H154" s="12"/>
       <c r="I154" s="12"/>
     </row>
-    <row r="155" spans="1:9" ht="15" customHeight="1">
+    <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="7"/>
       <c r="B155" s="8"/>
       <c r="C155" s="40"/>
@@ -5570,7 +5587,7 @@
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
     </row>
-    <row r="156" spans="1:9" ht="15" customHeight="1">
+    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="7"/>
       <c r="B156" s="8"/>
       <c r="C156" s="40"/>
@@ -5581,7 +5598,7 @@
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
     </row>
-    <row r="157" spans="1:9" ht="15" customHeight="1">
+    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="7"/>
       <c r="B157" s="8"/>
       <c r="C157" s="40"/>
@@ -5592,7 +5609,7 @@
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
     </row>
-    <row r="158" spans="1:9" ht="15" customHeight="1">
+    <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="7"/>
       <c r="B158" s="8"/>
       <c r="C158" s="40"/>
@@ -5603,7 +5620,7 @@
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
     </row>
-    <row r="159" spans="1:9" ht="15" customHeight="1">
+    <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="7"/>
       <c r="B159" s="8"/>
       <c r="C159" s="40"/>
@@ -5614,7 +5631,7 @@
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
     </row>
-    <row r="160" spans="1:9" ht="15" customHeight="1">
+    <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="7"/>
       <c r="B160" s="8"/>
       <c r="C160" s="40"/>
@@ -5625,7 +5642,7 @@
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
     </row>
-    <row r="161" spans="1:9" ht="15" customHeight="1">
+    <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="7"/>
       <c r="B161" s="8"/>
       <c r="C161" s="40"/>
@@ -5636,7 +5653,7 @@
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
     </row>
-    <row r="162" spans="1:9" ht="15" customHeight="1">
+    <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="7"/>
       <c r="B162" s="8"/>
       <c r="C162" s="40"/>
@@ -5647,7 +5664,7 @@
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
     </row>
-    <row r="163" spans="1:9" ht="15" customHeight="1">
+    <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="7"/>
       <c r="B163" s="8"/>
       <c r="C163" s="40"/>
@@ -5658,7 +5675,7 @@
       <c r="H163" s="12"/>
       <c r="I163" s="12"/>
     </row>
-    <row r="164" spans="1:9" ht="15" customHeight="1">
+    <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="7"/>
       <c r="B164" s="8"/>
       <c r="C164" s="40"/>
@@ -5669,7 +5686,7 @@
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>
     </row>
-    <row r="165" spans="1:9" ht="15" customHeight="1">
+    <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="7"/>
       <c r="B165" s="8"/>
       <c r="C165" s="40"/>
@@ -5680,7 +5697,7 @@
       <c r="H165" s="12"/>
       <c r="I165" s="12"/>
     </row>
-    <row r="166" spans="1:9" ht="15" customHeight="1">
+    <row r="166" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="7"/>
       <c r="B166" s="8"/>
       <c r="C166" s="40"/>
@@ -5691,7 +5708,7 @@
       <c r="H166" s="12"/>
       <c r="I166" s="12"/>
     </row>
-    <row r="167" spans="1:9" ht="15" customHeight="1">
+    <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="7"/>
       <c r="B167" s="8"/>
       <c r="C167" s="40"/>
@@ -5702,7 +5719,7 @@
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
     </row>
-    <row r="168" spans="1:9" ht="15" customHeight="1">
+    <row r="168" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="7"/>
       <c r="B168" s="8"/>
       <c r="C168" s="40"/>
@@ -5713,7 +5730,7 @@
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
     </row>
-    <row r="169" spans="1:9" ht="15" customHeight="1">
+    <row r="169" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="7"/>
       <c r="B169" s="8"/>
       <c r="C169" s="40"/>
@@ -5724,7 +5741,7 @@
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
     </row>
-    <row r="170" spans="1:9" ht="15" customHeight="1">
+    <row r="170" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="7"/>
       <c r="B170" s="8"/>
       <c r="C170" s="40"/>
@@ -5735,7 +5752,7 @@
       <c r="H170" s="12"/>
       <c r="I170" s="12"/>
     </row>
-    <row r="171" spans="1:9" ht="15" customHeight="1">
+    <row r="171" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="7"/>
       <c r="B171" s="8"/>
       <c r="C171" s="40"/>
@@ -5746,7 +5763,7 @@
       <c r="H171" s="12"/>
       <c r="I171" s="12"/>
     </row>
-    <row r="172" spans="1:9" ht="15" customHeight="1">
+    <row r="172" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="7"/>
       <c r="B172" s="8"/>
       <c r="C172" s="40"/>
@@ -5757,7 +5774,7 @@
       <c r="H172" s="12"/>
       <c r="I172" s="12"/>
     </row>
-    <row r="173" spans="1:9" ht="15" customHeight="1">
+    <row r="173" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="7"/>
       <c r="B173" s="8"/>
       <c r="C173" s="40"/>
@@ -5768,7 +5785,7 @@
       <c r="H173" s="12"/>
       <c r="I173" s="12"/>
     </row>
-    <row r="174" spans="1:9" ht="15" customHeight="1">
+    <row r="174" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="7"/>
       <c r="B174" s="8"/>
       <c r="C174" s="40"/>
@@ -5779,7 +5796,7 @@
       <c r="H174" s="12"/>
       <c r="I174" s="12"/>
     </row>
-    <row r="175" spans="1:9" ht="15" customHeight="1">
+    <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="7"/>
       <c r="B175" s="8"/>
       <c r="C175" s="40"/>
@@ -5790,7 +5807,7 @@
       <c r="H175" s="12"/>
       <c r="I175" s="12"/>
     </row>
-    <row r="176" spans="1:9" ht="15" customHeight="1">
+    <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="7"/>
       <c r="B176" s="8"/>
       <c r="C176" s="40"/>
@@ -5801,7 +5818,7 @@
       <c r="H176" s="12"/>
       <c r="I176" s="12"/>
     </row>
-    <row r="177" spans="1:9" ht="15" customHeight="1">
+    <row r="177" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="7"/>
       <c r="B177" s="8"/>
       <c r="C177" s="40"/>
@@ -5812,7 +5829,7 @@
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
     </row>
-    <row r="178" spans="1:9" ht="15" customHeight="1">
+    <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="7"/>
       <c r="B178" s="8"/>
       <c r="C178" s="40"/>
@@ -5823,7 +5840,7 @@
       <c r="H178" s="12"/>
       <c r="I178" s="12"/>
     </row>
-    <row r="179" spans="1:9" ht="15" customHeight="1">
+    <row r="179" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="7"/>
       <c r="B179" s="8"/>
       <c r="C179" s="40"/>
@@ -5834,7 +5851,7 @@
       <c r="H179" s="12"/>
       <c r="I179" s="12"/>
     </row>
-    <row r="180" spans="1:9" ht="15" customHeight="1">
+    <row r="180" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="7"/>
       <c r="B180" s="8"/>
       <c r="C180" s="40"/>
@@ -5845,7 +5862,7 @@
       <c r="H180" s="12"/>
       <c r="I180" s="12"/>
     </row>
-    <row r="181" spans="1:9" ht="15" customHeight="1">
+    <row r="181" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="7"/>
       <c r="B181" s="8"/>
       <c r="C181" s="40"/>
@@ -5856,7 +5873,7 @@
       <c r="H181" s="12"/>
       <c r="I181" s="12"/>
     </row>
-    <row r="182" spans="1:9" ht="15" customHeight="1">
+    <row r="182" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="7"/>
       <c r="B182" s="8"/>
       <c r="C182" s="40"/>
@@ -5867,7 +5884,7 @@
       <c r="H182" s="12"/>
       <c r="I182" s="12"/>
     </row>
-    <row r="183" spans="1:9" ht="15" customHeight="1">
+    <row r="183" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="7"/>
       <c r="B183" s="8"/>
       <c r="C183" s="40"/>
@@ -5878,7 +5895,7 @@
       <c r="H183" s="12"/>
       <c r="I183" s="12"/>
     </row>
-    <row r="184" spans="1:9" ht="15" customHeight="1">
+    <row r="184" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="7"/>
       <c r="B184" s="8"/>
       <c r="C184" s="40"/>
@@ -5889,7 +5906,7 @@
       <c r="H184" s="12"/>
       <c r="I184" s="12"/>
     </row>
-    <row r="185" spans="1:9" ht="15" customHeight="1">
+    <row r="185" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="7"/>
       <c r="B185" s="8"/>
       <c r="C185" s="40"/>
@@ -5900,7 +5917,7 @@
       <c r="H185" s="12"/>
       <c r="I185" s="12"/>
     </row>
-    <row r="186" spans="1:9" ht="15" customHeight="1">
+    <row r="186" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="7"/>
       <c r="B186" s="8"/>
       <c r="C186" s="40"/>
@@ -5911,7 +5928,7 @@
       <c r="H186" s="12"/>
       <c r="I186" s="12"/>
     </row>
-    <row r="187" spans="1:9" ht="15" customHeight="1">
+    <row r="187" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="7"/>
       <c r="B187" s="8"/>
       <c r="C187" s="40"/>
@@ -5922,7 +5939,7 @@
       <c r="H187" s="12"/>
       <c r="I187" s="12"/>
     </row>
-    <row r="188" spans="1:9" ht="15" customHeight="1">
+    <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="7"/>
       <c r="B188" s="8"/>
       <c r="C188" s="40"/>
@@ -5933,7 +5950,7 @@
       <c r="H188" s="12"/>
       <c r="I188" s="12"/>
     </row>
-    <row r="189" spans="1:9" ht="15" customHeight="1">
+    <row r="189" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="7"/>
       <c r="B189" s="8"/>
       <c r="C189" s="40"/>
@@ -5944,7 +5961,7 @@
       <c r="H189" s="12"/>
       <c r="I189" s="12"/>
     </row>
-    <row r="190" spans="1:9" ht="15" customHeight="1">
+    <row r="190" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="7"/>
       <c r="B190" s="8"/>
       <c r="C190" s="40"/>
@@ -5955,7 +5972,7 @@
       <c r="H190" s="12"/>
       <c r="I190" s="12"/>
     </row>
-    <row r="191" spans="1:9" ht="15" customHeight="1">
+    <row r="191" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="7"/>
       <c r="B191" s="8"/>
       <c r="C191" s="40"/>
@@ -5966,7 +5983,7 @@
       <c r="H191" s="12"/>
       <c r="I191" s="12"/>
     </row>
-    <row r="192" spans="1:9" ht="15" customHeight="1">
+    <row r="192" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="7"/>
       <c r="B192" s="8"/>
       <c r="C192" s="40"/>
@@ -5977,7 +5994,7 @@
       <c r="H192" s="12"/>
       <c r="I192" s="12"/>
     </row>
-    <row r="193" spans="1:9" ht="15" customHeight="1">
+    <row r="193" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="7"/>
       <c r="B193" s="8"/>
       <c r="C193" s="40"/>
@@ -5988,7 +6005,7 @@
       <c r="H193" s="12"/>
       <c r="I193" s="12"/>
     </row>
-    <row r="194" spans="1:9" ht="15" customHeight="1">
+    <row r="194" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="7"/>
       <c r="B194" s="8"/>
       <c r="C194" s="40"/>
@@ -5999,7 +6016,7 @@
       <c r="H194" s="12"/>
       <c r="I194" s="12"/>
     </row>
-    <row r="195" spans="1:9" ht="15" customHeight="1">
+    <row r="195" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="7"/>
       <c r="B195" s="8"/>
       <c r="C195" s="40"/>
@@ -6010,7 +6027,7 @@
       <c r="H195" s="12"/>
       <c r="I195" s="12"/>
     </row>
-    <row r="196" spans="1:9" ht="15" customHeight="1">
+    <row r="196" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="7"/>
       <c r="B196" s="8"/>
       <c r="C196" s="40"/>
@@ -6021,7 +6038,7 @@
       <c r="H196" s="12"/>
       <c r="I196" s="12"/>
     </row>
-    <row r="197" spans="1:9" ht="15" customHeight="1">
+    <row r="197" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="7"/>
       <c r="B197" s="8"/>
       <c r="C197" s="40"/>
@@ -6032,7 +6049,7 @@
       <c r="H197" s="12"/>
       <c r="I197" s="12"/>
     </row>
-    <row r="198" spans="1:9" ht="15" customHeight="1">
+    <row r="198" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="7"/>
       <c r="B198" s="8"/>
       <c r="C198" s="40"/>
@@ -6043,7 +6060,7 @@
       <c r="H198" s="12"/>
       <c r="I198" s="12"/>
     </row>
-    <row r="199" spans="1:9" ht="15" customHeight="1">
+    <row r="199" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="7"/>
       <c r="B199" s="8"/>
       <c r="C199" s="40"/>
@@ -6054,7 +6071,7 @@
       <c r="H199" s="12"/>
       <c r="I199" s="12"/>
     </row>
-    <row r="200" spans="1:9" ht="15" customHeight="1">
+    <row r="200" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="7"/>
       <c r="B200" s="8"/>
       <c r="C200" s="40"/>
@@ -6065,7 +6082,7 @@
       <c r="H200" s="12"/>
       <c r="I200" s="12"/>
     </row>
-    <row r="201" spans="1:9" ht="15" customHeight="1">
+    <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="7"/>
       <c r="B201" s="8"/>
       <c r="C201" s="40"/>
@@ -6076,7 +6093,7 @@
       <c r="H201" s="12"/>
       <c r="I201" s="12"/>
     </row>
-    <row r="202" spans="1:9" ht="15" customHeight="1">
+    <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="7"/>
       <c r="B202" s="8"/>
       <c r="C202" s="40"/>
@@ -6087,7 +6104,7 @@
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
     </row>
-    <row r="203" spans="1:9" ht="15" customHeight="1">
+    <row r="203" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="7"/>
       <c r="B203" s="8"/>
       <c r="C203" s="40"/>
@@ -6098,7 +6115,7 @@
       <c r="H203" s="12"/>
       <c r="I203" s="12"/>
     </row>
-    <row r="204" spans="1:9" ht="15" customHeight="1">
+    <row r="204" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="7"/>
       <c r="B204" s="8"/>
       <c r="C204" s="40"/>
@@ -6125,29 +6142,29 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="54" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:14">
+    <row r="2" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="4:14">
+    <row r="3" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D3" s="1">
         <v>868589060374017</v>
       </c>
@@ -6165,7 +6182,7 @@
         <v>46043</v>
       </c>
     </row>
-    <row r="4" spans="4:14">
+    <row r="4" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D4" s="1">
         <v>868589060674226</v>
       </c>
@@ -6183,355 +6200,355 @@
         <v>46043</v>
       </c>
     </row>
-    <row r="5" spans="4:14">
+    <row r="5" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="4:14">
+    <row r="6" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="4:14">
+    <row r="7" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="4:14">
+    <row r="8" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="4:14">
+    <row r="10" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="4:14">
+    <row r="11" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="4:14">
+    <row r="12" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="4:14">
+    <row r="13" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="4:14">
+    <row r="14" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="4:14">
+    <row r="15" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="4:14">
+    <row r="16" spans="4:14" x14ac:dyDescent="0.35">
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="13:14">
+    <row r="17" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="13:14">
+    <row r="18" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="13:14">
+    <row r="19" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="13:14">
+    <row r="20" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="13:14">
+    <row r="21" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="13:14">
+    <row r="22" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="13:14">
+    <row r="23" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="13:14">
+    <row r="24" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="13:14">
+    <row r="25" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="13:14">
+    <row r="26" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="13:14">
+    <row r="27" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="13:14">
+    <row r="28" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="13:14">
+    <row r="29" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="13:14">
+    <row r="30" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="13:14">
+    <row r="31" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="13:14">
+    <row r="32" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="13:14">
+    <row r="33" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="13:14">
+    <row r="34" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="13:14">
+    <row r="35" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="13:14">
+    <row r="36" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="13:14">
+    <row r="37" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="13:14">
+    <row r="38" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="13:14">
+    <row r="39" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="13:14">
+    <row r="40" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="13:14">
+    <row r="41" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="13:14">
+    <row r="42" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="13:14">
+    <row r="43" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="13:14">
+    <row r="44" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="13:14">
+    <row r="45" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="13:14">
+    <row r="46" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="13:14">
+    <row r="47" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="13:14">
+    <row r="48" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="13:14">
+    <row r="49" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="13:14">
+    <row r="50" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="13:14">
+    <row r="51" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="13:14">
+    <row r="52" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="13:14">
+    <row r="53" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="13:14">
+    <row r="54" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="13:14">
+    <row r="55" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="13:14">
+    <row r="56" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="13:14">
+    <row r="57" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="13:14">
+    <row r="58" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="13:14">
+    <row r="59" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="13:14">
+    <row r="60" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="13:14">
+    <row r="61" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="13:14">
+    <row r="62" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="13:14">
+    <row r="63" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="13:14">
+    <row r="64" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="13:14">
+    <row r="65" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
     </row>
-    <row r="66" spans="13:14">
+    <row r="66" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
     </row>
-    <row r="67" spans="13:14">
+    <row r="67" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
     </row>
-    <row r="68" spans="13:14">
+    <row r="68" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" spans="13:14">
+    <row r="69" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="13:14">
+    <row r="70" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
     </row>
-    <row r="71" spans="13:14">
+    <row r="71" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
     </row>
-    <row r="72" spans="13:14">
+    <row r="72" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
     </row>
-    <row r="73" spans="13:14">
+    <row r="73" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
     </row>
-    <row r="74" spans="13:14">
+    <row r="74" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" spans="13:14">
+    <row r="75" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
     </row>
-    <row r="76" spans="13:14">
+    <row r="76" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
     </row>
-    <row r="77" spans="13:14">
+    <row r="77" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
     </row>
-    <row r="78" spans="13:14">
+    <row r="78" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
     </row>
-    <row r="79" spans="13:14">
+    <row r="79" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
     </row>
-    <row r="80" spans="13:14">
+    <row r="80" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" spans="13:14">
+    <row r="81" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="13:14">
+    <row r="82" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
     </row>
-    <row r="83" spans="13:14">
+    <row r="83" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
     </row>
-    <row r="84" spans="13:14">
+    <row r="84" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
     </row>
-    <row r="85" spans="13:14">
+    <row r="85" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
     </row>
-    <row r="86" spans="13:14">
+    <row r="86" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
     </row>
-    <row r="87" spans="13:14">
+    <row r="87" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
     </row>
-    <row r="88" spans="13:14">
+    <row r="88" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
     </row>
-    <row r="89" spans="13:14">
+    <row r="89" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
     </row>
-    <row r="90" spans="13:14">
+    <row r="90" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
     </row>
-    <row r="91" spans="13:14">
+    <row r="91" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
     </row>
-    <row r="92" spans="13:14">
+    <row r="92" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
     </row>
@@ -6541,23 +6558,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100027709BF533FA442AFC4A8B2C0110727" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a37fc0d7c302f7619d355a49e1f175a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xmlns:ns4="bda9c1ec-c4e2-44f9-929c-ca399fe36c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="01250a30c504a808427f15ccf149ee4d" ns3:_="" ns4:_="">
     <xsd:import namespace="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
@@ -6790,14 +6790,56 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
+    <ds:schemaRef ds:uri="bda9c1ec-c4e2-44f9-929c-ca399fe36c88"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/bitacora.xlsx
+++ b/data/bitacora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupokaufmann-my.sharepoint.com/personal/samuel_sanchez_grupokaufmann_com/Documents/Documentos/Dev/bitacora_diaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="316" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75E34D15-03CA-467F-9AF3-5A2EEBC2D618}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{658D5BCE-4A70-4B9F-AC5B-6B4CBA285909}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A9E3F017-9040-47A2-B586-0486128F3261}"/>
+    <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="15720" xr2:uid="{A9E3F017-9040-47A2-B586-0486128F3261}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="347">
   <si>
     <t>FLOTA</t>
   </si>
@@ -1639,9 +1639,28 @@
 </styleSheet>
 </file>
 
+<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
+<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}" name="Tabla1" displayName="Tabla1" ref="A1:J205" totalsRowShown="0">
-  <autoFilter ref="A1:J205" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}"/>
+  <autoFilter ref="A1:J205" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}">
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="ALEJANDRO ALBERTO VILLAGRA ORÓSTEGUI"/>
+        <filter val="ARTURO ANDRÉS SILVA ESPERGUE"/>
+        <filter val="BORIS ISRAEL CRUCES MARTÍNEZ"/>
+        <filter val="RODRIGO ANDRÉS INZUNZA LABRA"/>
+        <filter val="SERGIO ALBERTO ORELLANA VEGA"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="No revisada"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0A7C6585-5C8B-46BF-ABA0-2DA806D161DC}" name="FLOTA" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{EB7792BB-219D-496F-9F16-84F6805E0CB0}" name="VIN CON PROBLEMAS" dataDxfId="8"/>
@@ -1977,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA66EBA-6B88-4C75-8217-0B7E221D898D}">
   <dimension ref="A1:L204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F133" workbookViewId="0">
-      <selection activeCell="I145" sqref="I145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2027,7 +2046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -2050,7 +2069,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -2073,7 +2092,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -2096,7 +2115,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2119,7 +2138,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2142,7 +2161,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -2165,7 +2184,7 @@
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -2188,7 +2207,7 @@
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -2211,7 +2230,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -2234,7 +2253,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2580,7 +2599,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>65</v>
       </c>
@@ -2603,7 +2622,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -2626,7 +2645,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>65</v>
       </c>
@@ -2649,7 +2668,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>65</v>
       </c>
@@ -2678,7 +2697,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>80</v>
       </c>
@@ -2701,7 +2720,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>80</v>
       </c>
@@ -2724,7 +2743,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>80</v>
       </c>
@@ -2747,7 +2766,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>80</v>
       </c>
@@ -2770,7 +2789,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>80</v>
       </c>
@@ -2793,7 +2812,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>80</v>
       </c>
@@ -2816,7 +2835,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>80</v>
       </c>
@@ -2839,7 +2858,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>95</v>
       </c>
@@ -2868,7 +2887,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>95</v>
       </c>
@@ -2920,7 +2939,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>95</v>
       </c>
@@ -2949,7 +2968,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>95</v>
       </c>
@@ -3070,7 +3089,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>95</v>
       </c>
@@ -3099,7 +3118,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>95</v>
       </c>
@@ -3128,7 +3147,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>95</v>
       </c>
@@ -3157,7 +3176,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>95</v>
       </c>
@@ -3255,7 +3274,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>95</v>
       </c>
@@ -3272,11 +3291,17 @@
         <v>98</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
+        <v>77</v>
+      </c>
+      <c r="G53" s="13">
+        <v>46078</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="54" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
@@ -3301,7 +3326,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>95</v>
       </c>
@@ -3330,7 +3355,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>95</v>
       </c>
@@ -3359,7 +3384,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>95</v>
       </c>
@@ -3376,11 +3401,17 @@
         <v>98</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="11"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
+        <v>77</v>
+      </c>
+      <c r="G57" s="13">
+        <v>46078</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="58" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
@@ -3405,7 +3436,7 @@
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
     </row>
-    <row r="59" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>95</v>
       </c>
@@ -3549,7 +3580,7 @@
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
     </row>
-    <row r="65" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>149</v>
       </c>
@@ -3578,7 +3609,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>149</v>
       </c>
@@ -3607,7 +3638,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>149</v>
       </c>
@@ -3624,11 +3655,17 @@
         <v>62</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="11"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
+        <v>77</v>
+      </c>
+      <c r="G67" s="13">
+        <v>46077</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="68" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
@@ -3745,7 +3782,7 @@
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
     </row>
-    <row r="73" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>172</v>
       </c>
@@ -3768,7 +3805,7 @@
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
     </row>
-    <row r="74" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>172</v>
       </c>
@@ -4159,7 +4196,7 @@
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
     </row>
-    <row r="91" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>210</v>
       </c>
@@ -4182,7 +4219,7 @@
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
     </row>
-    <row r="92" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>210</v>
       </c>
@@ -4205,7 +4242,7 @@
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
     </row>
-    <row r="93" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>210</v>
       </c>
@@ -4228,7 +4265,7 @@
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
     </row>
-    <row r="94" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>217</v>
       </c>
@@ -4326,7 +4363,7 @@
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
     </row>
-    <row r="98" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>225</v>
       </c>
@@ -4427,7 +4464,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>238</v>
       </c>
@@ -4450,7 +4487,7 @@
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
     </row>
-    <row r="103" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>238</v>
       </c>
@@ -4473,7 +4510,7 @@
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
     </row>
-    <row r="104" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>238</v>
       </c>
@@ -4496,7 +4533,7 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
     </row>
-    <row r="105" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>238</v>
       </c>
@@ -4519,7 +4556,7 @@
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>238</v>
       </c>
@@ -4542,7 +4579,7 @@
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
     </row>
-    <row r="107" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>238</v>
       </c>
@@ -4565,7 +4602,7 @@
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
     </row>
-    <row r="108" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>238</v>
       </c>
@@ -4588,7 +4625,7 @@
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
     </row>
-    <row r="109" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>238</v>
       </c>
@@ -4611,7 +4648,7 @@
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
     </row>
-    <row r="110" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>238</v>
       </c>
@@ -4634,7 +4671,7 @@
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
     </row>
-    <row r="111" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>238</v>
       </c>
@@ -4657,7 +4694,7 @@
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
     </row>
-    <row r="112" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>238</v>
       </c>
@@ -4680,7 +4717,7 @@
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
     </row>
-    <row r="113" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>238</v>
       </c>
@@ -4703,7 +4740,7 @@
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
     </row>
-    <row r="114" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>238</v>
       </c>
@@ -4726,7 +4763,7 @@
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
     </row>
-    <row r="115" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>238</v>
       </c>
@@ -4749,7 +4786,7 @@
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
     </row>
-    <row r="116" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>238</v>
       </c>
@@ -4772,7 +4809,7 @@
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
     </row>
-    <row r="117" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>238</v>
       </c>
@@ -4795,7 +4832,7 @@
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
     </row>
-    <row r="118" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>238</v>
       </c>
@@ -4818,7 +4855,7 @@
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
     </row>
-    <row r="119" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>238</v>
       </c>
@@ -4887,7 +4924,7 @@
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
     </row>
-    <row r="122" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>276</v>
       </c>
@@ -4933,7 +4970,7 @@
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
     </row>
-    <row r="124" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>287</v>
       </c>
@@ -4956,7 +4993,7 @@
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
     </row>
-    <row r="125" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
         <v>287</v>
       </c>
@@ -4979,7 +5016,7 @@
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
     </row>
-    <row r="126" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>287</v>
       </c>
@@ -5025,7 +5062,7 @@
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
     </row>
-    <row r="128" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>297</v>
       </c>
@@ -5052,7 +5089,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>297</v>
       </c>
@@ -5077,7 +5114,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="33" t="s">
         <v>303</v>
       </c>
@@ -5102,7 +5139,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="33" t="s">
         <v>307</v>
       </c>
@@ -5127,7 +5164,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="33" t="s">
         <v>65</v>
       </c>
@@ -5152,7 +5189,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="33" t="s">
         <v>313</v>
       </c>
@@ -5177,7 +5214,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="33" t="s">
         <v>313</v>
       </c>
@@ -5202,7 +5239,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="33" t="s">
         <v>276</v>
       </c>
@@ -5227,7 +5264,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="33" t="s">
         <v>320</v>
       </c>
@@ -5253,7 +5290,7 @@
       </c>
       <c r="J136" s="38"/>
     </row>
-    <row r="137" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="33" t="s">
         <v>324</v>
       </c>
@@ -5279,7 +5316,7 @@
       </c>
       <c r="J137" s="38"/>
     </row>
-    <row r="138" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>329</v>
       </c>
@@ -5303,7 +5340,7 @@
       </c>
       <c r="J138" s="37"/>
     </row>
-    <row r="139" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>329</v>
       </c>
@@ -5327,7 +5364,7 @@
       </c>
       <c r="J139" s="38"/>
     </row>
-    <row r="140" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>329</v>
       </c>
@@ -5351,7 +5388,7 @@
       </c>
       <c r="J140" s="38"/>
     </row>
-    <row r="141" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="33" t="s">
         <v>333</v>
       </c>
@@ -5377,7 +5414,7 @@
       </c>
       <c r="J141" s="38"/>
     </row>
-    <row r="142" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="33" t="s">
         <v>313</v>
       </c>
@@ -5402,7 +5439,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>336</v>
       </c>
@@ -5427,7 +5464,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="33" t="s">
         <v>339</v>
       </c>
@@ -5452,7 +5489,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
         <v>65</v>
       </c>
@@ -6791,20 +6828,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6827,14 +6864,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -6842,4 +6871,12 @@
     <ds:schemaRef ds:uri="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/bitacora.xlsx
+++ b/data/bitacora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupokaufmann-my.sharepoint.com/personal/samuel_sanchez_grupokaufmann_com/Documents/Documentos/Dev/bitacora_diaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="330" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{658D5BCE-4A70-4B9F-AC5B-6B4CBA285909}"/>
+  <xr:revisionPtr revIDLastSave="332" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5493E585-D723-4415-B212-F30C83EEE26B}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="15720" xr2:uid="{A9E3F017-9040-47A2-B586-0486128F3261}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A9E3F017-9040-47A2-B586-0486128F3261}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1639,28 +1639,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}" name="Tabla1" displayName="Tabla1" ref="A1:J205" totalsRowShown="0">
-  <autoFilter ref="A1:J205" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}">
-    <filterColumn colId="4">
-      <filters blank="1">
-        <filter val="ALEJANDRO ALBERTO VILLAGRA ORÓSTEGUI"/>
-        <filter val="ARTURO ANDRÉS SILVA ESPERGUE"/>
-        <filter val="BORIS ISRAEL CRUCES MARTÍNEZ"/>
-        <filter val="RODRIGO ANDRÉS INZUNZA LABRA"/>
-        <filter val="SERGIO ALBERTO ORELLANA VEGA"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters blank="1">
-        <filter val="No revisada"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J205" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0A7C6585-5C8B-46BF-ABA0-2DA806D161DC}" name="FLOTA" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{EB7792BB-219D-496F-9F16-84F6805E0CB0}" name="VIN CON PROBLEMAS" dataDxfId="8"/>
@@ -1996,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA66EBA-6B88-4C75-8217-0B7E221D898D}">
   <dimension ref="A1:L204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2046,7 +2027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -2069,7 +2050,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -2092,7 +2073,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -2115,7 +2096,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2138,7 +2119,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2161,7 +2142,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -2184,7 +2165,7 @@
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -2207,7 +2188,7 @@
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -2230,7 +2211,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -2253,7 +2234,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2599,7 +2580,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>65</v>
       </c>
@@ -2622,7 +2603,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -2645,7 +2626,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>65</v>
       </c>
@@ -2668,7 +2649,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>65</v>
       </c>
@@ -2697,7 +2678,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>80</v>
       </c>
@@ -2720,7 +2701,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>80</v>
       </c>
@@ -2743,7 +2724,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>80</v>
       </c>
@@ -2766,7 +2747,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>80</v>
       </c>
@@ -2789,7 +2770,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>80</v>
       </c>
@@ -2812,7 +2793,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>80</v>
       </c>
@@ -2835,7 +2816,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>80</v>
       </c>
@@ -2858,7 +2839,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>95</v>
       </c>
@@ -2887,7 +2868,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>95</v>
       </c>
@@ -2939,7 +2920,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>95</v>
       </c>
@@ -2968,7 +2949,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>95</v>
       </c>
@@ -3089,7 +3070,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>95</v>
       </c>
@@ -3118,7 +3099,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>95</v>
       </c>
@@ -3147,7 +3128,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>95</v>
       </c>
@@ -3176,7 +3157,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>95</v>
       </c>
@@ -3274,7 +3255,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>95</v>
       </c>
@@ -3326,7 +3307,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>95</v>
       </c>
@@ -3355,7 +3336,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>95</v>
       </c>
@@ -3384,7 +3365,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>95</v>
       </c>
@@ -3436,7 +3417,7 @@
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
     </row>
-    <row r="59" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>95</v>
       </c>
@@ -3580,7 +3561,7 @@
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
     </row>
-    <row r="65" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>149</v>
       </c>
@@ -3609,7 +3590,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>149</v>
       </c>
@@ -3638,7 +3619,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>149</v>
       </c>
@@ -3782,7 +3763,7 @@
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
     </row>
-    <row r="73" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>172</v>
       </c>
@@ -3805,7 +3786,7 @@
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
     </row>
-    <row r="74" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>172</v>
       </c>
@@ -4196,7 +4177,7 @@
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
     </row>
-    <row r="91" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>210</v>
       </c>
@@ -4219,7 +4200,7 @@
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
     </row>
-    <row r="92" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>210</v>
       </c>
@@ -4242,7 +4223,7 @@
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
     </row>
-    <row r="93" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>210</v>
       </c>
@@ -4265,7 +4246,7 @@
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
     </row>
-    <row r="94" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>217</v>
       </c>
@@ -4363,7 +4344,7 @@
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
     </row>
-    <row r="98" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>225</v>
       </c>
@@ -4464,7 +4445,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>238</v>
       </c>
@@ -4487,7 +4468,7 @@
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
     </row>
-    <row r="103" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>238</v>
       </c>
@@ -4510,7 +4491,7 @@
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
     </row>
-    <row r="104" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>238</v>
       </c>
@@ -4533,7 +4514,7 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
     </row>
-    <row r="105" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>238</v>
       </c>
@@ -4556,7 +4537,7 @@
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>238</v>
       </c>
@@ -4579,7 +4560,7 @@
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
     </row>
-    <row r="107" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>238</v>
       </c>
@@ -4602,7 +4583,7 @@
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
     </row>
-    <row r="108" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>238</v>
       </c>
@@ -4625,7 +4606,7 @@
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
     </row>
-    <row r="109" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>238</v>
       </c>
@@ -4648,7 +4629,7 @@
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
     </row>
-    <row r="110" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>238</v>
       </c>
@@ -4671,7 +4652,7 @@
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
     </row>
-    <row r="111" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>238</v>
       </c>
@@ -4694,7 +4675,7 @@
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
     </row>
-    <row r="112" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>238</v>
       </c>
@@ -4717,7 +4698,7 @@
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
     </row>
-    <row r="113" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>238</v>
       </c>
@@ -4740,7 +4721,7 @@
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
     </row>
-    <row r="114" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>238</v>
       </c>
@@ -4763,7 +4744,7 @@
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
     </row>
-    <row r="115" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>238</v>
       </c>
@@ -4786,7 +4767,7 @@
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
     </row>
-    <row r="116" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>238</v>
       </c>
@@ -4809,7 +4790,7 @@
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
     </row>
-    <row r="117" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>238</v>
       </c>
@@ -4832,7 +4813,7 @@
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
     </row>
-    <row r="118" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>238</v>
       </c>
@@ -4855,7 +4836,7 @@
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
     </row>
-    <row r="119" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>238</v>
       </c>
@@ -4924,7 +4905,7 @@
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
     </row>
-    <row r="122" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>276</v>
       </c>
@@ -4970,7 +4951,7 @@
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
     </row>
-    <row r="124" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>287</v>
       </c>
@@ -4993,7 +4974,7 @@
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
     </row>
-    <row r="125" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
         <v>287</v>
       </c>
@@ -5016,7 +4997,7 @@
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
     </row>
-    <row r="126" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>287</v>
       </c>
@@ -5062,7 +5043,7 @@
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
     </row>
-    <row r="128" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>297</v>
       </c>
@@ -5089,7 +5070,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>297</v>
       </c>
@@ -5114,7 +5095,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="33" t="s">
         <v>303</v>
       </c>
@@ -5139,7 +5120,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="33" t="s">
         <v>307</v>
       </c>
@@ -5164,7 +5145,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="33" t="s">
         <v>65</v>
       </c>
@@ -5189,7 +5170,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="33" t="s">
         <v>313</v>
       </c>
@@ -5214,7 +5195,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="33" t="s">
         <v>313</v>
       </c>
@@ -5239,7 +5220,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="33" t="s">
         <v>276</v>
       </c>
@@ -5264,7 +5245,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="33" t="s">
         <v>320</v>
       </c>
@@ -5290,7 +5271,7 @@
       </c>
       <c r="J136" s="38"/>
     </row>
-    <row r="137" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="33" t="s">
         <v>324</v>
       </c>
@@ -5316,7 +5297,7 @@
       </c>
       <c r="J137" s="38"/>
     </row>
-    <row r="138" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>329</v>
       </c>
@@ -5340,7 +5321,7 @@
       </c>
       <c r="J138" s="37"/>
     </row>
-    <row r="139" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>329</v>
       </c>
@@ -5364,7 +5345,7 @@
       </c>
       <c r="J139" s="38"/>
     </row>
-    <row r="140" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>329</v>
       </c>
@@ -5388,7 +5369,7 @@
       </c>
       <c r="J140" s="38"/>
     </row>
-    <row r="141" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="33" t="s">
         <v>333</v>
       </c>
@@ -5414,7 +5395,7 @@
       </c>
       <c r="J141" s="38"/>
     </row>
-    <row r="142" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="33" t="s">
         <v>313</v>
       </c>
@@ -5439,7 +5420,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>336</v>
       </c>
@@ -5464,7 +5445,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="33" t="s">
         <v>339</v>
       </c>
@@ -5489,7 +5470,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
         <v>65</v>
       </c>
@@ -6595,6 +6576,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100027709BF533FA442AFC4A8B2C0110727" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a37fc0d7c302f7619d355a49e1f175a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xmlns:ns4="bda9c1ec-c4e2-44f9-929c-ca399fe36c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="01250a30c504a808427f15ccf149ee4d" ns3:_="" ns4:_="">
     <xsd:import namespace="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
@@ -6827,24 +6825,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6861,22 +6860,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/bitacora.xlsx
+++ b/data/bitacora.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29819"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupokaufmann-my.sharepoint.com/personal/samuel_sanchez_grupokaufmann_com/Documents/Documentos/Dev/bitacora_diaria/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="332" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5493E585-D723-4415-B212-F30C83EEE26B}"/>
+  <xr:revisionPtr revIDLastSave="335" documentId="8_{4616FF0F-C10E-4DFE-8F27-869B9C60E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ACB77ED-ACC9-43BA-A194-CDEBA9184811}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A9E3F017-9040-47A2-B586-0486128F3261}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$127</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1071,23 +1071,23 @@
     <t xml:space="preserve">Kamaleon 1 </t>
   </si>
   <si>
+    <t>WDB964216L0384156</t>
+  </si>
+  <si>
+    <t>PDCT73</t>
+  </si>
+  <si>
     <t>IMEI</t>
   </si>
   <si>
     <t>Revisado</t>
-  </si>
-  <si>
-    <t>WDB964216L0384156</t>
-  </si>
-  <si>
-    <t>PDCT73</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1641,7 +1641,17 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}" name="Tabla1" displayName="Tabla1" ref="A1:J205" totalsRowShown="0">
-  <autoFilter ref="A1:J205" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}"/>
+  <autoFilter ref="A1:J205" xr:uid="{40364ABC-409D-4532-8E14-9D155F80C509}">
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="ALEJANDRO ALBERTO VILLAGRA ORÓSTEGUI"/>
+        <filter val="ARTURO ANDRÉS SILVA ESPERGUE"/>
+        <filter val="BORIS ISRAEL CRUCES MARTÍNEZ"/>
+        <filter val="RODRIGO ANDRÉS INZUNZA LABRA"/>
+        <filter val="SERGIO ALBERTO ORELLANA VEGA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0A7C6585-5C8B-46BF-ABA0-2DA806D161DC}" name="FLOTA" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{EB7792BB-219D-496F-9F16-84F6805E0CB0}" name="VIN CON PROBLEMAS" dataDxfId="8"/>
@@ -1977,25 +1987,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA66EBA-6B88-4C75-8217-0B7E221D898D}">
   <dimension ref="A1:L204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="43" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.81640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="79" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.453125" style="6"/>
+    <col min="11" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="14.45">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2027,7 +2037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="14.45" hidden="1">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -2050,7 +2060,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="14.45" hidden="1">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -2073,7 +2083,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="14.45" hidden="1">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -2096,7 +2106,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="14.45" hidden="1">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2119,7 +2129,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="14.45" hidden="1">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2142,7 +2152,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="14.45" hidden="1">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -2165,7 +2175,7 @@
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="14.45" hidden="1">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -2188,7 +2198,7 @@
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="14.45" hidden="1">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -2211,7 +2221,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="14.45" hidden="1">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -2234,7 +2244,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="14.45" hidden="1">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2257,7 +2267,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="14.45">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
@@ -2281,7 +2291,7 @@
       <c r="I12" s="12"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="14.45">
       <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
@@ -2304,7 +2314,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="14.45">
       <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
@@ -2327,7 +2337,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="14.45">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -2350,7 +2360,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="14.45">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -2373,7 +2383,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="14.45">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -2396,7 +2406,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="14.45">
       <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
@@ -2419,7 +2429,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="14.45">
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
@@ -2442,7 +2452,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="14.45">
       <c r="A20" s="7" t="s">
         <v>51</v>
       </c>
@@ -2465,7 +2475,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="14.45">
       <c r="A21" s="7" t="s">
         <v>51</v>
       </c>
@@ -2488,7 +2498,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="14.45">
       <c r="A22" s="7" t="s">
         <v>51</v>
       </c>
@@ -2511,7 +2521,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="14.45">
       <c r="A23" s="7" t="s">
         <v>59</v>
       </c>
@@ -2534,7 +2544,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="14.45">
       <c r="A24" s="7" t="s">
         <v>59</v>
       </c>
@@ -2557,7 +2567,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="14.45">
       <c r="A25" s="7" t="s">
         <v>65</v>
       </c>
@@ -2580,7 +2590,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="14.45">
       <c r="A26" s="7" t="s">
         <v>65</v>
       </c>
@@ -2603,7 +2613,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="14.45">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -2626,7 +2636,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="14.45">
       <c r="A28" s="7" t="s">
         <v>65</v>
       </c>
@@ -2649,7 +2659,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="14.45">
       <c r="A29" s="7" t="s">
         <v>65</v>
       </c>
@@ -2678,7 +2688,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="14.45" hidden="1">
       <c r="A30" s="7" t="s">
         <v>80</v>
       </c>
@@ -2701,7 +2711,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="14.45" hidden="1">
       <c r="A31" s="7" t="s">
         <v>80</v>
       </c>
@@ -2724,7 +2734,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="14.45" hidden="1">
       <c r="A32" s="7" t="s">
         <v>80</v>
       </c>
@@ -2747,7 +2757,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="14.45" hidden="1">
       <c r="A33" s="7" t="s">
         <v>80</v>
       </c>
@@ -2770,7 +2780,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="14.45" hidden="1">
       <c r="A34" s="7" t="s">
         <v>80</v>
       </c>
@@ -2793,7 +2803,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="14.45" hidden="1">
       <c r="A35" s="7" t="s">
         <v>80</v>
       </c>
@@ -2816,7 +2826,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="14.45" hidden="1">
       <c r="A36" s="7" t="s">
         <v>80</v>
       </c>
@@ -2839,7 +2849,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="14.45">
       <c r="A37" s="7" t="s">
         <v>95</v>
       </c>
@@ -2868,7 +2878,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="14.45">
       <c r="A38" s="7" t="s">
         <v>95</v>
       </c>
@@ -2897,7 +2907,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="14.45">
       <c r="A39" s="7" t="s">
         <v>95</v>
       </c>
@@ -2920,7 +2930,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="14.45">
       <c r="A40" s="7" t="s">
         <v>95</v>
       </c>
@@ -2949,7 +2959,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="14.45">
       <c r="A41" s="7" t="s">
         <v>95</v>
       </c>
@@ -2978,7 +2988,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="14.45">
       <c r="A42" s="7" t="s">
         <v>95</v>
       </c>
@@ -3001,7 +3011,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="14.45">
       <c r="A43" s="7" t="s">
         <v>95</v>
       </c>
@@ -3024,7 +3034,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="14.45">
       <c r="A44" s="7" t="s">
         <v>95</v>
       </c>
@@ -3047,7 +3057,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="14.45">
       <c r="A45" s="7" t="s">
         <v>95</v>
       </c>
@@ -3070,7 +3080,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="14.45">
       <c r="A46" s="7" t="s">
         <v>95</v>
       </c>
@@ -3099,7 +3109,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="14.45">
       <c r="A47" s="7" t="s">
         <v>95</v>
       </c>
@@ -3128,7 +3138,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="14.45">
       <c r="A48" s="7" t="s">
         <v>95</v>
       </c>
@@ -3157,7 +3167,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="14.45">
       <c r="A49" s="7" t="s">
         <v>95</v>
       </c>
@@ -3186,7 +3196,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="14.45">
       <c r="A50" s="7" t="s">
         <v>95</v>
       </c>
@@ -3209,7 +3219,7 @@
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="14.45">
       <c r="A51" s="7" t="s">
         <v>95</v>
       </c>
@@ -3232,7 +3242,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="14.45">
       <c r="A52" s="7" t="s">
         <v>95</v>
       </c>
@@ -3255,7 +3265,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="14.45">
       <c r="A53" s="7" t="s">
         <v>95</v>
       </c>
@@ -3284,7 +3294,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="14.45">
       <c r="A54" s="7" t="s">
         <v>95</v>
       </c>
@@ -3307,7 +3317,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="14.45">
       <c r="A55" s="7" t="s">
         <v>95</v>
       </c>
@@ -3336,7 +3346,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="14.45">
       <c r="A56" s="7" t="s">
         <v>95</v>
       </c>
@@ -3365,7 +3375,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="14.45">
       <c r="A57" s="7" t="s">
         <v>95</v>
       </c>
@@ -3394,7 +3404,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="14.45">
       <c r="A58" s="7" t="s">
         <v>95</v>
       </c>
@@ -3417,7 +3427,7 @@
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
     </row>
-    <row r="59" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="14.45">
       <c r="A59" s="7" t="s">
         <v>95</v>
       </c>
@@ -3446,7 +3456,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="14.45">
       <c r="A60" s="7" t="s">
         <v>95</v>
       </c>
@@ -3469,7 +3479,7 @@
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
     </row>
-    <row r="61" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="14.45">
       <c r="A61" s="7" t="s">
         <v>95</v>
       </c>
@@ -3492,7 +3502,7 @@
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
     </row>
-    <row r="62" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="14.45">
       <c r="A62" s="7" t="s">
         <v>149</v>
       </c>
@@ -3515,7 +3525,7 @@
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
     </row>
-    <row r="63" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="14.45">
       <c r="A63" s="7" t="s">
         <v>149</v>
       </c>
@@ -3538,7 +3548,7 @@
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
     </row>
-    <row r="64" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="14.45">
       <c r="A64" s="7" t="s">
         <v>149</v>
       </c>
@@ -3561,7 +3571,7 @@
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
     </row>
-    <row r="65" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="14.45">
       <c r="A65" s="7" t="s">
         <v>149</v>
       </c>
@@ -3590,7 +3600,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="14.45">
       <c r="A66" s="7" t="s">
         <v>149</v>
       </c>
@@ -3619,7 +3629,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="14.45">
       <c r="A67" s="7" t="s">
         <v>149</v>
       </c>
@@ -3648,7 +3658,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="14.45">
       <c r="A68" s="7" t="s">
         <v>149</v>
       </c>
@@ -3671,7 +3681,7 @@
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
     </row>
-    <row r="69" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="14.45">
       <c r="A69" s="7" t="s">
         <v>149</v>
       </c>
@@ -3694,7 +3704,7 @@
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
     </row>
-    <row r="70" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="14.45">
       <c r="A70" s="7" t="s">
         <v>149</v>
       </c>
@@ -3717,7 +3727,7 @@
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
     </row>
-    <row r="71" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="14.45">
       <c r="A71" s="7" t="s">
         <v>149</v>
       </c>
@@ -3740,7 +3750,7 @@
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
     </row>
-    <row r="72" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" ht="14.45">
       <c r="A72" s="7" t="s">
         <v>149</v>
       </c>
@@ -3763,7 +3773,7 @@
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
     </row>
-    <row r="73" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" ht="14.45" hidden="1">
       <c r="A73" s="7" t="s">
         <v>172</v>
       </c>
@@ -3786,7 +3796,7 @@
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
     </row>
-    <row r="74" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" ht="14.45" hidden="1">
       <c r="A74" s="7" t="s">
         <v>172</v>
       </c>
@@ -3809,7 +3819,7 @@
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
     </row>
-    <row r="75" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" ht="14.45">
       <c r="A75" s="7" t="s">
         <v>177</v>
       </c>
@@ -3832,7 +3842,7 @@
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
     </row>
-    <row r="76" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" ht="14.45">
       <c r="A76" s="7" t="s">
         <v>177</v>
       </c>
@@ -3855,7 +3865,7 @@
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
     </row>
-    <row r="77" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" ht="14.45">
       <c r="A77" s="7" t="s">
         <v>177</v>
       </c>
@@ -3878,7 +3888,7 @@
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
     </row>
-    <row r="78" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" ht="14.45">
       <c r="A78" s="7" t="s">
         <v>177</v>
       </c>
@@ -3901,7 +3911,7 @@
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
     </row>
-    <row r="79" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" ht="14.45">
       <c r="A79" s="7" t="s">
         <v>177</v>
       </c>
@@ -3924,7 +3934,7 @@
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
     </row>
-    <row r="80" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" ht="14.45">
       <c r="A80" s="7" t="s">
         <v>177</v>
       </c>
@@ -3947,7 +3957,7 @@
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
     </row>
-    <row r="81" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" ht="14.45">
       <c r="A81" s="7" t="s">
         <v>177</v>
       </c>
@@ -3970,7 +3980,7 @@
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
     </row>
-    <row r="82" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" ht="14.45">
       <c r="A82" s="7" t="s">
         <v>177</v>
       </c>
@@ -3993,7 +4003,7 @@
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
     </row>
-    <row r="83" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" ht="14.45">
       <c r="A83" s="7" t="s">
         <v>177</v>
       </c>
@@ -4016,7 +4026,7 @@
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
     </row>
-    <row r="84" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" ht="14.45">
       <c r="A84" s="7" t="s">
         <v>177</v>
       </c>
@@ -4039,7 +4049,7 @@
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
     </row>
-    <row r="85" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" ht="14.45">
       <c r="A85" s="7" t="s">
         <v>177</v>
       </c>
@@ -4062,7 +4072,7 @@
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
     </row>
-    <row r="86" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" ht="14.45">
       <c r="A86" s="7" t="s">
         <v>177</v>
       </c>
@@ -4085,7 +4095,7 @@
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
     </row>
-    <row r="87" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" ht="14.45">
       <c r="A87" s="7" t="s">
         <v>177</v>
       </c>
@@ -4108,7 +4118,7 @@
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
     </row>
-    <row r="88" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" ht="14.45">
       <c r="A88" s="7" t="s">
         <v>177</v>
       </c>
@@ -4131,7 +4141,7 @@
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
     </row>
-    <row r="89" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" ht="14.45">
       <c r="A89" s="7" t="s">
         <v>177</v>
       </c>
@@ -4154,7 +4164,7 @@
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
     </row>
-    <row r="90" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" ht="14.45">
       <c r="A90" s="7" t="s">
         <v>177</v>
       </c>
@@ -4177,7 +4187,7 @@
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
     </row>
-    <row r="91" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" ht="14.45" hidden="1">
       <c r="A91" s="7" t="s">
         <v>210</v>
       </c>
@@ -4200,7 +4210,7 @@
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
     </row>
-    <row r="92" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" ht="14.45" hidden="1">
       <c r="A92" s="7" t="s">
         <v>210</v>
       </c>
@@ -4223,7 +4233,7 @@
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
     </row>
-    <row r="93" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" ht="14.45" hidden="1">
       <c r="A93" s="7" t="s">
         <v>210</v>
       </c>
@@ -4246,7 +4256,7 @@
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
     </row>
-    <row r="94" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" ht="14.45">
       <c r="A94" s="7" t="s">
         <v>217</v>
       </c>
@@ -4275,7 +4285,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" ht="14.45">
       <c r="A95" s="7" t="s">
         <v>217</v>
       </c>
@@ -4298,7 +4308,7 @@
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
     </row>
-    <row r="96" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" ht="14.45">
       <c r="A96" s="7" t="s">
         <v>217</v>
       </c>
@@ -4321,7 +4331,7 @@
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
     </row>
-    <row r="97" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" ht="14.45">
       <c r="A97" s="7" t="s">
         <v>217</v>
       </c>
@@ -4344,7 +4354,7 @@
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
     </row>
-    <row r="98" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" ht="14.45">
       <c r="A98" s="7" t="s">
         <v>225</v>
       </c>
@@ -4373,7 +4383,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" ht="14.45">
       <c r="A99" s="7" t="s">
         <v>225</v>
       </c>
@@ -4396,7 +4406,7 @@
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
     </row>
-    <row r="100" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" ht="14.45">
       <c r="A100" s="7" t="s">
         <v>231</v>
       </c>
@@ -4419,7 +4429,7 @@
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
     </row>
-    <row r="101" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" ht="14.45">
       <c r="A101" s="7" t="s">
         <v>231</v>
       </c>
@@ -4445,7 +4455,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" ht="14.45">
       <c r="A102" s="7" t="s">
         <v>238</v>
       </c>
@@ -4468,7 +4478,7 @@
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
     </row>
-    <row r="103" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" ht="14.45">
       <c r="A103" s="7" t="s">
         <v>238</v>
       </c>
@@ -4491,7 +4501,7 @@
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
     </row>
-    <row r="104" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" ht="14.45">
       <c r="A104" s="7" t="s">
         <v>238</v>
       </c>
@@ -4514,7 +4524,7 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
     </row>
-    <row r="105" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" ht="14.45">
       <c r="A105" s="7" t="s">
         <v>238</v>
       </c>
@@ -4537,7 +4547,7 @@
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" ht="14.45">
       <c r="A106" s="7" t="s">
         <v>238</v>
       </c>
@@ -4560,7 +4570,7 @@
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
     </row>
-    <row r="107" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="14.45">
       <c r="A107" s="7" t="s">
         <v>238</v>
       </c>
@@ -4583,7 +4593,7 @@
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
     </row>
-    <row r="108" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="14.45">
       <c r="A108" s="7" t="s">
         <v>238</v>
       </c>
@@ -4606,7 +4616,7 @@
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
     </row>
-    <row r="109" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" ht="14.45">
       <c r="A109" s="7" t="s">
         <v>238</v>
       </c>
@@ -4629,7 +4639,7 @@
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
     </row>
-    <row r="110" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" ht="14.45">
       <c r="A110" s="7" t="s">
         <v>238</v>
       </c>
@@ -4652,7 +4662,7 @@
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
     </row>
-    <row r="111" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" ht="14.45">
       <c r="A111" s="7" t="s">
         <v>238</v>
       </c>
@@ -4675,7 +4685,7 @@
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
     </row>
-    <row r="112" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" ht="14.45">
       <c r="A112" s="7" t="s">
         <v>238</v>
       </c>
@@ -4698,7 +4708,7 @@
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
     </row>
-    <row r="113" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" ht="14.45">
       <c r="A113" s="7" t="s">
         <v>238</v>
       </c>
@@ -4721,7 +4731,7 @@
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
     </row>
-    <row r="114" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" ht="14.45">
       <c r="A114" s="7" t="s">
         <v>238</v>
       </c>
@@ -4744,7 +4754,7 @@
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
     </row>
-    <row r="115" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" ht="14.45">
       <c r="A115" s="7" t="s">
         <v>238</v>
       </c>
@@ -4767,7 +4777,7 @@
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
     </row>
-    <row r="116" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" ht="14.45">
       <c r="A116" s="7" t="s">
         <v>238</v>
       </c>
@@ -4790,7 +4800,7 @@
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
     </row>
-    <row r="117" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" ht="14.45">
       <c r="A117" s="7" t="s">
         <v>238</v>
       </c>
@@ -4813,7 +4823,7 @@
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
     </row>
-    <row r="118" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" ht="14.45">
       <c r="A118" s="7" t="s">
         <v>238</v>
       </c>
@@ -4836,7 +4846,7 @@
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
     </row>
-    <row r="119" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" ht="14.45">
       <c r="A119" s="7" t="s">
         <v>238</v>
       </c>
@@ -4859,7 +4869,7 @@
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
     </row>
-    <row r="120" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" ht="14.45">
       <c r="A120" s="7" t="s">
         <v>276</v>
       </c>
@@ -4882,7 +4892,7 @@
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
     </row>
-    <row r="121" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" ht="14.45">
       <c r="A121" s="7" t="s">
         <v>276</v>
       </c>
@@ -4905,7 +4915,7 @@
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
     </row>
-    <row r="122" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" ht="14.45">
       <c r="A122" s="7" t="s">
         <v>276</v>
       </c>
@@ -4928,7 +4938,7 @@
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
     </row>
-    <row r="123" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" ht="14.45">
       <c r="A123" s="7" t="s">
         <v>284</v>
       </c>
@@ -4951,7 +4961,7 @@
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
     </row>
-    <row r="124" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" ht="14.45" hidden="1">
       <c r="A124" s="7" t="s">
         <v>287</v>
       </c>
@@ -4974,7 +4984,7 @@
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
     </row>
-    <row r="125" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" ht="14.45" hidden="1">
       <c r="A125" s="7" t="s">
         <v>287</v>
       </c>
@@ -4997,7 +5007,7 @@
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
     </row>
-    <row r="126" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" ht="14.45" hidden="1">
       <c r="A126" s="7" t="s">
         <v>287</v>
       </c>
@@ -5020,7 +5030,7 @@
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
     </row>
-    <row r="127" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" ht="14.45">
       <c r="A127" s="7" t="s">
         <v>294</v>
       </c>
@@ -5043,7 +5053,7 @@
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
     </row>
-    <row r="128" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" ht="14.45">
       <c r="A128" t="s">
         <v>297</v>
       </c>
@@ -5070,7 +5080,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" ht="14.45">
       <c r="A129" t="s">
         <v>297</v>
       </c>
@@ -5095,7 +5105,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" ht="15" customHeight="1">
       <c r="A130" s="33" t="s">
         <v>303</v>
       </c>
@@ -5120,7 +5130,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" ht="15" customHeight="1">
       <c r="A131" s="33" t="s">
         <v>307</v>
       </c>
@@ -5145,7 +5155,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" ht="15" customHeight="1">
       <c r="A132" s="33" t="s">
         <v>65</v>
       </c>
@@ -5170,7 +5180,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" ht="15" customHeight="1">
       <c r="A133" s="33" t="s">
         <v>313</v>
       </c>
@@ -5195,7 +5205,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" ht="15" customHeight="1">
       <c r="A134" s="33" t="s">
         <v>313</v>
       </c>
@@ -5220,7 +5230,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" ht="15" customHeight="1">
       <c r="A135" s="33" t="s">
         <v>276</v>
       </c>
@@ -5245,7 +5255,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" ht="15" customHeight="1">
       <c r="A136" s="33" t="s">
         <v>320</v>
       </c>
@@ -5271,7 +5281,7 @@
       </c>
       <c r="J136" s="38"/>
     </row>
-    <row r="137" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" ht="15" customHeight="1">
       <c r="A137" s="33" t="s">
         <v>324</v>
       </c>
@@ -5297,7 +5307,7 @@
       </c>
       <c r="J137" s="38"/>
     </row>
-    <row r="138" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" ht="15" customHeight="1">
       <c r="A138" s="7" t="s">
         <v>329</v>
       </c>
@@ -5321,7 +5331,7 @@
       </c>
       <c r="J138" s="37"/>
     </row>
-    <row r="139" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" ht="15" customHeight="1">
       <c r="A139" s="7" t="s">
         <v>329</v>
       </c>
@@ -5345,7 +5355,7 @@
       </c>
       <c r="J139" s="38"/>
     </row>
-    <row r="140" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" ht="15" customHeight="1">
       <c r="A140" s="7" t="s">
         <v>329</v>
       </c>
@@ -5369,7 +5379,7 @@
       </c>
       <c r="J140" s="38"/>
     </row>
-    <row r="141" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" ht="15" customHeight="1">
       <c r="A141" s="33" t="s">
         <v>333</v>
       </c>
@@ -5395,7 +5405,7 @@
       </c>
       <c r="J141" s="38"/>
     </row>
-    <row r="142" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" ht="15" customHeight="1">
       <c r="A142" s="33" t="s">
         <v>313</v>
       </c>
@@ -5420,7 +5430,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" ht="15" customHeight="1">
       <c r="A143" s="7" t="s">
         <v>336</v>
       </c>
@@ -5445,7 +5455,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" ht="15" customHeight="1">
       <c r="A144" s="33" t="s">
         <v>339</v>
       </c>
@@ -5470,15 +5480,15 @@
         <v>342</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" ht="15" customHeight="1">
       <c r="A145" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C145" s="40" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="8"/>
@@ -5495,7 +5505,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" ht="15" customHeight="1">
       <c r="A146" s="7"/>
       <c r="B146" s="8"/>
       <c r="C146" s="40"/>
@@ -5506,7 +5516,7 @@
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
     </row>
-    <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" ht="15" customHeight="1">
       <c r="A147" s="7"/>
       <c r="B147" s="8"/>
       <c r="C147" s="40"/>
@@ -5517,7 +5527,7 @@
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
     </row>
-    <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" ht="15" customHeight="1">
       <c r="A148" s="7"/>
       <c r="B148" s="8"/>
       <c r="C148" s="40"/>
@@ -5528,7 +5538,7 @@
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
     </row>
-    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" ht="15" customHeight="1">
       <c r="A149" s="7"/>
       <c r="B149" s="8"/>
       <c r="C149" s="40"/>
@@ -5539,7 +5549,7 @@
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
     </row>
-    <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" ht="15" customHeight="1">
       <c r="A150" s="7"/>
       <c r="B150" s="8"/>
       <c r="C150" s="40"/>
@@ -5550,7 +5560,7 @@
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
     </row>
-    <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" ht="15" customHeight="1">
       <c r="A151" s="7"/>
       <c r="B151" s="8"/>
       <c r="C151" s="40"/>
@@ -5561,7 +5571,7 @@
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
     </row>
-    <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" ht="15" customHeight="1">
       <c r="A152" s="7"/>
       <c r="B152" s="8"/>
       <c r="C152" s="40"/>
@@ -5572,7 +5582,7 @@
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
     </row>
-    <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" ht="15" customHeight="1">
       <c r="A153" s="7"/>
       <c r="B153" s="8"/>
       <c r="C153" s="40"/>
@@ -5583,7 +5593,7 @@
       <c r="H153" s="12"/>
       <c r="I153" s="12"/>
     </row>
-    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" ht="15" customHeight="1">
       <c r="A154" s="7"/>
       <c r="B154" s="8"/>
       <c r="C154" s="40"/>
@@ -5594,7 +5604,7 @@
       <c r="H154" s="12"/>
       <c r="I154" s="12"/>
     </row>
-    <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" ht="15" customHeight="1">
       <c r="A155" s="7"/>
       <c r="B155" s="8"/>
       <c r="C155" s="40"/>
@@ -5605,7 +5615,7 @@
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
     </row>
-    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" ht="15" customHeight="1">
       <c r="A156" s="7"/>
       <c r="B156" s="8"/>
       <c r="C156" s="40"/>
@@ -5616,7 +5626,7 @@
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
     </row>
-    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" ht="15" customHeight="1">
       <c r="A157" s="7"/>
       <c r="B157" s="8"/>
       <c r="C157" s="40"/>
@@ -5627,7 +5637,7 @@
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
     </row>
-    <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" ht="15" customHeight="1">
       <c r="A158" s="7"/>
       <c r="B158" s="8"/>
       <c r="C158" s="40"/>
@@ -5638,7 +5648,7 @@
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
     </row>
-    <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" ht="15" customHeight="1">
       <c r="A159" s="7"/>
       <c r="B159" s="8"/>
       <c r="C159" s="40"/>
@@ -5649,7 +5659,7 @@
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
     </row>
-    <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" ht="15" customHeight="1">
       <c r="A160" s="7"/>
       <c r="B160" s="8"/>
       <c r="C160" s="40"/>
@@ -5660,7 +5670,7 @@
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
     </row>
-    <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" ht="15" customHeight="1">
       <c r="A161" s="7"/>
       <c r="B161" s="8"/>
       <c r="C161" s="40"/>
@@ -5671,7 +5681,7 @@
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
     </row>
-    <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" ht="15" customHeight="1">
       <c r="A162" s="7"/>
       <c r="B162" s="8"/>
       <c r="C162" s="40"/>
@@ -5682,7 +5692,7 @@
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
     </row>
-    <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" ht="15" customHeight="1">
       <c r="A163" s="7"/>
       <c r="B163" s="8"/>
       <c r="C163" s="40"/>
@@ -5693,7 +5703,7 @@
       <c r="H163" s="12"/>
       <c r="I163" s="12"/>
     </row>
-    <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" ht="15" customHeight="1">
       <c r="A164" s="7"/>
       <c r="B164" s="8"/>
       <c r="C164" s="40"/>
@@ -5704,7 +5714,7 @@
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>
     </row>
-    <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" ht="15" customHeight="1">
       <c r="A165" s="7"/>
       <c r="B165" s="8"/>
       <c r="C165" s="40"/>
@@ -5715,7 +5725,7 @@
       <c r="H165" s="12"/>
       <c r="I165" s="12"/>
     </row>
-    <row r="166" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" ht="15" customHeight="1">
       <c r="A166" s="7"/>
       <c r="B166" s="8"/>
       <c r="C166" s="40"/>
@@ -5726,7 +5736,7 @@
       <c r="H166" s="12"/>
       <c r="I166" s="12"/>
     </row>
-    <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" ht="15" customHeight="1">
       <c r="A167" s="7"/>
       <c r="B167" s="8"/>
       <c r="C167" s="40"/>
@@ -5737,7 +5747,7 @@
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
     </row>
-    <row r="168" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" ht="15" customHeight="1">
       <c r="A168" s="7"/>
       <c r="B168" s="8"/>
       <c r="C168" s="40"/>
@@ -5748,7 +5758,7 @@
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
     </row>
-    <row r="169" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" ht="15" customHeight="1">
       <c r="A169" s="7"/>
       <c r="B169" s="8"/>
       <c r="C169" s="40"/>
@@ -5759,7 +5769,7 @@
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
     </row>
-    <row r="170" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" ht="15" customHeight="1">
       <c r="A170" s="7"/>
       <c r="B170" s="8"/>
       <c r="C170" s="40"/>
@@ -5770,7 +5780,7 @@
       <c r="H170" s="12"/>
       <c r="I170" s="12"/>
     </row>
-    <row r="171" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" ht="15" customHeight="1">
       <c r="A171" s="7"/>
       <c r="B171" s="8"/>
       <c r="C171" s="40"/>
@@ -5781,7 +5791,7 @@
       <c r="H171" s="12"/>
       <c r="I171" s="12"/>
     </row>
-    <row r="172" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" ht="15" customHeight="1">
       <c r="A172" s="7"/>
       <c r="B172" s="8"/>
       <c r="C172" s="40"/>
@@ -5792,7 +5802,7 @@
       <c r="H172" s="12"/>
       <c r="I172" s="12"/>
     </row>
-    <row r="173" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" ht="15" customHeight="1">
       <c r="A173" s="7"/>
       <c r="B173" s="8"/>
       <c r="C173" s="40"/>
@@ -5803,7 +5813,7 @@
       <c r="H173" s="12"/>
       <c r="I173" s="12"/>
     </row>
-    <row r="174" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" ht="15" customHeight="1">
       <c r="A174" s="7"/>
       <c r="B174" s="8"/>
       <c r="C174" s="40"/>
@@ -5814,7 +5824,7 @@
       <c r="H174" s="12"/>
       <c r="I174" s="12"/>
     </row>
-    <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" ht="15" customHeight="1">
       <c r="A175" s="7"/>
       <c r="B175" s="8"/>
       <c r="C175" s="40"/>
@@ -5825,7 +5835,7 @@
       <c r="H175" s="12"/>
       <c r="I175" s="12"/>
     </row>
-    <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" ht="15" customHeight="1">
       <c r="A176" s="7"/>
       <c r="B176" s="8"/>
       <c r="C176" s="40"/>
@@ -5836,7 +5846,7 @@
       <c r="H176" s="12"/>
       <c r="I176" s="12"/>
     </row>
-    <row r="177" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" ht="15" customHeight="1">
       <c r="A177" s="7"/>
       <c r="B177" s="8"/>
       <c r="C177" s="40"/>
@@ -5847,7 +5857,7 @@
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
     </row>
-    <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" ht="15" customHeight="1">
       <c r="A178" s="7"/>
       <c r="B178" s="8"/>
       <c r="C178" s="40"/>
@@ -5858,7 +5868,7 @@
       <c r="H178" s="12"/>
       <c r="I178" s="12"/>
     </row>
-    <row r="179" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" ht="15" customHeight="1">
       <c r="A179" s="7"/>
       <c r="B179" s="8"/>
       <c r="C179" s="40"/>
@@ -5869,7 +5879,7 @@
       <c r="H179" s="12"/>
       <c r="I179" s="12"/>
     </row>
-    <row r="180" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" ht="15" customHeight="1">
       <c r="A180" s="7"/>
       <c r="B180" s="8"/>
       <c r="C180" s="40"/>
@@ -5880,7 +5890,7 @@
       <c r="H180" s="12"/>
       <c r="I180" s="12"/>
     </row>
-    <row r="181" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" ht="15" customHeight="1">
       <c r="A181" s="7"/>
       <c r="B181" s="8"/>
       <c r="C181" s="40"/>
@@ -5891,7 +5901,7 @@
       <c r="H181" s="12"/>
       <c r="I181" s="12"/>
     </row>
-    <row r="182" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" ht="15" customHeight="1">
       <c r="A182" s="7"/>
       <c r="B182" s="8"/>
       <c r="C182" s="40"/>
@@ -5902,7 +5912,7 @@
       <c r="H182" s="12"/>
       <c r="I182" s="12"/>
     </row>
-    <row r="183" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" ht="15" customHeight="1">
       <c r="A183" s="7"/>
       <c r="B183" s="8"/>
       <c r="C183" s="40"/>
@@ -5913,7 +5923,7 @@
       <c r="H183" s="12"/>
       <c r="I183" s="12"/>
     </row>
-    <row r="184" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" ht="15" customHeight="1">
       <c r="A184" s="7"/>
       <c r="B184" s="8"/>
       <c r="C184" s="40"/>
@@ -5924,7 +5934,7 @@
       <c r="H184" s="12"/>
       <c r="I184" s="12"/>
     </row>
-    <row r="185" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" ht="15" customHeight="1">
       <c r="A185" s="7"/>
       <c r="B185" s="8"/>
       <c r="C185" s="40"/>
@@ -5935,7 +5945,7 @@
       <c r="H185" s="12"/>
       <c r="I185" s="12"/>
     </row>
-    <row r="186" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" ht="15" customHeight="1">
       <c r="A186" s="7"/>
       <c r="B186" s="8"/>
       <c r="C186" s="40"/>
@@ -5946,7 +5956,7 @@
       <c r="H186" s="12"/>
       <c r="I186" s="12"/>
     </row>
-    <row r="187" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" ht="15" customHeight="1">
       <c r="A187" s="7"/>
       <c r="B187" s="8"/>
       <c r="C187" s="40"/>
@@ -5957,7 +5967,7 @@
       <c r="H187" s="12"/>
       <c r="I187" s="12"/>
     </row>
-    <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" ht="15" customHeight="1">
       <c r="A188" s="7"/>
       <c r="B188" s="8"/>
       <c r="C188" s="40"/>
@@ -5968,7 +5978,7 @@
       <c r="H188" s="12"/>
       <c r="I188" s="12"/>
     </row>
-    <row r="189" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" ht="15" customHeight="1">
       <c r="A189" s="7"/>
       <c r="B189" s="8"/>
       <c r="C189" s="40"/>
@@ -5979,7 +5989,7 @@
       <c r="H189" s="12"/>
       <c r="I189" s="12"/>
     </row>
-    <row r="190" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" ht="15" customHeight="1">
       <c r="A190" s="7"/>
       <c r="B190" s="8"/>
       <c r="C190" s="40"/>
@@ -5990,7 +6000,7 @@
       <c r="H190" s="12"/>
       <c r="I190" s="12"/>
     </row>
-    <row r="191" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" ht="15" customHeight="1">
       <c r="A191" s="7"/>
       <c r="B191" s="8"/>
       <c r="C191" s="40"/>
@@ -6001,7 +6011,7 @@
       <c r="H191" s="12"/>
       <c r="I191" s="12"/>
     </row>
-    <row r="192" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" ht="15" customHeight="1">
       <c r="A192" s="7"/>
       <c r="B192" s="8"/>
       <c r="C192" s="40"/>
@@ -6012,7 +6022,7 @@
       <c r="H192" s="12"/>
       <c r="I192" s="12"/>
     </row>
-    <row r="193" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" ht="15" customHeight="1">
       <c r="A193" s="7"/>
       <c r="B193" s="8"/>
       <c r="C193" s="40"/>
@@ -6023,7 +6033,7 @@
       <c r="H193" s="12"/>
       <c r="I193" s="12"/>
     </row>
-    <row r="194" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" ht="15" customHeight="1">
       <c r="A194" s="7"/>
       <c r="B194" s="8"/>
       <c r="C194" s="40"/>
@@ -6034,7 +6044,7 @@
       <c r="H194" s="12"/>
       <c r="I194" s="12"/>
     </row>
-    <row r="195" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" ht="15" customHeight="1">
       <c r="A195" s="7"/>
       <c r="B195" s="8"/>
       <c r="C195" s="40"/>
@@ -6045,7 +6055,7 @@
       <c r="H195" s="12"/>
       <c r="I195" s="12"/>
     </row>
-    <row r="196" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" ht="15" customHeight="1">
       <c r="A196" s="7"/>
       <c r="B196" s="8"/>
       <c r="C196" s="40"/>
@@ -6056,7 +6066,7 @@
       <c r="H196" s="12"/>
       <c r="I196" s="12"/>
     </row>
-    <row r="197" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" ht="15" customHeight="1">
       <c r="A197" s="7"/>
       <c r="B197" s="8"/>
       <c r="C197" s="40"/>
@@ -6067,7 +6077,7 @@
       <c r="H197" s="12"/>
       <c r="I197" s="12"/>
     </row>
-    <row r="198" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" ht="15" customHeight="1">
       <c r="A198" s="7"/>
       <c r="B198" s="8"/>
       <c r="C198" s="40"/>
@@ -6078,7 +6088,7 @@
       <c r="H198" s="12"/>
       <c r="I198" s="12"/>
     </row>
-    <row r="199" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" ht="15" customHeight="1">
       <c r="A199" s="7"/>
       <c r="B199" s="8"/>
       <c r="C199" s="40"/>
@@ -6089,7 +6099,7 @@
       <c r="H199" s="12"/>
       <c r="I199" s="12"/>
     </row>
-    <row r="200" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" ht="15" customHeight="1">
       <c r="A200" s="7"/>
       <c r="B200" s="8"/>
       <c r="C200" s="40"/>
@@ -6100,7 +6110,7 @@
       <c r="H200" s="12"/>
       <c r="I200" s="12"/>
     </row>
-    <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" ht="15" customHeight="1">
       <c r="A201" s="7"/>
       <c r="B201" s="8"/>
       <c r="C201" s="40"/>
@@ -6111,7 +6121,7 @@
       <c r="H201" s="12"/>
       <c r="I201" s="12"/>
     </row>
-    <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" ht="15" customHeight="1">
       <c r="A202" s="7"/>
       <c r="B202" s="8"/>
       <c r="C202" s="40"/>
@@ -6122,7 +6132,7 @@
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
     </row>
-    <row r="203" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" ht="15" customHeight="1">
       <c r="A203" s="7"/>
       <c r="B203" s="8"/>
       <c r="C203" s="40"/>
@@ -6133,7 +6143,7 @@
       <c r="H203" s="12"/>
       <c r="I203" s="12"/>
     </row>
-    <row r="204" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" ht="15" customHeight="1">
       <c r="A204" s="7"/>
       <c r="B204" s="8"/>
       <c r="C204" s="40"/>
@@ -6160,413 +6170,413 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="54" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:14">
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:14">
       <c r="D3" s="1">
         <v>868589060374017</v>
       </c>
       <c r="F3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G3" s="2" t="e">
         <f ca="1">VLOOKUP(D3,Hoja2!G:K,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I3" s="4">
         <v>46043</v>
       </c>
     </row>
-    <row r="4" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:14">
       <c r="D4" s="1">
         <v>868589060674226</v>
       </c>
       <c r="F4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G4" s="2" t="e">
         <f ca="1">VLOOKUP(D4,Hoja2!G:K,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I4" s="4">
         <v>46043</v>
       </c>
     </row>
-    <row r="5" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:14">
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:14">
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:14">
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:14">
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:14">
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:14">
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:14">
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:14">
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:14">
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:14">
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:14">
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:14">
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="13:14">
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="13:14">
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="13:14">
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="13:14">
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="13:14">
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="13:14">
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="13:14">
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="13:14">
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="13:14">
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="13:14">
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="13:14">
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="13:14">
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="13:14">
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="13:14">
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="13:14">
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="13:14">
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="13:14">
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="13:14">
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="13:14">
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="13:14">
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="13:14">
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="13:14">
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="13:14">
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="13:14">
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="13:14">
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="13:14">
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="13:14">
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="13:14">
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="13:14">
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="13:14">
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="13:14">
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="13:14">
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="13:14">
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="13:14">
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="13:14">
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="13:14">
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="13:14">
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="13:14">
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="13:14">
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="13:14">
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="13:14">
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="13:14">
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="13:14">
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="13:14">
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="13:14">
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="13:14">
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="13:14">
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="13:14">
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="13:14">
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
     </row>
-    <row r="66" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="13:14">
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
     </row>
-    <row r="67" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="13:14">
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
     </row>
-    <row r="68" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="13:14">
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="13:14">
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="13:14">
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
     </row>
-    <row r="71" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="13:14">
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
     </row>
-    <row r="72" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="13:14">
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
     </row>
-    <row r="73" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="13:14">
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
     </row>
-    <row r="74" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="13:14">
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="13:14">
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
     </row>
-    <row r="76" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="13:14">
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
     </row>
-    <row r="77" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="13:14">
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
     </row>
-    <row r="78" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="13:14">
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
     </row>
-    <row r="79" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="13:14">
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
     </row>
-    <row r="80" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="13:14">
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="13:14">
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="13:14">
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
     </row>
-    <row r="83" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="13:14">
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
     </row>
-    <row r="84" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="13:14">
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
     </row>
-    <row r="85" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="13:14">
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
     </row>
-    <row r="86" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="13:14">
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
     </row>
-    <row r="87" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="13:14">
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
     </row>
-    <row r="88" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="13:14">
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
     </row>
-    <row r="89" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="13:14">
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
     </row>
-    <row r="90" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="13:14">
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
     </row>
-    <row r="91" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="13:14">
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
     </row>
-    <row r="92" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="13:14">
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
     </row>
@@ -6576,23 +6586,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100027709BF533FA442AFC4A8B2C0110727" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a37fc0d7c302f7619d355a49e1f175a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xmlns:ns4="bda9c1ec-c4e2-44f9-929c-ca399fe36c88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="01250a30c504a808427f15ccf149ee4d" ns3:_="" ns4:_="">
     <xsd:import namespace="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
@@ -6825,39 +6818,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9861A25-610F-425F-BC6A-AC52D4971411}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4794C7E6-B89D-4081-9A67-B8D500EF1EE4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3e53c16e-6636-411e-b1c4-e9eeb71b3b2a"/>
-    <ds:schemaRef ds:uri="bda9c1ec-c4e2-44f9-929c-ca399fe36c88"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8123E5-81FD-4C24-91F1-33BC079967E9}"/>
 </file>